--- a/Working code/Logs/neg_picked.xlsx
+++ b/Working code/Logs/neg_picked.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z6"/>
+  <dimension ref="A1:Z11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <selection activeCell="AA1" sqref="AA1"/>
@@ -962,6 +962,416 @@
       </c>
       <c r="Z6" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2023-04-22 03:40:56</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>17</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>7.115386157642254</v>
+      </c>
+      <c r="G7" t="n">
+        <v>130.8978051407853</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>29.21534180962126</v>
+      </c>
+      <c r="J7" t="n">
+        <v>114.6706678634353</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>52.22125518795356</v>
+      </c>
+      <c r="M7" t="n">
+        <v>72.15804157153758</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>298.2308544561222</v>
+      </c>
+      <c r="P7" t="n">
+        <v>404.7731212122389</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>8.308540759789052</v>
+      </c>
+      <c r="S7" t="n">
+        <v>64.17431785890754</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.053945207809971</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.512032451399572</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>57.05431797692449</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>65.08861147264744</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2023-04-22 03:40:56</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.08243314577666479</v>
+      </c>
+      <c r="D8" t="n">
+        <v>17</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>50.62424111030803</v>
+      </c>
+      <c r="G8" t="n">
+        <v>78.06745632167433</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>82.61948660139248</v>
+      </c>
+      <c r="J8" t="n">
+        <v>87.17359966978556</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>26.59500382378592</v>
+      </c>
+      <c r="M8" t="n">
+        <v>82.88656221339299</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>267.7703258069045</v>
+      </c>
+      <c r="P8" t="n">
+        <v>279.6013160332797</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>66.06962065095833</v>
+      </c>
+      <c r="S8" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.7218153935473101</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>73.7434972004539</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>74.22698106116965</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2023-04-22 03:40:56</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>9.003189813840287</v>
+      </c>
+      <c r="D9" t="n">
+        <v>16.95300079346664</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>134.2188760495144</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>122</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>14.3345809468091</v>
+      </c>
+      <c r="M9" t="n">
+        <v>45.3824789039512</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>596.9966034468597</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5.191023149782926</v>
+      </c>
+      <c r="S9" t="n">
+        <v>38.10455364263382</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.9790786020750863</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.625946219962588</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>59.61383292726782</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>81</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2023-04-22 03:40:56</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>12.16190157508888</v>
+      </c>
+      <c r="D10" t="n">
+        <v>15.55364025687956</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>50.35333207541146</v>
+      </c>
+      <c r="G10" t="n">
+        <v>147.9725442140895</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>22.68576674697635</v>
+      </c>
+      <c r="J10" t="n">
+        <v>67.07282470668787</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>34.1200349762109</v>
+      </c>
+      <c r="M10" t="n">
+        <v>67.37632636345654</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>187.0322215529495</v>
+      </c>
+      <c r="P10" t="n">
+        <v>390.7372140719862</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>55.16863823451238</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.281514159450075</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>25.46934495470942</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>39.07170414859676</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2023-04-22 03:40:56</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.66327014510845</v>
+      </c>
+      <c r="D11" t="n">
+        <v>6.840258314254107</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>158.5074788447775</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>48.92825707241906</v>
+      </c>
+      <c r="J11" t="n">
+        <v>110.5703433886287</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>41.97461972495176</v>
+      </c>
+      <c r="M11" t="n">
+        <v>99</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>128.1322141550649</v>
+      </c>
+      <c r="P11" t="n">
+        <v>602.9891600110262</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>16.27243659229596</v>
+      </c>
+      <c r="S11" t="n">
+        <v>34.34377953823264</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.1759986933607309</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.4993309090539863</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>57.75236632570866</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>62.77314560423047</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.97</v>
       </c>
     </row>
   </sheetData>

--- a/Working code/Logs/neg_picked.xlsx
+++ b/Working code/Logs/neg_picked.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z11"/>
+  <dimension ref="A1:Z26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <selection activeCell="AA1" sqref="AA1"/>
@@ -1372,6 +1372,1236 @@
       </c>
       <c r="Z11" t="n">
         <v>0.97</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2023-04-25 02:55:38</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>6.897986680298462</v>
+      </c>
+      <c r="D12" t="n">
+        <v>9.022894274967976</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>38.23596346641663</v>
+      </c>
+      <c r="G12" t="n">
+        <v>160.0604246007223</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>49.53822644262047</v>
+      </c>
+      <c r="J12" t="n">
+        <v>62.16634763727932</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>7.567558784478209</v>
+      </c>
+      <c r="M12" t="n">
+        <v>83.8819482637156</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>41.38180794766177</v>
+      </c>
+      <c r="P12" t="n">
+        <v>808.7801257780956</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>28.16147139185082</v>
+      </c>
+      <c r="S12" t="n">
+        <v>34.78321401199469</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.1403725940135816</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.023820062713815</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>26.93061632784404</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>74.69017299269676</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2023-04-25 02:55:38</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>5.128121984590416</v>
+      </c>
+      <c r="D13" t="n">
+        <v>7.179257376991684</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>53.2549792196026</v>
+      </c>
+      <c r="G13" t="n">
+        <v>77.50495611639741</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>55.30721606648673</v>
+      </c>
+      <c r="J13" t="n">
+        <v>57.88031652836805</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.8610014207947501</v>
+      </c>
+      <c r="M13" t="n">
+        <v>99</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>171.2656906316258</v>
+      </c>
+      <c r="P13" t="n">
+        <v>846</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>35.04269215948628</v>
+      </c>
+      <c r="S13" t="n">
+        <v>39.48878016755269</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.096954046362033</v>
+      </c>
+      <c r="V13" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>48.99033036576554</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>51.64590006699894</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2023-04-25 02:55:38</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3.738500108879656</v>
+      </c>
+      <c r="D14" t="n">
+        <v>10.90750592266261</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>164.3754651365561</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>122</v>
+      </c>
+      <c r="J14" t="n">
+        <v>122</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>30.00335824247752</v>
+      </c>
+      <c r="M14" t="n">
+        <v>56.70599050257944</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>285.5583968695927</v>
+      </c>
+      <c r="P14" t="n">
+        <v>627.2221515510399</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>17.7393216904078</v>
+      </c>
+      <c r="S14" t="n">
+        <v>53.50037021398287</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.5336750654948275</v>
+      </c>
+      <c r="V14" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>22.60791434139075</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>76.51319045396211</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2023-04-25 02:55:38</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>12.05345425279037</v>
+      </c>
+      <c r="D15" t="n">
+        <v>15.57644963029707</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>32.84893051933361</v>
+      </c>
+      <c r="G15" t="n">
+        <v>165.1523857402619</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>71.08020825555283</v>
+      </c>
+      <c r="J15" t="n">
+        <v>83.61924858064864</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>23.20833196564984</v>
+      </c>
+      <c r="M15" t="n">
+        <v>64.43787817246469</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>262.0544407877045</v>
+      </c>
+      <c r="P15" t="n">
+        <v>528.1390500195407</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>8.227652376876929</v>
+      </c>
+      <c r="S15" t="n">
+        <v>20.59305087310326</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.441552514518554</v>
+      </c>
+      <c r="V15" t="n">
+        <v>2.197815105721447</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>39.42434939943971</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>46.47541433855793</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2023-04-25 02:55:38</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>7.263376529771048</v>
+      </c>
+      <c r="D16" t="n">
+        <v>16.76212896598453</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>38.78684274997093</v>
+      </c>
+      <c r="G16" t="n">
+        <v>129.2859550798914</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>62.31756722982066</v>
+      </c>
+      <c r="J16" t="n">
+        <v>69.44965945741616</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>99</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>185.7083392159531</v>
+      </c>
+      <c r="P16" t="n">
+        <v>335.6080770219449</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>22.81516991280843</v>
+      </c>
+      <c r="S16" t="n">
+        <v>36.87645695503852</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.4198210298174962</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.477935022259276</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>47.20066189949888</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>55.02091152736649</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2023-04-25 03:11:57</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>6.744125622857696</v>
+      </c>
+      <c r="D17" t="n">
+        <v>8.303120165045222</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>183.1350101824107</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>44.68306415010733</v>
+      </c>
+      <c r="J17" t="n">
+        <v>62.09501742291491</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>88.71003220897914</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>417.7329804858347</v>
+      </c>
+      <c r="P17" t="n">
+        <v>631.9587607909331</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>38.38147582343876</v>
+      </c>
+      <c r="S17" t="n">
+        <v>39.81495706118906</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.279863959996006</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.754111102221787</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>69.98015707736333</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>72.15440636065289</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2023-04-25 03:11:57</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>11.19580340050996</v>
+      </c>
+      <c r="D18" t="n">
+        <v>12.52509508367028</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>129.8467220512239</v>
+      </c>
+      <c r="G18" t="n">
+        <v>191.5629789589254</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>41.03053400436215</v>
+      </c>
+      <c r="J18" t="n">
+        <v>106.5556304601601</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>50.97097534469022</v>
+      </c>
+      <c r="M18" t="n">
+        <v>74.36795574748821</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>51.14136087983147</v>
+      </c>
+      <c r="P18" t="n">
+        <v>519.8443036749019</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>7.170345670756165</v>
+      </c>
+      <c r="S18" t="n">
+        <v>53.21917809459268</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.6194887205126957</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.004556608544832</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>26.1789573608986</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>49.22214333747934</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2023-04-25 03:11:57</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3.65263625193273</v>
+      </c>
+      <c r="D19" t="n">
+        <v>10.53363722281279</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>199</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>31.9231859025588</v>
+      </c>
+      <c r="J19" t="n">
+        <v>38.19607606667623</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>36.75913364770136</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>28.71539153168305</v>
+      </c>
+      <c r="P19" t="n">
+        <v>211.6409483447333</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>11.99674743078322</v>
+      </c>
+      <c r="S19" t="n">
+        <v>52.85622653716838</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.6846105016610907</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1</v>
+      </c>
+      <c r="X19" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>74.2625201698808</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2023-04-25 03:11:57</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>9.807414677095341</v>
+      </c>
+      <c r="D20" t="n">
+        <v>12.54192978475556</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>154.5760897478653</v>
+      </c>
+      <c r="G20" t="n">
+        <v>160.2242413971777</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>29.83971916235501</v>
+      </c>
+      <c r="J20" t="n">
+        <v>88.45893249154496</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>21.12758882400028</v>
+      </c>
+      <c r="M20" t="n">
+        <v>24.68724955703257</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>129.52680537541</v>
+      </c>
+      <c r="P20" t="n">
+        <v>319.3285413635101</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>30.05652255363174</v>
+      </c>
+      <c r="S20" t="n">
+        <v>65.50005267700406</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2.224118488333558</v>
+      </c>
+      <c r="V20" t="n">
+        <v>2.304756769839654</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>21.68648720502226</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>53.43103267111032</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2023-04-25 03:11:57</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>6.442630342799495</v>
+      </c>
+      <c r="D21" t="n">
+        <v>12.33340229367161</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>10.50084156994573</v>
+      </c>
+      <c r="G21" t="n">
+        <v>156.198084891765</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>78.22533161723317</v>
+      </c>
+      <c r="J21" t="n">
+        <v>100.4410363281603</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>99</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>184.2497967416492</v>
+      </c>
+      <c r="P21" t="n">
+        <v>823.1399058773111</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>11.99398758217186</v>
+      </c>
+      <c r="S21" t="n">
+        <v>66.88387837723913</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.54824914590468</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.946341449539606</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>74.13033292338663</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>81</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2023-04-25 03:29:14</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>5.30412641375182</v>
+      </c>
+      <c r="D22" t="n">
+        <v>16.13446622870924</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>32.00573254841094</v>
+      </c>
+      <c r="G22" t="n">
+        <v>199</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>12.85142375765433</v>
+      </c>
+      <c r="J22" t="n">
+        <v>100.2301900294673</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>10.77416370459192</v>
+      </c>
+      <c r="M22" t="n">
+        <v>43.91351745723912</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>560.7987915013927</v>
+      </c>
+      <c r="P22" t="n">
+        <v>729.2790674803123</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>29.49168359122341</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.714614110889214</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.780360602789757</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>34.7468277810671</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>56.99420251573996</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2023-04-25 03:29:14</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>4.713680902277077</v>
+      </c>
+      <c r="D23" t="n">
+        <v>16.43615977048067</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>140.494865074649</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>29.58063356611044</v>
+      </c>
+      <c r="J23" t="n">
+        <v>109.8715695396375</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>13.98238090865426</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>373.4397319494814</v>
+      </c>
+      <c r="P23" t="n">
+        <v>757.3229790286507</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>8.410862749163103</v>
+      </c>
+      <c r="S23" t="n">
+        <v>41.81827739852856</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.9743727512486687</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.186226364288559</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1</v>
+      </c>
+      <c r="X23" t="n">
+        <v>21.63499986473068</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>70.64361983501769</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2023-04-25 03:29:14</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>9.722125022935911</v>
+      </c>
+      <c r="D24" t="n">
+        <v>10.9896602303892</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>112.0742160781137</v>
+      </c>
+      <c r="G24" t="n">
+        <v>165.0170055363</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>11.19999489505688</v>
+      </c>
+      <c r="J24" t="n">
+        <v>39.66849949890674</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>99</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>50.53967338555363</v>
+      </c>
+      <c r="P24" t="n">
+        <v>233.5122978004563</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>55.89129908199416</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.8361192558733206</v>
+      </c>
+      <c r="V24" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>31.10458821734096</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>66.03158303014999</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2023-04-25 03:29:14</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>11.47035379502807</v>
+      </c>
+      <c r="D25" t="n">
+        <v>16.91571374823634</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="n">
+        <v>26.8067773763924</v>
+      </c>
+      <c r="G25" t="n">
+        <v>183.4750607850399</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>85.40134947686595</v>
+      </c>
+      <c r="J25" t="n">
+        <v>106.0118785862894</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>39.88925079960523</v>
+      </c>
+      <c r="M25" t="n">
+        <v>45.15224212713312</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>162.679776193199</v>
+      </c>
+      <c r="P25" t="n">
+        <v>179.2579765469644</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>31.09718688036436</v>
+      </c>
+      <c r="S25" t="n">
+        <v>35.85879697630767</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.08323169156918217</v>
+      </c>
+      <c r="V25" t="n">
+        <v>2.123145988710608</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>61.42601001136929</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>79.50769181109044</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2023-04-25 03:29:15</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>8.368666474771484</v>
+      </c>
+      <c r="D26" t="n">
+        <v>14.85329866798673</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>78.88850236653774</v>
+      </c>
+      <c r="G26" t="n">
+        <v>139.663421235072</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>63.0593790251387</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>88.76620512013839</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>79.00133230516332</v>
+      </c>
+      <c r="P26" t="n">
+        <v>436.8331403694356</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>24.92007313261675</v>
+      </c>
+      <c r="S26" t="n">
+        <v>53.50980956328978</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.042470064362268</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>34.7137336377366</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>51.0122067566251</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Working code/Logs/neg_picked.xlsx
+++ b/Working code/Logs/neg_picked.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z26"/>
+  <dimension ref="A1:Z36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <selection activeCell="AA1" sqref="AA1"/>
@@ -2602,6 +2602,826 @@
       </c>
       <c r="Z26" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2023-04-26 01:24:03</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>17</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>58.35908766361087</v>
+      </c>
+      <c r="G27" t="n">
+        <v>134.8886081360101</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>49.15917988500986</v>
+      </c>
+      <c r="J27" t="n">
+        <v>80.50633692571117</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>99</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>100.9449094624613</v>
+      </c>
+      <c r="P27" t="n">
+        <v>402.2048064773173</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>55.76251020517579</v>
+      </c>
+      <c r="S27" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.7210795018247053</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.225340667109943</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>52.5915142287844</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>58.27683324819733</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2023-04-26 01:24:03</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.530928877909965</v>
+      </c>
+      <c r="D28" t="n">
+        <v>6.787579514222453</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" t="n">
+        <v>5.442328691563048</v>
+      </c>
+      <c r="G28" t="n">
+        <v>160.9457838355312</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>7.79305429126483</v>
+      </c>
+      <c r="J28" t="n">
+        <v>121.9727396430722</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>75.75242435722927</v>
+      </c>
+      <c r="M28" t="n">
+        <v>91.32658565758814</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>515.7223997568422</v>
+      </c>
+      <c r="P28" t="n">
+        <v>758.0554783771457</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.733946741995356</v>
+      </c>
+      <c r="S28" t="n">
+        <v>47.01184786472358</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.8772787291512878</v>
+      </c>
+      <c r="V28" t="n">
+        <v>2.373665709694958</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>39.9178606532605</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>58.08201916100847</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2023-04-26 01:24:03</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>2.617644919273769</v>
+      </c>
+      <c r="D29" t="n">
+        <v>5.004810291056961</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>85.19449172092504</v>
+      </c>
+      <c r="G29" t="n">
+        <v>154.6347155943556</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>40.24333980487698</v>
+      </c>
+      <c r="J29" t="n">
+        <v>107.5950023951289</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>99</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>458.2498895738868</v>
+      </c>
+      <c r="P29" t="n">
+        <v>783.043914412165</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>22.60570756159889</v>
+      </c>
+      <c r="S29" t="n">
+        <v>38.77289728085978</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0.9149335331020889</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>29.91928828223254</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>61.91583880404498</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2023-04-26 01:24:03</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>10.99238694292576</v>
+      </c>
+      <c r="D30" t="n">
+        <v>16.23651622711351</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" t="n">
+        <v>38.59755818731345</v>
+      </c>
+      <c r="G30" t="n">
+        <v>146.0128203052343</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>63.60435330088757</v>
+      </c>
+      <c r="J30" t="n">
+        <v>108.0441888009848</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.2390384170663797</v>
+      </c>
+      <c r="M30" t="n">
+        <v>75.91167060419188</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>365.0645425602154</v>
+      </c>
+      <c r="P30" t="n">
+        <v>621.6961024391018</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>39.54458867330189</v>
+      </c>
+      <c r="S30" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.689644702080226</v>
+      </c>
+      <c r="V30" t="n">
+        <v>2.226888468484092</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>30.49031391750249</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>32.51013765858259</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2023-04-26 01:24:04</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>9.461373489900788</v>
+      </c>
+      <c r="D31" t="n">
+        <v>10.7368653129065</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>40.71125467761315</v>
+      </c>
+      <c r="G31" t="n">
+        <v>91.94143504783375</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>71.6274360607412</v>
+      </c>
+      <c r="J31" t="n">
+        <v>89.36701606657022</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>99</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>73.43594514247039</v>
+      </c>
+      <c r="P31" t="n">
+        <v>617.7044038905132</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>46.66686059419942</v>
+      </c>
+      <c r="S31" t="n">
+        <v>61.1074946519953</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.4236138914278376</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.282924550371963</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>78.67245093328569</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2023-04-26 02:10:39</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2.42585462782574</v>
+      </c>
+      <c r="D32" t="n">
+        <v>9.865885822976649</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>164.453403882402</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>52.90511040303706</v>
+      </c>
+      <c r="J32" t="n">
+        <v>79.55406349177764</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>14.91207243876192</v>
+      </c>
+      <c r="M32" t="n">
+        <v>65.7256041529637</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>344.0199554350135</v>
+      </c>
+      <c r="P32" t="n">
+        <v>846</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.001143578287990721</v>
+      </c>
+      <c r="S32" t="n">
+        <v>30.49895872788431</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.5141509874343086</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.8984898012497835</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>49.93315881367752</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>81</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2023-04-26 02:10:39</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>4.253644827501326</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" t="n">
+        <v>25.29599748677638</v>
+      </c>
+      <c r="G33" t="n">
+        <v>157.3571771745373</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>62.43700560150235</v>
+      </c>
+      <c r="J33" t="n">
+        <v>122</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>24.76746119513817</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>111.9295137911583</v>
+      </c>
+      <c r="P33" t="n">
+        <v>719.793351291326</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>41.16659146891163</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.1992162075090306</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0.4935000432267301</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>70.59299082737267</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2023-04-26 02:10:39</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>10.80642990886481</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>154.0524723222721</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>29.33172254678779</v>
+      </c>
+      <c r="J34" t="n">
+        <v>75.58341038594695</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>52.56158380082216</v>
+      </c>
+      <c r="M34" t="n">
+        <v>81.83486248768716</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>181.3586610299251</v>
+      </c>
+      <c r="P34" t="n">
+        <v>342.0847395990601</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>15.61718362807517</v>
+      </c>
+      <c r="S34" t="n">
+        <v>61.50962060639944</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0.709022649402108</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.654366718690873</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>40.15441446172134</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>62.57662960146519</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2023-04-26 02:10:39</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>7.148224230424684</v>
+      </c>
+      <c r="D35" t="n">
+        <v>12.97393511326276</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>176.9881884473459</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>4.190190131361076</v>
+      </c>
+      <c r="J35" t="n">
+        <v>55.52486045831329</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>3.123638866926237</v>
+      </c>
+      <c r="M35" t="n">
+        <v>96.86232891917123</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>70.643216977187</v>
+      </c>
+      <c r="P35" t="n">
+        <v>743.8151482027577</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>29.68991833706371</v>
+      </c>
+      <c r="S35" t="n">
+        <v>33.75930744274373</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.983396609054358</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1.362957446731362</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>26.96399270625493</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>36.11378655457946</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2023-04-26 02:10:39</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>12.72030190857797</v>
+      </c>
+      <c r="D36" t="n">
+        <v>16.78550492505245</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2.760496737717111</v>
+      </c>
+      <c r="G36" t="n">
+        <v>153.7038194877213</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>45.63746832533041</v>
+      </c>
+      <c r="J36" t="n">
+        <v>52.20201663400728</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>14.18742665000721</v>
+      </c>
+      <c r="M36" t="n">
+        <v>32.53473938868773</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>288.0626345810173</v>
+      </c>
+      <c r="P36" t="n">
+        <v>606.4295923992681</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>35.4948941326721</v>
+      </c>
+      <c r="S36" t="n">
+        <v>65.52205033256476</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.248970050316852</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1.736551520027718</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" t="n">
+        <v>22.33955032243942</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>41.5170385537221</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0.9399999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Working code/Logs/neg_picked.xlsx
+++ b/Working code/Logs/neg_picked.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z36"/>
+  <dimension ref="A1:Z51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <selection activeCell="AA1" sqref="AA1"/>
@@ -3422,6 +3422,1236 @@
       </c>
       <c r="Z36" t="n">
         <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2023-04-27 00:21:17</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>12.63650421235561</v>
+      </c>
+      <c r="D37" t="n">
+        <v>17</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>53.61387881396096</v>
+      </c>
+      <c r="G37" t="n">
+        <v>77.2785778789428</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>107.8724991974387</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>24.85515081795721</v>
+      </c>
+      <c r="M37" t="n">
+        <v>31.09325567099706</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>493.8207533970248</v>
+      </c>
+      <c r="P37" t="n">
+        <v>735.2209337824829</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>7.040463813983878</v>
+      </c>
+      <c r="S37" t="n">
+        <v>29.22189230498595</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.167561932700292</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1.182136845370271</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>27.64126549995763</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>75.33615809208656</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2023-04-27 00:21:17</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>7.814234657068243</v>
+      </c>
+      <c r="D38" t="n">
+        <v>11.44011082422048</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>83.4543057844113</v>
+      </c>
+      <c r="G38" t="n">
+        <v>136.4098886738469</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>46.91950498736643</v>
+      </c>
+      <c r="J38" t="n">
+        <v>89.06194307758547</v>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>88.35714404182318</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>523.7500524557332</v>
+      </c>
+      <c r="P38" t="n">
+        <v>834.6484055611801</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>11.77089398667171</v>
+      </c>
+      <c r="S38" t="n">
+        <v>54.79813084119903</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.7413310156770517</v>
+      </c>
+      <c r="V38" t="n">
+        <v>2.023999287904101</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>46.61344153126598</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>76.639628477381</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2023-04-27 00:21:17</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.3477873858419884</v>
+      </c>
+      <c r="D39" t="n">
+        <v>10.51000314692634</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" t="n">
+        <v>24.23337146970418</v>
+      </c>
+      <c r="G39" t="n">
+        <v>158.2205933104865</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>35.40967350734993</v>
+      </c>
+      <c r="J39" t="n">
+        <v>63.68992874420115</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>9.357918228448366</v>
+      </c>
+      <c r="M39" t="n">
+        <v>74.70299707208665</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>326.5692675367955</v>
+      </c>
+      <c r="P39" t="n">
+        <v>734.863095424418</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4.272104053909186</v>
+      </c>
+      <c r="S39" t="n">
+        <v>29.15731899501165</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.9254447354312566</v>
+      </c>
+      <c r="V39" t="n">
+        <v>2.283334802357656</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" t="n">
+        <v>33.29360484497467</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>77.39950402643395</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2023-04-27 00:21:17</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>16.99588541366492</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>141.5163987931685</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>52.84591988267117</v>
+      </c>
+      <c r="J40" t="n">
+        <v>57.68460807631661</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>8.31185109710529</v>
+      </c>
+      <c r="M40" t="n">
+        <v>81.25753150879362</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>224.7782720857074</v>
+      </c>
+      <c r="P40" t="n">
+        <v>307.5850915667484</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>49.97698021329248</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>1.062889513802011</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1.829388806235195</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>50.7670022167157</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>60.07842174019398</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2023-04-27 00:21:17</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.09582140694239416</v>
+      </c>
+      <c r="D41" t="n">
+        <v>12.52296689578601</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>149.1230876059873</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>31.37927973887509</v>
+      </c>
+      <c r="J41" t="n">
+        <v>41.45376935891651</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>31.09728571556408</v>
+      </c>
+      <c r="M41" t="n">
+        <v>52.25390209627276</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>441.0494992111077</v>
+      </c>
+      <c r="P41" t="n">
+        <v>556.293331130721</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" t="n">
+        <v>9.31246629436948</v>
+      </c>
+      <c r="S41" t="n">
+        <v>67.03205644535416</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>1.169504446393629</v>
+      </c>
+      <c r="V41" t="n">
+        <v>1.384960965537909</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>39.28927100784701</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>53.65992091413182</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2023-04-27 00:35:53</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.1421648891084951</v>
+      </c>
+      <c r="D42" t="n">
+        <v>13.91924435241497</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>169.0947065946739</v>
+      </c>
+      <c r="G42" t="n">
+        <v>181.9301605106942</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>69.90102015582431</v>
+      </c>
+      <c r="J42" t="n">
+        <v>109.5866839245737</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>9.23646614905736</v>
+      </c>
+      <c r="M42" t="n">
+        <v>80.7162180831837</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>292.8203122936248</v>
+      </c>
+      <c r="P42" t="n">
+        <v>392.8437761325796</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>16.74107353976618</v>
+      </c>
+      <c r="S42" t="n">
+        <v>27.02575448603711</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.4508846808314878</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0.7139713632657642</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
+        <v>33.16385357865096</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>48.32543072026512</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2023-04-27 00:35:53</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>5.302487540203707</v>
+      </c>
+      <c r="D43" t="n">
+        <v>8.817223316972083</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>17.12635427157333</v>
+      </c>
+      <c r="G43" t="n">
+        <v>199</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>105.330006344581</v>
+      </c>
+      <c r="J43" t="n">
+        <v>116.8207863185847</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>70.81011709470677</v>
+      </c>
+      <c r="M43" t="n">
+        <v>80.71154733285537</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>573.5324516793817</v>
+      </c>
+      <c r="P43" t="n">
+        <v>743.9883015865238</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>25.50773134549085</v>
+      </c>
+      <c r="S43" t="n">
+        <v>25.63062824199308</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.3914572830567569</v>
+      </c>
+      <c r="V43" t="n">
+        <v>1.286295797318337</v>
+      </c>
+      <c r="W43" t="n">
+        <v>1</v>
+      </c>
+      <c r="X43" t="n">
+        <v>21.29392353825455</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>80.08379660285138</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2023-04-27 00:35:53</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>6.357379064052176</v>
+      </c>
+      <c r="D44" t="n">
+        <v>15.35476742815317</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1</v>
+      </c>
+      <c r="F44" t="n">
+        <v>2.026941567127329</v>
+      </c>
+      <c r="G44" t="n">
+        <v>158.7452699325555</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>13.68563516834266</v>
+      </c>
+      <c r="J44" t="n">
+        <v>94.47625984675648</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>3.245821301068665</v>
+      </c>
+      <c r="M44" t="n">
+        <v>66.52600841484495</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>256.1655450659416</v>
+      </c>
+      <c r="P44" t="n">
+        <v>536.7135786474777</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>16.06304639815344</v>
+      </c>
+      <c r="S44" t="n">
+        <v>42.47550190776373</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.8828493229104184</v>
+      </c>
+      <c r="V44" t="n">
+        <v>1.282539427523898</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>60.78558935194182</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>75.06330240040482</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2023-04-27 00:35:53</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>9.36089385404329</v>
+      </c>
+      <c r="D45" t="n">
+        <v>15.85640167957628</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1</v>
+      </c>
+      <c r="F45" t="n">
+        <v>65.55701290400799</v>
+      </c>
+      <c r="G45" t="n">
+        <v>149.7946793943567</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>64.91281229568065</v>
+      </c>
+      <c r="J45" t="n">
+        <v>121.1749691209086</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>38.9315250990358</v>
+      </c>
+      <c r="M45" t="n">
+        <v>74.1788937442286</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>59.74807046226811</v>
+      </c>
+      <c r="P45" t="n">
+        <v>174.2845943668679</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>28.49972088841655</v>
+      </c>
+      <c r="S45" t="n">
+        <v>37.90198578579019</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.7351010030526187</v>
+      </c>
+      <c r="V45" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" t="n">
+        <v>22.80821554708352</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>81</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2023-04-27 00:35:53</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>13.12367583459786</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1</v>
+      </c>
+      <c r="F46" t="n">
+        <v>13.57318358809715</v>
+      </c>
+      <c r="G46" t="n">
+        <v>192.936436144369</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>9.166233525428945</v>
+      </c>
+      <c r="J46" t="n">
+        <v>90.41343911390365</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>10.62850928436645</v>
+      </c>
+      <c r="M46" t="n">
+        <v>53.14249488508554</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>815.762101175136</v>
+      </c>
+      <c r="P46" t="n">
+        <v>846</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>7.152320761329282</v>
+      </c>
+      <c r="S46" t="n">
+        <v>30.78032735124507</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>1.061955397287127</v>
+      </c>
+      <c r="V46" t="n">
+        <v>2.363219719018973</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
+        <v>44.62643424602114</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>60.70211810321658</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2023-04-27 01:00:19</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>11.7836639876651</v>
+      </c>
+      <c r="D47" t="n">
+        <v>14.36465581771129</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>8.683964108511811</v>
+      </c>
+      <c r="G47" t="n">
+        <v>95.63856397535105</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>4.268461177547408</v>
+      </c>
+      <c r="J47" t="n">
+        <v>105.1661072392883</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>19.25404522217664</v>
+      </c>
+      <c r="M47" t="n">
+        <v>74.07504909450331</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="n">
+        <v>52.67459128389299</v>
+      </c>
+      <c r="P47" t="n">
+        <v>148.5729858873289</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
+      <c r="R47" t="n">
+        <v>8.687946091826108</v>
+      </c>
+      <c r="S47" t="n">
+        <v>62.00456190897228</v>
+      </c>
+      <c r="T47" t="n">
+        <v>1</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0.1668818965652711</v>
+      </c>
+      <c r="V47" t="n">
+        <v>2.3926006293956</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0</v>
+      </c>
+      <c r="X47" t="n">
+        <v>42.60757948749175</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>65.36727875640479</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2023-04-27 01:00:19</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>11.1415269266585</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>147.9882666667905</v>
+      </c>
+      <c r="G48" t="n">
+        <v>199</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>15.45336614751476</v>
+      </c>
+      <c r="J48" t="n">
+        <v>56.808763735469</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>16.92065565628745</v>
+      </c>
+      <c r="M48" t="n">
+        <v>22.48177401178399</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="n">
+        <v>735.6118802682701</v>
+      </c>
+      <c r="P48" t="n">
+        <v>846</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" t="n">
+        <v>25.32240249807738</v>
+      </c>
+      <c r="S48" t="n">
+        <v>50.93752241220968</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0.4005026425738269</v>
+      </c>
+      <c r="V48" t="n">
+        <v>1.162057214509231</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0</v>
+      </c>
+      <c r="X48" t="n">
+        <v>25.70145731411607</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>73.51922287960039</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2023-04-27 01:00:19</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>6.098125864345293</v>
+      </c>
+      <c r="D49" t="n">
+        <v>14.02083829154223</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>3.237062533873043</v>
+      </c>
+      <c r="G49" t="n">
+        <v>181.2993543096025</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1.693183118946537</v>
+      </c>
+      <c r="J49" t="n">
+        <v>100.1688506399004</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>75.93323571945541</v>
+      </c>
+      <c r="M49" t="n">
+        <v>88.87917265743877</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="n">
+        <v>116.2221355979381</v>
+      </c>
+      <c r="P49" t="n">
+        <v>250.0375397948003</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1</v>
+      </c>
+      <c r="R49" t="n">
+        <v>6.781549271835371</v>
+      </c>
+      <c r="S49" t="n">
+        <v>40.70524336443816</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0.684457426368321</v>
+      </c>
+      <c r="V49" t="n">
+        <v>1.857313630756571</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0</v>
+      </c>
+      <c r="X49" t="n">
+        <v>42.85163368204005</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>65.66948729612483</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2023-04-27 01:00:19</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>4.07636172599369</v>
+      </c>
+      <c r="D50" t="n">
+        <v>4.176739090016812</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>91.72605035207889</v>
+      </c>
+      <c r="G50" t="n">
+        <v>141.5460149993221</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>11.77496436688388</v>
+      </c>
+      <c r="J50" t="n">
+        <v>102.8826803549359</v>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>74.03209935676381</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="n">
+        <v>25.47166900145477</v>
+      </c>
+      <c r="P50" t="n">
+        <v>87.31109457615359</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1</v>
+      </c>
+      <c r="R50" t="n">
+        <v>14.98036674080618</v>
+      </c>
+      <c r="S50" t="n">
+        <v>41.9983815146152</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0.4662716374158418</v>
+      </c>
+      <c r="V50" t="n">
+        <v>1.070068446205148</v>
+      </c>
+      <c r="W50" t="n">
+        <v>0</v>
+      </c>
+      <c r="X50" t="n">
+        <v>28.14828436720239</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>40.9425935816563</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2023-04-27 01:00:19</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>7.37299946028513</v>
+      </c>
+      <c r="D51" t="n">
+        <v>7.583112610119937</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>145.2639693440563</v>
+      </c>
+      <c r="G51" t="n">
+        <v>166.1748671097818</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>39.54915442493736</v>
+      </c>
+      <c r="J51" t="n">
+        <v>100.4976165745045</v>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>91.28583055637539</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>31.07432537710574</v>
+      </c>
+      <c r="P51" t="n">
+        <v>141.9120529991634</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
+      <c r="R51" t="n">
+        <v>48.84590425236623</v>
+      </c>
+      <c r="S51" t="n">
+        <v>57.24681879462482</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0.352661252167305</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0.6345366059013455</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0</v>
+      </c>
+      <c r="X51" t="n">
+        <v>53.25121044210896</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>62.17044211475151</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Working code/Logs/neg_picked.xlsx
+++ b/Working code/Logs/neg_picked.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z51"/>
+  <dimension ref="A1:Z56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <selection activeCell="AA1" sqref="AA1"/>
@@ -4651,6 +4651,416 @@
         <v>62.17044211475151</v>
       </c>
       <c r="Z51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2023-04-28 01:07:56</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>4.889005473297861</v>
+      </c>
+      <c r="D52" t="n">
+        <v>8.453560681004841</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>128.1950787556626</v>
+      </c>
+      <c r="G52" t="n">
+        <v>167.6647256699323</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>67.77134193817493</v>
+      </c>
+      <c r="J52" t="n">
+        <v>94.51333136403076</v>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="n">
+        <v>4.13388707622385</v>
+      </c>
+      <c r="M52" t="n">
+        <v>80.47168367040909</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>385.5117244740677</v>
+      </c>
+      <c r="P52" t="n">
+        <v>609.6759769582465</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" t="n">
+        <v>58.74080918211315</v>
+      </c>
+      <c r="S52" t="n">
+        <v>59.50898778098412</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="V52" t="n">
+        <v>2.346115289797877</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0</v>
+      </c>
+      <c r="X52" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>66.56647688703747</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2023-04-28 01:07:56</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>5.133323615655177</v>
+      </c>
+      <c r="D53" t="n">
+        <v>5.562323018684745</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1</v>
+      </c>
+      <c r="F53" t="n">
+        <v>35.59143164430222</v>
+      </c>
+      <c r="G53" t="n">
+        <v>142.5171465064304</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>107.8643112521204</v>
+      </c>
+      <c r="J53" t="n">
+        <v>117.3283268037449</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.9875287017621125</v>
+      </c>
+      <c r="M53" t="n">
+        <v>51.59345793605654</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>306.3377753411505</v>
+      </c>
+      <c r="P53" t="n">
+        <v>681.8113892556032</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
+      <c r="R53" t="n">
+        <v>30.16434728432598</v>
+      </c>
+      <c r="S53" t="n">
+        <v>62.55251499819384</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="V53" t="n">
+        <v>1.190440236897962</v>
+      </c>
+      <c r="W53" t="n">
+        <v>0</v>
+      </c>
+      <c r="X53" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>70.78709091886954</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2023-04-28 01:07:57</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.07934748346633869</v>
+      </c>
+      <c r="D54" t="n">
+        <v>9.976049071158355</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>31.79241620656008</v>
+      </c>
+      <c r="G54" t="n">
+        <v>116.1771127137471</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>13.49744801322233</v>
+      </c>
+      <c r="J54" t="n">
+        <v>28.01116999471485</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>22.02955278458451</v>
+      </c>
+      <c r="M54" t="n">
+        <v>68.69522763875773</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>724.5849565983492</v>
+      </c>
+      <c r="P54" t="n">
+        <v>778.3067835430858</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>1</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3.291085644419764</v>
+      </c>
+      <c r="S54" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0</v>
+      </c>
+      <c r="U54" t="n">
+        <v>1.489833096672113</v>
+      </c>
+      <c r="V54" t="n">
+        <v>1.871998161588227</v>
+      </c>
+      <c r="W54" t="n">
+        <v>0</v>
+      </c>
+      <c r="X54" t="n">
+        <v>29.3040914438875</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>72.97512563574261</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2023-04-28 01:07:57</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>5.410226485843872</v>
+      </c>
+      <c r="D55" t="n">
+        <v>9.663372299369907</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>183.4777183279618</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>85.21507677747452</v>
+      </c>
+      <c r="J55" t="n">
+        <v>93.99516985583895</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>73.41446657581923</v>
+      </c>
+      <c r="M55" t="n">
+        <v>99</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>613.4644395506303</v>
+      </c>
+      <c r="P55" t="n">
+        <v>688.1168492131085</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
+      <c r="R55" t="n">
+        <v>37.64439013624218</v>
+      </c>
+      <c r="S55" t="n">
+        <v>45.99508488272754</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0</v>
+      </c>
+      <c r="U55" t="n">
+        <v>1.182274166855582</v>
+      </c>
+      <c r="V55" t="n">
+        <v>2.10553739974144</v>
+      </c>
+      <c r="W55" t="n">
+        <v>0</v>
+      </c>
+      <c r="X55" t="n">
+        <v>23.29221255531944</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>42.198265262457</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2023-04-28 01:07:57</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>12.01846301685518</v>
+      </c>
+      <c r="D56" t="n">
+        <v>13.21440538204909</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>66.00503245681767</v>
+      </c>
+      <c r="G56" t="n">
+        <v>124.938201553567</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>91.90535035401422</v>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>96.39432327612442</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" t="n">
+        <v>773.7560700541408</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" t="n">
+        <v>13.01594913173142</v>
+      </c>
+      <c r="S56" t="n">
+        <v>36.45392241539352</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0</v>
+      </c>
+      <c r="U56" t="n">
+        <v>1.341157482461319</v>
+      </c>
+      <c r="V56" t="n">
+        <v>1.543390156423914</v>
+      </c>
+      <c r="W56" t="n">
+        <v>0</v>
+      </c>
+      <c r="X56" t="n">
+        <v>47.7683165796467</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>61.66553015470954</v>
+      </c>
+      <c r="Z56" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Working code/Logs/neg_picked.xlsx
+++ b/Working code/Logs/neg_picked.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z56"/>
+  <dimension ref="A1:Z141"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <selection activeCell="AA1" sqref="AA1"/>
@@ -5061,6 +5061,6976 @@
         <v>61.66553015470954</v>
       </c>
       <c r="Z56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2023-05-04 23:14:19</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>7.132219455859345</v>
+      </c>
+      <c r="D57" t="n">
+        <v>15.62527696713672</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1</v>
+      </c>
+      <c r="F57" t="n">
+        <v>10.86687571927613</v>
+      </c>
+      <c r="G57" t="n">
+        <v>133.2454150970715</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>23.69878413137775</v>
+      </c>
+      <c r="J57" t="n">
+        <v>26.30696851413526</v>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>99</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>2.71476004811401</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5.641857833569869</v>
+      </c>
+      <c r="S57" t="n">
+        <v>47.24403932747999</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0.9191010737040232</v>
+      </c>
+      <c r="V57" t="n">
+        <v>1.516674060056419</v>
+      </c>
+      <c r="W57" t="n">
+        <v>0</v>
+      </c>
+      <c r="X57" t="n">
+        <v>49.85718461700196</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>81</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2023-05-04 23:14:19</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>16.13257657386983</v>
+      </c>
+      <c r="D58" t="n">
+        <v>16.48912203299609</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1</v>
+      </c>
+      <c r="F58" t="n">
+        <v>10.25037424681024</v>
+      </c>
+      <c r="G58" t="n">
+        <v>161.4827654631471</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>41.01557836912335</v>
+      </c>
+      <c r="J58" t="n">
+        <v>122</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>53.86265329357499</v>
+      </c>
+      <c r="M58" t="n">
+        <v>62.26014959635409</v>
+      </c>
+      <c r="N58" t="n">
+        <v>1</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" t="n">
+        <v>636.7755506510081</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" t="n">
+        <v>19.69379242420655</v>
+      </c>
+      <c r="S58" t="n">
+        <v>64.87685770423271</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0.5242126901830683</v>
+      </c>
+      <c r="W58" t="n">
+        <v>0</v>
+      </c>
+      <c r="X58" t="n">
+        <v>22.44415410479263</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>22.97693575953638</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2023-05-04 23:14:19</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0</v>
+      </c>
+      <c r="C59" t="n">
+        <v>5.21193880753036</v>
+      </c>
+      <c r="D59" t="n">
+        <v>11.60852131247309</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>154.4351661860447</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>25.48031925819197</v>
+      </c>
+      <c r="J59" t="n">
+        <v>63.63036145849179</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>49.26436717561743</v>
+      </c>
+      <c r="M59" t="n">
+        <v>60.8350442574832</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="n">
+        <v>144.6021809819335</v>
+      </c>
+      <c r="P59" t="n">
+        <v>591.6075410009767</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0</v>
+      </c>
+      <c r="S59" t="n">
+        <v>46.94790448493253</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0</v>
+      </c>
+      <c r="U59" t="n">
+        <v>0.5293257067209907</v>
+      </c>
+      <c r="V59" t="n">
+        <v>1.206392680944668</v>
+      </c>
+      <c r="W59" t="n">
+        <v>0</v>
+      </c>
+      <c r="X59" t="n">
+        <v>59.12199991671858</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>81</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2023-05-04 23:14:19</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0</v>
+      </c>
+      <c r="C60" t="n">
+        <v>9.664377888073949</v>
+      </c>
+      <c r="D60" t="n">
+        <v>11.52130201102981</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1</v>
+      </c>
+      <c r="F60" t="n">
+        <v>37.55378434659565</v>
+      </c>
+      <c r="G60" t="n">
+        <v>122.7709869026316</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>19.06395758940687</v>
+      </c>
+      <c r="J60" t="n">
+        <v>37.0707368964946</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>18.76051751618266</v>
+      </c>
+      <c r="M60" t="n">
+        <v>99</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="n">
+        <v>228.9800807779517</v>
+      </c>
+      <c r="P60" t="n">
+        <v>670.4897438290996</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0</v>
+      </c>
+      <c r="S60" t="n">
+        <v>41.5633321286335</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0</v>
+      </c>
+      <c r="U60" t="n">
+        <v>0.2577808907169954</v>
+      </c>
+      <c r="V60" t="n">
+        <v>1.061964924899744</v>
+      </c>
+      <c r="W60" t="n">
+        <v>0</v>
+      </c>
+      <c r="X60" t="n">
+        <v>27.78653610583368</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>53.62383697782061</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2023-05-04 23:14:19</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0</v>
+      </c>
+      <c r="C61" t="n">
+        <v>5.636560731547682</v>
+      </c>
+      <c r="D61" t="n">
+        <v>8.190067897776892</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>54.29329237439315</v>
+      </c>
+      <c r="G61" t="n">
+        <v>127.6518352662008</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>50.42774445592718</v>
+      </c>
+      <c r="J61" t="n">
+        <v>102.0558035563537</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>14.56025243665257</v>
+      </c>
+      <c r="M61" t="n">
+        <v>99</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" t="n">
+        <v>78.36440140097282</v>
+      </c>
+      <c r="P61" t="n">
+        <v>566.6352393842768</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>1</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0</v>
+      </c>
+      <c r="S61" t="n">
+        <v>42.75492277511806</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0.8741856156265606</v>
+      </c>
+      <c r="V61" t="n">
+        <v>2.043782139375133</v>
+      </c>
+      <c r="W61" t="n">
+        <v>0</v>
+      </c>
+      <c r="X61" t="n">
+        <v>52.32469257601745</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>52.97419013853244</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2023-05-04 23:28:35</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>12.07783541614187</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>146.7430700408696</v>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>2.901460759122173</v>
+      </c>
+      <c r="J62" t="n">
+        <v>117.8093789494403</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>17.029077084166</v>
+      </c>
+      <c r="M62" t="n">
+        <v>69.41888931812501</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="n">
+        <v>394.0920518198363</v>
+      </c>
+      <c r="P62" t="n">
+        <v>756.0300590549483</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
+      <c r="R62" t="n">
+        <v>23.59714143780462</v>
+      </c>
+      <c r="S62" t="n">
+        <v>51.84821728004226</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0</v>
+      </c>
+      <c r="U62" t="n">
+        <v>0.7886428164331047</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0.8528966435281153</v>
+      </c>
+      <c r="W62" t="n">
+        <v>0</v>
+      </c>
+      <c r="X62" t="n">
+        <v>44.88895153786387</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>56.64644817746476</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2023-05-04 23:28:35</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.9979332293311405</v>
+      </c>
+      <c r="D63" t="n">
+        <v>17</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1</v>
+      </c>
+      <c r="F63" t="n">
+        <v>46.29781985419362</v>
+      </c>
+      <c r="G63" t="n">
+        <v>173.3860890822103</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>37.30997513691506</v>
+      </c>
+      <c r="J63" t="n">
+        <v>111.9402374138802</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>24.67801198224554</v>
+      </c>
+      <c r="M63" t="n">
+        <v>30.31235350520291</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="n">
+        <v>295.6133165373327</v>
+      </c>
+      <c r="P63" t="n">
+        <v>455.9887030113097</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
+      <c r="R63" t="n">
+        <v>26.6266965300181</v>
+      </c>
+      <c r="S63" t="n">
+        <v>31.45941012991687</v>
+      </c>
+      <c r="T63" t="n">
+        <v>0</v>
+      </c>
+      <c r="U63" t="n">
+        <v>1.142402551232073</v>
+      </c>
+      <c r="V63" t="n">
+        <v>2.130194443289061</v>
+      </c>
+      <c r="W63" t="n">
+        <v>0</v>
+      </c>
+      <c r="X63" t="n">
+        <v>35.81794471199865</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>81</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2023-05-04 23:28:35</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0</v>
+      </c>
+      <c r="C64" t="n">
+        <v>10.20963433699872</v>
+      </c>
+      <c r="D64" t="n">
+        <v>11.52950509133247</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>152.0753883145273</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>64.06847906807658</v>
+      </c>
+      <c r="J64" t="n">
+        <v>91.01548690680346</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>33.05876667371165</v>
+      </c>
+      <c r="M64" t="n">
+        <v>75.17476041373693</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="n">
+        <v>385.8410905350497</v>
+      </c>
+      <c r="P64" t="n">
+        <v>457.4619546443737</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
+      <c r="R64" t="n">
+        <v>46.30861010388303</v>
+      </c>
+      <c r="S64" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="T64" t="n">
+        <v>0</v>
+      </c>
+      <c r="U64" t="n">
+        <v>2.091446965753662</v>
+      </c>
+      <c r="V64" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="W64" t="n">
+        <v>0</v>
+      </c>
+      <c r="X64" t="n">
+        <v>37.66730851433526</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>52.84095070860312</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2023-05-04 23:28:35</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>14.11123066672501</v>
+      </c>
+      <c r="D65" t="n">
+        <v>15.50939819662631</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1</v>
+      </c>
+      <c r="F65" t="n">
+        <v>5.086107395448769</v>
+      </c>
+      <c r="G65" t="n">
+        <v>131.7253676267321</v>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>51.590799252225</v>
+      </c>
+      <c r="J65" t="n">
+        <v>107.1246556266433</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>8.322786327653887</v>
+      </c>
+      <c r="M65" t="n">
+        <v>97.13381256755406</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" t="n">
+        <v>703.2811425872375</v>
+      </c>
+      <c r="P65" t="n">
+        <v>817.8597770248518</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0</v>
+      </c>
+      <c r="R65" t="n">
+        <v>41.62585426199559</v>
+      </c>
+      <c r="S65" t="n">
+        <v>47.6479119111854</v>
+      </c>
+      <c r="T65" t="n">
+        <v>0</v>
+      </c>
+      <c r="U65" t="n">
+        <v>1.84132244297027</v>
+      </c>
+      <c r="V65" t="n">
+        <v>2.402952387062712</v>
+      </c>
+      <c r="W65" t="n">
+        <v>0</v>
+      </c>
+      <c r="X65" t="n">
+        <v>39.04283974173287</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>69.60991417204255</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2023-05-04 23:28:35</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0</v>
+      </c>
+      <c r="C66" t="n">
+        <v>6.109988404391241</v>
+      </c>
+      <c r="D66" t="n">
+        <v>17</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1</v>
+      </c>
+      <c r="F66" t="n">
+        <v>10.34856816710978</v>
+      </c>
+      <c r="G66" t="n">
+        <v>161.6570615474115</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>13.37185889996903</v>
+      </c>
+      <c r="J66" t="n">
+        <v>61.65517017564508</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>51.40943064846849</v>
+      </c>
+      <c r="M66" t="n">
+        <v>86.08901252744342</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" t="n">
+        <v>142.2203230409383</v>
+      </c>
+      <c r="P66" t="n">
+        <v>508.5570430757672</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3.249926356398466</v>
+      </c>
+      <c r="S66" t="n">
+        <v>10.12058078639894</v>
+      </c>
+      <c r="T66" t="n">
+        <v>0</v>
+      </c>
+      <c r="U66" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="V66" t="n">
+        <v>1.275061087114885</v>
+      </c>
+      <c r="W66" t="n">
+        <v>0</v>
+      </c>
+      <c r="X66" t="n">
+        <v>40.29964622999781</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>54.00204227397675</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2023-05-05 21:17:45</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0</v>
+      </c>
+      <c r="C67" t="n">
+        <v>4.084833833211266</v>
+      </c>
+      <c r="D67" t="n">
+        <v>9.873643338167783</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>88.15505449798272</v>
+      </c>
+      <c r="G67" t="n">
+        <v>132.372094727288</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>25.04133478254567</v>
+      </c>
+      <c r="J67" t="n">
+        <v>25.70816622775216</v>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>97.4644060941622</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" t="n">
+        <v>481.5501700299093</v>
+      </c>
+      <c r="P67" t="n">
+        <v>846</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
+      <c r="R67" t="n">
+        <v>14.44332966984744</v>
+      </c>
+      <c r="S67" t="n">
+        <v>42.48145371203372</v>
+      </c>
+      <c r="T67" t="n">
+        <v>0</v>
+      </c>
+      <c r="U67" t="n">
+        <v>0.595535013528665</v>
+      </c>
+      <c r="V67" t="n">
+        <v>1.074398991789088</v>
+      </c>
+      <c r="W67" t="n">
+        <v>0</v>
+      </c>
+      <c r="X67" t="n">
+        <v>47.39115181618744</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>80.37382893819718</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2023-05-05 21:17:45</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0</v>
+      </c>
+      <c r="C68" t="n">
+        <v>3.228022537389756</v>
+      </c>
+      <c r="D68" t="n">
+        <v>11.48068262531834</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1</v>
+      </c>
+      <c r="F68" t="n">
+        <v>15.62961870419953</v>
+      </c>
+      <c r="G68" t="n">
+        <v>157.578202994269</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>45.51895127372125</v>
+      </c>
+      <c r="J68" t="n">
+        <v>72.19740625282911</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>70.26461291529127</v>
+      </c>
+      <c r="M68" t="n">
+        <v>95.98141682413429</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" t="n">
+        <v>176.944292400794</v>
+      </c>
+      <c r="P68" t="n">
+        <v>355.024479012352</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0</v>
+      </c>
+      <c r="R68" t="n">
+        <v>25.8580929189115</v>
+      </c>
+      <c r="S68" t="n">
+        <v>46.66319270513526</v>
+      </c>
+      <c r="T68" t="n">
+        <v>0</v>
+      </c>
+      <c r="U68" t="n">
+        <v>0.4967122601078434</v>
+      </c>
+      <c r="V68" t="n">
+        <v>1.406856643379706</v>
+      </c>
+      <c r="W68" t="n">
+        <v>0</v>
+      </c>
+      <c r="X68" t="n">
+        <v>52.2917125389733</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>70.79740695981181</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2023-05-05 21:17:45</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0</v>
+      </c>
+      <c r="C69" t="n">
+        <v>8.966718839982432</v>
+      </c>
+      <c r="D69" t="n">
+        <v>10.80477844875436</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>153.2384234699288</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>48.66114868872319</v>
+      </c>
+      <c r="J69" t="n">
+        <v>93.24336393950456</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>39.29560490657246</v>
+      </c>
+      <c r="M69" t="n">
+        <v>91.92890363981309</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" t="n">
+        <v>26.25159247983495</v>
+      </c>
+      <c r="P69" t="n">
+        <v>453.6107667593326</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>1</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0</v>
+      </c>
+      <c r="S69" t="n">
+        <v>55.94260280198942</v>
+      </c>
+      <c r="T69" t="n">
+        <v>0</v>
+      </c>
+      <c r="U69" t="n">
+        <v>1.008907929819288</v>
+      </c>
+      <c r="V69" t="n">
+        <v>2.066711263144791</v>
+      </c>
+      <c r="W69" t="n">
+        <v>0</v>
+      </c>
+      <c r="X69" t="n">
+        <v>63.44033237002498</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>81</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2023-05-05 21:17:45</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0</v>
+      </c>
+      <c r="C70" t="n">
+        <v>17</v>
+      </c>
+      <c r="D70" t="n">
+        <v>17</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>71.09965112808416</v>
+      </c>
+      <c r="G70" t="n">
+        <v>161.4133856594372</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>113.0365120098728</v>
+      </c>
+      <c r="J70" t="n">
+        <v>120.8399412477979</v>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>99</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" t="n">
+        <v>297.0669739157846</v>
+      </c>
+      <c r="P70" t="n">
+        <v>352.9633832506024</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0</v>
+      </c>
+      <c r="R70" t="n">
+        <v>18.92105278724117</v>
+      </c>
+      <c r="S70" t="n">
+        <v>38.33312981542031</v>
+      </c>
+      <c r="T70" t="n">
+        <v>0</v>
+      </c>
+      <c r="U70" t="n">
+        <v>2.090320502765928</v>
+      </c>
+      <c r="V70" t="n">
+        <v>2.208824664635666</v>
+      </c>
+      <c r="W70" t="n">
+        <v>0</v>
+      </c>
+      <c r="X70" t="n">
+        <v>22.12012039537907</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>68.01185610763928</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2023-05-05 21:17:45</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>1</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.742929741501675</v>
+      </c>
+      <c r="D71" t="n">
+        <v>15.270499627938</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>47.91989194329399</v>
+      </c>
+      <c r="G71" t="n">
+        <v>164.0173973465157</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>11.52365602262534</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0.5142517970997537</v>
+      </c>
+      <c r="M71" t="n">
+        <v>19.31183975459165</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" t="n">
+        <v>106.7984212021298</v>
+      </c>
+      <c r="P71" t="n">
+        <v>300.2885599560498</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0</v>
+      </c>
+      <c r="R71" t="n">
+        <v>9.391694233538447</v>
+      </c>
+      <c r="S71" t="n">
+        <v>55.10442612900407</v>
+      </c>
+      <c r="T71" t="n">
+        <v>0</v>
+      </c>
+      <c r="U71" t="n">
+        <v>1.332377394378941</v>
+      </c>
+      <c r="V71" t="n">
+        <v>1.547216910724736</v>
+      </c>
+      <c r="W71" t="n">
+        <v>0</v>
+      </c>
+      <c r="X71" t="n">
+        <v>51.17222013359434</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>58.75550586460764</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2023-05-05 21:31:01</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0</v>
+      </c>
+      <c r="C72" t="n">
+        <v>14.03833344185612</v>
+      </c>
+      <c r="D72" t="n">
+        <v>16.62292582103177</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>25.77749959734818</v>
+      </c>
+      <c r="G72" t="n">
+        <v>126.4137482953068</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>6.129538320082381</v>
+      </c>
+      <c r="J72" t="n">
+        <v>50.58800759836218</v>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>38.19002192624409</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" t="n">
+        <v>18.2310514532498</v>
+      </c>
+      <c r="P72" t="n">
+        <v>517.2195267824826</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0</v>
+      </c>
+      <c r="R72" t="n">
+        <v>27.85582902644602</v>
+      </c>
+      <c r="S72" t="n">
+        <v>43.03735890360971</v>
+      </c>
+      <c r="T72" t="n">
+        <v>0</v>
+      </c>
+      <c r="U72" t="n">
+        <v>1.31967830241849</v>
+      </c>
+      <c r="V72" t="n">
+        <v>1.529472918631919</v>
+      </c>
+      <c r="W72" t="n">
+        <v>0</v>
+      </c>
+      <c r="X72" t="n">
+        <v>24.05126159876408</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>73.54924050359935</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2023-05-05 21:31:01</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0</v>
+      </c>
+      <c r="C73" t="n">
+        <v>3.549025958536333</v>
+      </c>
+      <c r="D73" t="n">
+        <v>11.37040138664858</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>79.83952487462422</v>
+      </c>
+      <c r="G73" t="n">
+        <v>88.08660790094754</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>30.48270299115847</v>
+      </c>
+      <c r="J73" t="n">
+        <v>64.20836775402874</v>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>99</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0</v>
+      </c>
+      <c r="P73" t="n">
+        <v>807.7090598877473</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0</v>
+      </c>
+      <c r="R73" t="n">
+        <v>20.82481281036859</v>
+      </c>
+      <c r="S73" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="T73" t="n">
+        <v>0</v>
+      </c>
+      <c r="U73" t="n">
+        <v>0.9407158541074714</v>
+      </c>
+      <c r="V73" t="n">
+        <v>1.873254064414041</v>
+      </c>
+      <c r="W73" t="n">
+        <v>0</v>
+      </c>
+      <c r="X73" t="n">
+        <v>32.0657466632076</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>50.50443498599517</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2023-05-05 21:31:02</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.9626885742730926</v>
+      </c>
+      <c r="D74" t="n">
+        <v>11.92530331440415</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>80.15840667163194</v>
+      </c>
+      <c r="G74" t="n">
+        <v>114.1021167197085</v>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>37.30078846035763</v>
+      </c>
+      <c r="J74" t="n">
+        <v>92.32959154651824</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>54.72458875455495</v>
+      </c>
+      <c r="M74" t="n">
+        <v>87.17683992513608</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" t="n">
+        <v>127.4237126092502</v>
+      </c>
+      <c r="P74" t="n">
+        <v>261.4990026333142</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0</v>
+      </c>
+      <c r="R74" t="n">
+        <v>6.999451569305267</v>
+      </c>
+      <c r="S74" t="n">
+        <v>15.95462889438929</v>
+      </c>
+      <c r="T74" t="n">
+        <v>0</v>
+      </c>
+      <c r="U74" t="n">
+        <v>0.1340965404790963</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0.8910864208467697</v>
+      </c>
+      <c r="W74" t="n">
+        <v>0</v>
+      </c>
+      <c r="X74" t="n">
+        <v>56.48320896775827</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>61.71901606429333</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2023-05-05 21:31:02</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.5808819554145304</v>
+      </c>
+      <c r="D75" t="n">
+        <v>7.65962952116483</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>35.61902823870076</v>
+      </c>
+      <c r="G75" t="n">
+        <v>154.8925900739795</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>26.7999023568834</v>
+      </c>
+      <c r="J75" t="n">
+        <v>108.1956889576818</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>32.6238862490852</v>
+      </c>
+      <c r="M75" t="n">
+        <v>59.45087757873999</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" t="n">
+        <v>265.8868340956648</v>
+      </c>
+      <c r="P75" t="n">
+        <v>515.2878681687198</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>1</v>
+      </c>
+      <c r="R75" t="n">
+        <v>14.69413672861144</v>
+      </c>
+      <c r="S75" t="n">
+        <v>63.8958871267028</v>
+      </c>
+      <c r="T75" t="n">
+        <v>0</v>
+      </c>
+      <c r="U75" t="n">
+        <v>0.5159773325055083</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0.7852203626516213</v>
+      </c>
+      <c r="W75" t="n">
+        <v>0</v>
+      </c>
+      <c r="X75" t="n">
+        <v>56.10201158723834</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>79.46626371650585</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2023-05-05 21:31:02</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.4665113574764422</v>
+      </c>
+      <c r="D76" t="n">
+        <v>10.67099007044186</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1</v>
+      </c>
+      <c r="F76" t="n">
+        <v>15.06686842910916</v>
+      </c>
+      <c r="G76" t="n">
+        <v>161.267327193557</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>47.76132289008778</v>
+      </c>
+      <c r="J76" t="n">
+        <v>57.40348793915705</v>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" t="n">
+        <v>99</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" t="n">
+        <v>582.8585340143254</v>
+      </c>
+      <c r="P76" t="n">
+        <v>810.4341321811903</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0</v>
+      </c>
+      <c r="R76" t="n">
+        <v>29.19214150267793</v>
+      </c>
+      <c r="S76" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="T76" t="n">
+        <v>0</v>
+      </c>
+      <c r="U76" t="n">
+        <v>0.9820139691566113</v>
+      </c>
+      <c r="V76" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="W76" t="n">
+        <v>0</v>
+      </c>
+      <c r="X76" t="n">
+        <v>54.89680674392532</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>81</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2023-05-05 21:58:21</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>1</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.01540314606801574</v>
+      </c>
+      <c r="D77" t="n">
+        <v>17</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>53.82469430204837</v>
+      </c>
+      <c r="G77" t="n">
+        <v>157.6674010346195</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>105.0241406870403</v>
+      </c>
+      <c r="J77" t="n">
+        <v>122</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>19.37748745074503</v>
+      </c>
+      <c r="M77" t="n">
+        <v>98.45635964801259</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" t="n">
+        <v>46.00931600528099</v>
+      </c>
+      <c r="P77" t="n">
+        <v>739.5440230230463</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0</v>
+      </c>
+      <c r="R77" t="n">
+        <v>45.92066536322193</v>
+      </c>
+      <c r="S77" t="n">
+        <v>50.82721176498512</v>
+      </c>
+      <c r="T77" t="n">
+        <v>0</v>
+      </c>
+      <c r="U77" t="n">
+        <v>1.330661357929871</v>
+      </c>
+      <c r="V77" t="n">
+        <v>2.175995687882882</v>
+      </c>
+      <c r="W77" t="n">
+        <v>0</v>
+      </c>
+      <c r="X77" t="n">
+        <v>59.71965605734692</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>81</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2023-05-05 21:58:21</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0</v>
+      </c>
+      <c r="C78" t="n">
+        <v>4.942703072983377</v>
+      </c>
+      <c r="D78" t="n">
+        <v>14.10665597821512</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1</v>
+      </c>
+      <c r="F78" t="n">
+        <v>41.81329534417985</v>
+      </c>
+      <c r="G78" t="n">
+        <v>173.5734443708817</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>41.80334180009412</v>
+      </c>
+      <c r="J78" t="n">
+        <v>63.66492690186815</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>4.672097811445149</v>
+      </c>
+      <c r="M78" t="n">
+        <v>87.46680189756226</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" t="n">
+        <v>214.424034294949</v>
+      </c>
+      <c r="P78" t="n">
+        <v>452.2301833643052</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0</v>
+      </c>
+      <c r="R78" t="n">
+        <v>22.21796692116836</v>
+      </c>
+      <c r="S78" t="n">
+        <v>45.20023488676668</v>
+      </c>
+      <c r="T78" t="n">
+        <v>0</v>
+      </c>
+      <c r="U78" t="n">
+        <v>0.1166410138405657</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0.9802474945209729</v>
+      </c>
+      <c r="W78" t="n">
+        <v>0</v>
+      </c>
+      <c r="X78" t="n">
+        <v>56.21681164020164</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>57.50912497675849</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2023-05-05 21:58:21</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0</v>
+      </c>
+      <c r="C79" t="n">
+        <v>4.868289081666925</v>
+      </c>
+      <c r="D79" t="n">
+        <v>9.982318377427235</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1</v>
+      </c>
+      <c r="F79" t="n">
+        <v>49.22155977044451</v>
+      </c>
+      <c r="G79" t="n">
+        <v>138.9670422734143</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>93.08144424500361</v>
+      </c>
+      <c r="J79" t="n">
+        <v>102.8156245531739</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>10.55646586103865</v>
+      </c>
+      <c r="M79" t="n">
+        <v>86.08226293453745</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="n">
+        <v>241.4710835020402</v>
+      </c>
+      <c r="P79" t="n">
+        <v>452.7804689004594</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>0</v>
+      </c>
+      <c r="R79" t="n">
+        <v>45.39753954927058</v>
+      </c>
+      <c r="S79" t="n">
+        <v>55.03608862316587</v>
+      </c>
+      <c r="T79" t="n">
+        <v>0</v>
+      </c>
+      <c r="U79" t="n">
+        <v>0.2979500596379927</v>
+      </c>
+      <c r="V79" t="n">
+        <v>1.420987438941703</v>
+      </c>
+      <c r="W79" t="n">
+        <v>0</v>
+      </c>
+      <c r="X79" t="n">
+        <v>31.23765314646499</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>62.82969499615349</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2023-05-05 21:58:22</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1.461333310858279</v>
+      </c>
+      <c r="D80" t="n">
+        <v>11.62193849853728</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" t="n">
+        <v>44.9034432858434</v>
+      </c>
+      <c r="G80" t="n">
+        <v>124.4554734055051</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>62.08010482341414</v>
+      </c>
+      <c r="J80" t="n">
+        <v>100.4314331891657</v>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>87.73442803033284</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0</v>
+      </c>
+      <c r="P80" t="n">
+        <v>550.6165982972705</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>0</v>
+      </c>
+      <c r="R80" t="n">
+        <v>48.67341923799096</v>
+      </c>
+      <c r="S80" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="T80" t="n">
+        <v>0</v>
+      </c>
+      <c r="U80" t="n">
+        <v>1.58432642203609</v>
+      </c>
+      <c r="V80" t="n">
+        <v>1.623296671874127</v>
+      </c>
+      <c r="W80" t="n">
+        <v>0</v>
+      </c>
+      <c r="X80" t="n">
+        <v>60.8340691076738</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>65.33980067999934</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2023-05-05 21:58:22</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>1</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>15.3244853249739</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>159.6055439256299</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>33.97433797865946</v>
+      </c>
+      <c r="J81" t="n">
+        <v>120.7042023368766</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>24.21300295577612</v>
+      </c>
+      <c r="M81" t="n">
+        <v>39.99899300910664</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" t="n">
+        <v>31.28484393955455</v>
+      </c>
+      <c r="P81" t="n">
+        <v>249.1685287883389</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>0</v>
+      </c>
+      <c r="R81" t="n">
+        <v>27.92572415447042</v>
+      </c>
+      <c r="S81" t="n">
+        <v>30.38548950585098</v>
+      </c>
+      <c r="T81" t="n">
+        <v>0</v>
+      </c>
+      <c r="U81" t="n">
+        <v>0.7248749156453322</v>
+      </c>
+      <c r="V81" t="n">
+        <v>1.104430257670192</v>
+      </c>
+      <c r="W81" t="n">
+        <v>0</v>
+      </c>
+      <c r="X81" t="n">
+        <v>55.69911363531482</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>62.01038661502109</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2023-05-05 22:28:32</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>1</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>15.19206530395938</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>25.70249384521338</v>
+      </c>
+      <c r="G82" t="n">
+        <v>63.40537836784522</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>56.47020628685983</v>
+      </c>
+      <c r="J82" t="n">
+        <v>109.6514217839725</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>21.53541467500709</v>
+      </c>
+      <c r="M82" t="n">
+        <v>99</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" t="n">
+        <v>239.0795622466074</v>
+      </c>
+      <c r="P82" t="n">
+        <v>616.9518129307396</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0</v>
+      </c>
+      <c r="R82" t="n">
+        <v>0</v>
+      </c>
+      <c r="S82" t="n">
+        <v>41.05220317701362</v>
+      </c>
+      <c r="T82" t="n">
+        <v>0</v>
+      </c>
+      <c r="U82" t="n">
+        <v>0.7907939279448779</v>
+      </c>
+      <c r="V82" t="n">
+        <v>1.705834730327758</v>
+      </c>
+      <c r="W82" t="n">
+        <v>0</v>
+      </c>
+      <c r="X82" t="n">
+        <v>81</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>81</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2023-05-05 22:28:32</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0</v>
+      </c>
+      <c r="C83" t="n">
+        <v>8.600685344749209</v>
+      </c>
+      <c r="D83" t="n">
+        <v>9.938133744635264</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>120.9653217373992</v>
+      </c>
+      <c r="G83" t="n">
+        <v>128.7995601126698</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>97.91320255203958</v>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0.7502779849364369</v>
+      </c>
+      <c r="M83" t="n">
+        <v>95.77682467105157</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0</v>
+      </c>
+      <c r="P83" t="n">
+        <v>23.31824271461842</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>0</v>
+      </c>
+      <c r="R83" t="n">
+        <v>42.45447873319527</v>
+      </c>
+      <c r="S83" t="n">
+        <v>59.21812067564429</v>
+      </c>
+      <c r="T83" t="n">
+        <v>0</v>
+      </c>
+      <c r="U83" t="n">
+        <v>1.339975048453698</v>
+      </c>
+      <c r="V83" t="n">
+        <v>1.554462549013717</v>
+      </c>
+      <c r="W83" t="n">
+        <v>0</v>
+      </c>
+      <c r="X83" t="n">
+        <v>60.77121404171296</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>70.78599825049993</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2023-05-05 22:28:32</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0</v>
+      </c>
+      <c r="C84" t="n">
+        <v>4.082114735271913</v>
+      </c>
+      <c r="D84" t="n">
+        <v>4.797489893204178</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1</v>
+      </c>
+      <c r="F84" t="n">
+        <v>59.1496560114491</v>
+      </c>
+      <c r="G84" t="n">
+        <v>152.8339896336331</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>71.74775011349513</v>
+      </c>
+      <c r="J84" t="n">
+        <v>99.44737911501117</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="n">
+        <v>39.73615489718969</v>
+      </c>
+      <c r="M84" t="n">
+        <v>92.09795395557829</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" t="n">
+        <v>266.5968864111011</v>
+      </c>
+      <c r="P84" t="n">
+        <v>323.0745449413221</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>0</v>
+      </c>
+      <c r="R84" t="n">
+        <v>31.12476638820127</v>
+      </c>
+      <c r="S84" t="n">
+        <v>54.08971080546699</v>
+      </c>
+      <c r="T84" t="n">
+        <v>0</v>
+      </c>
+      <c r="U84" t="n">
+        <v>1.300283290596559</v>
+      </c>
+      <c r="V84" t="n">
+        <v>2.266447138812944</v>
+      </c>
+      <c r="W84" t="n">
+        <v>0</v>
+      </c>
+      <c r="X84" t="n">
+        <v>26.42702508910557</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>46.12329472703057</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2023-05-05 22:28:32</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0</v>
+      </c>
+      <c r="C85" t="n">
+        <v>4.054427009482756</v>
+      </c>
+      <c r="D85" t="n">
+        <v>9.516869054563484</v>
+      </c>
+      <c r="E85" t="n">
+        <v>1</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>151.7994987555387</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>2.622296807681109</v>
+      </c>
+      <c r="J85" t="n">
+        <v>72.34979859288441</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>18.18890078660158</v>
+      </c>
+      <c r="M85" t="n">
+        <v>62.86364827826304</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" t="n">
+        <v>416.9884959967201</v>
+      </c>
+      <c r="P85" t="n">
+        <v>841.6440005055669</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>0</v>
+      </c>
+      <c r="R85" t="n">
+        <v>33.97587154008588</v>
+      </c>
+      <c r="S85" t="n">
+        <v>57.72268904929765</v>
+      </c>
+      <c r="T85" t="n">
+        <v>0</v>
+      </c>
+      <c r="U85" t="n">
+        <v>0.7219866379845837</v>
+      </c>
+      <c r="V85" t="n">
+        <v>2.290411668045564</v>
+      </c>
+      <c r="W85" t="n">
+        <v>0</v>
+      </c>
+      <c r="X85" t="n">
+        <v>64.70863272172477</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>66.44881488511919</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2023-05-05 22:28:33</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0</v>
+      </c>
+      <c r="C86" t="n">
+        <v>3.975415625103029</v>
+      </c>
+      <c r="D86" t="n">
+        <v>5.03446473380099</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="n">
+        <v>156.8066957238435</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>61.69376151757889</v>
+      </c>
+      <c r="J86" t="n">
+        <v>122</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" t="n">
+        <v>78.07720873034391</v>
+      </c>
+      <c r="M86" t="n">
+        <v>80.83491103137479</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" t="n">
+        <v>184.9202474937518</v>
+      </c>
+      <c r="P86" t="n">
+        <v>511.5656771637483</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>0</v>
+      </c>
+      <c r="R86" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="S86" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="T86" t="n">
+        <v>0</v>
+      </c>
+      <c r="U86" t="n">
+        <v>1.145392347298053</v>
+      </c>
+      <c r="V86" t="n">
+        <v>1.479980418999941</v>
+      </c>
+      <c r="W86" t="n">
+        <v>0</v>
+      </c>
+      <c r="X86" t="n">
+        <v>40.78120239018379</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>47.52130803900039</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2023-05-05 22:57:14</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0</v>
+      </c>
+      <c r="C87" t="n">
+        <v>6.792451734858232</v>
+      </c>
+      <c r="D87" t="n">
+        <v>7.129685658552214</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>15.27760726399217</v>
+      </c>
+      <c r="G87" t="n">
+        <v>22.17099997536033</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>62.6612697598456</v>
+      </c>
+      <c r="J87" t="n">
+        <v>67.68987683767244</v>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="n">
+        <v>5.407999906494019</v>
+      </c>
+      <c r="M87" t="n">
+        <v>99</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" t="n">
+        <v>0</v>
+      </c>
+      <c r="P87" t="n">
+        <v>289.1094087932368</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>0</v>
+      </c>
+      <c r="R87" t="n">
+        <v>34.44130352502987</v>
+      </c>
+      <c r="S87" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="T87" t="n">
+        <v>0</v>
+      </c>
+      <c r="U87" t="n">
+        <v>0.88970250739316</v>
+      </c>
+      <c r="V87" t="n">
+        <v>1.877699729988016</v>
+      </c>
+      <c r="W87" t="n">
+        <v>0</v>
+      </c>
+      <c r="X87" t="n">
+        <v>34.09502536061041</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>60.29558236551505</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2023-05-05 22:57:14</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.4441345315568093</v>
+      </c>
+      <c r="D88" t="n">
+        <v>10.09348428429759</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>23.35500165888721</v>
+      </c>
+      <c r="G88" t="n">
+        <v>108.814810232572</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>28.70296539647637</v>
+      </c>
+      <c r="J88" t="n">
+        <v>72.45510494580301</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="n">
+        <v>47.29255162360715</v>
+      </c>
+      <c r="M88" t="n">
+        <v>95.87183122350071</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0</v>
+      </c>
+      <c r="O88" t="n">
+        <v>88.63329660705594</v>
+      </c>
+      <c r="P88" t="n">
+        <v>191.3988172994485</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>1</v>
+      </c>
+      <c r="R88" t="n">
+        <v>13.51218313476878</v>
+      </c>
+      <c r="S88" t="n">
+        <v>66.06492691881127</v>
+      </c>
+      <c r="T88" t="n">
+        <v>0</v>
+      </c>
+      <c r="U88" t="n">
+        <v>0.7564217431802611</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0.9999337410895404</v>
+      </c>
+      <c r="W88" t="n">
+        <v>0</v>
+      </c>
+      <c r="X88" t="n">
+        <v>36.17547607059013</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>43.84459192087465</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2023-05-05 22:57:14</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0</v>
+      </c>
+      <c r="D89" t="n">
+        <v>5.422778641857351</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1</v>
+      </c>
+      <c r="F89" t="n">
+        <v>9.393122876789649</v>
+      </c>
+      <c r="G89" t="n">
+        <v>172.6209774611877</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>44.44529888389257</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>21.43812184474301</v>
+      </c>
+      <c r="M89" t="n">
+        <v>44.44110601272199</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0</v>
+      </c>
+      <c r="O89" t="n">
+        <v>539.4085697427904</v>
+      </c>
+      <c r="P89" t="n">
+        <v>702.2626597187406</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>1</v>
+      </c>
+      <c r="R89" t="n">
+        <v>3.128956724196157</v>
+      </c>
+      <c r="S89" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="T89" t="n">
+        <v>0</v>
+      </c>
+      <c r="U89" t="n">
+        <v>0.4307263406203883</v>
+      </c>
+      <c r="V89" t="n">
+        <v>1.95004128795835</v>
+      </c>
+      <c r="W89" t="n">
+        <v>0</v>
+      </c>
+      <c r="X89" t="n">
+        <v>31.80793994318686</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>57.06046835849003</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2023-05-05 22:57:15</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0</v>
+      </c>
+      <c r="C90" t="n">
+        <v>10.75398208796277</v>
+      </c>
+      <c r="D90" t="n">
+        <v>15.33629733705508</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" t="n">
+        <v>10.0929387424096</v>
+      </c>
+      <c r="G90" t="n">
+        <v>138.0070218583769</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>66.58106951254076</v>
+      </c>
+      <c r="J90" t="n">
+        <v>89.55084558622661</v>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="n">
+        <v>7.907065530699122</v>
+      </c>
+      <c r="M90" t="n">
+        <v>99</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0</v>
+      </c>
+      <c r="O90" t="n">
+        <v>330.5622874963144</v>
+      </c>
+      <c r="P90" t="n">
+        <v>743.6885467038056</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>0</v>
+      </c>
+      <c r="R90" t="n">
+        <v>22.2420870026896</v>
+      </c>
+      <c r="S90" t="n">
+        <v>33.0704556221327</v>
+      </c>
+      <c r="T90" t="n">
+        <v>0</v>
+      </c>
+      <c r="U90" t="n">
+        <v>0.28317745845446</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0.5192502842893294</v>
+      </c>
+      <c r="W90" t="n">
+        <v>0</v>
+      </c>
+      <c r="X90" t="n">
+        <v>39.26149130359023</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>70.15585182795252</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2023-05-05 22:57:15</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0</v>
+      </c>
+      <c r="C91" t="n">
+        <v>5.94299628861919</v>
+      </c>
+      <c r="D91" t="n">
+        <v>16.4021431572278</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1</v>
+      </c>
+      <c r="F91" t="n">
+        <v>54.57520749945402</v>
+      </c>
+      <c r="G91" t="n">
+        <v>157.642494173169</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>48.88398188327423</v>
+      </c>
+      <c r="J91" t="n">
+        <v>98.16671483966596</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
+        <v>70.53363568626787</v>
+      </c>
+      <c r="M91" t="n">
+        <v>77.41197555952164</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0</v>
+      </c>
+      <c r="O91" t="n">
+        <v>115.8397089851175</v>
+      </c>
+      <c r="P91" t="n">
+        <v>373.5309258164211</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>1</v>
+      </c>
+      <c r="R91" t="n">
+        <v>11.56315699701272</v>
+      </c>
+      <c r="S91" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="T91" t="n">
+        <v>0</v>
+      </c>
+      <c r="U91" t="n">
+        <v>0.2456601277245232</v>
+      </c>
+      <c r="V91" t="n">
+        <v>1.815119116252071</v>
+      </c>
+      <c r="W91" t="n">
+        <v>0</v>
+      </c>
+      <c r="X91" t="n">
+        <v>54.15802730197215</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>81</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2023-05-05 23:22:37</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1.818008140695838</v>
+      </c>
+      <c r="D92" t="n">
+        <v>13.77049100514902</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" t="n">
+        <v>63.98471223239785</v>
+      </c>
+      <c r="G92" t="n">
+        <v>155.542404494008</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>61.98372678967486</v>
+      </c>
+      <c r="J92" t="n">
+        <v>95.73454388621239</v>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" t="n">
+        <v>61.13607388085404</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0</v>
+      </c>
+      <c r="O92" t="n">
+        <v>379.8396146819697</v>
+      </c>
+      <c r="P92" t="n">
+        <v>741.2060740901563</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>0</v>
+      </c>
+      <c r="R92" t="n">
+        <v>10.45416161021276</v>
+      </c>
+      <c r="S92" t="n">
+        <v>48.86293051761186</v>
+      </c>
+      <c r="T92" t="n">
+        <v>0</v>
+      </c>
+      <c r="U92" t="n">
+        <v>0.798871393183752</v>
+      </c>
+      <c r="V92" t="n">
+        <v>1.945881787187465</v>
+      </c>
+      <c r="W92" t="n">
+        <v>0</v>
+      </c>
+      <c r="X92" t="n">
+        <v>50.08359108728622</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>72.9110480119399</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2023-05-05 23:22:37</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.2275945739084178</v>
+      </c>
+      <c r="D93" t="n">
+        <v>2.804669251819179</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1</v>
+      </c>
+      <c r="F93" t="n">
+        <v>18.75207605865473</v>
+      </c>
+      <c r="G93" t="n">
+        <v>179.2325792683688</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>57.67920284270598</v>
+      </c>
+      <c r="J93" t="n">
+        <v>115.4726785669825</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="n">
+        <v>76.47567144520306</v>
+      </c>
+      <c r="M93" t="n">
+        <v>96.25225304832149</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0</v>
+      </c>
+      <c r="O93" t="n">
+        <v>669.6485143422541</v>
+      </c>
+      <c r="P93" t="n">
+        <v>748.0864889925559</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>0</v>
+      </c>
+      <c r="R93" t="n">
+        <v>26.93586003037185</v>
+      </c>
+      <c r="S93" t="n">
+        <v>52.50003238555948</v>
+      </c>
+      <c r="T93" t="n">
+        <v>0</v>
+      </c>
+      <c r="U93" t="n">
+        <v>0.3553742474653243</v>
+      </c>
+      <c r="V93" t="n">
+        <v>1.798122641342502</v>
+      </c>
+      <c r="W93" t="n">
+        <v>0</v>
+      </c>
+      <c r="X93" t="n">
+        <v>44.24144217797607</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>77.49900092215081</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2023-05-05 23:22:37</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>1</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0</v>
+      </c>
+      <c r="D94" t="n">
+        <v>17</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1</v>
+      </c>
+      <c r="F94" t="n">
+        <v>70.53049580218881</v>
+      </c>
+      <c r="G94" t="n">
+        <v>134.1768172362003</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>64.27673390019854</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0</v>
+      </c>
+      <c r="M94" t="n">
+        <v>44.56565503858722</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0</v>
+      </c>
+      <c r="O94" t="n">
+        <v>590.3862099447323</v>
+      </c>
+      <c r="P94" t="n">
+        <v>846</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>0</v>
+      </c>
+      <c r="R94" t="n">
+        <v>20.08029216838538</v>
+      </c>
+      <c r="S94" t="n">
+        <v>51.55996163718284</v>
+      </c>
+      <c r="T94" t="n">
+        <v>0</v>
+      </c>
+      <c r="U94" t="n">
+        <v>0.741498797648338</v>
+      </c>
+      <c r="V94" t="n">
+        <v>1.824636215748071</v>
+      </c>
+      <c r="W94" t="n">
+        <v>0</v>
+      </c>
+      <c r="X94" t="n">
+        <v>71.25368116785891</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>81</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2023-05-05 23:22:38</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>0</v>
+      </c>
+      <c r="C95" t="n">
+        <v>6.584172476919257</v>
+      </c>
+      <c r="D95" t="n">
+        <v>11.45998545511435</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0</v>
+      </c>
+      <c r="F95" t="n">
+        <v>36.36839180520489</v>
+      </c>
+      <c r="G95" t="n">
+        <v>165.6063807295703</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>73.96248069950116</v>
+      </c>
+      <c r="J95" t="n">
+        <v>92.19748027559862</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="n">
+        <v>52.71900485138627</v>
+      </c>
+      <c r="M95" t="n">
+        <v>63.52733134013153</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0</v>
+      </c>
+      <c r="O95" t="n">
+        <v>382.7544359804829</v>
+      </c>
+      <c r="P95" t="n">
+        <v>581.1380103083719</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>1</v>
+      </c>
+      <c r="R95" t="n">
+        <v>4.215341961097751</v>
+      </c>
+      <c r="S95" t="n">
+        <v>48.62268475491815</v>
+      </c>
+      <c r="T95" t="n">
+        <v>0</v>
+      </c>
+      <c r="U95" t="n">
+        <v>1.913483763019094</v>
+      </c>
+      <c r="V95" t="n">
+        <v>2.195576980712903</v>
+      </c>
+      <c r="W95" t="n">
+        <v>0</v>
+      </c>
+      <c r="X95" t="n">
+        <v>40.17370743858156</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>74.09859610924144</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2023-05-05 23:22:38</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>0</v>
+      </c>
+      <c r="C96" t="n">
+        <v>4.704647611280731</v>
+      </c>
+      <c r="D96" t="n">
+        <v>10.80704247049755</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="n">
+        <v>89.78124374759689</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>52.22730292293373</v>
+      </c>
+      <c r="J96" t="n">
+        <v>76.05883301574299</v>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0</v>
+      </c>
+      <c r="M96" t="n">
+        <v>99</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0</v>
+      </c>
+      <c r="O96" t="n">
+        <v>112.1126771299386</v>
+      </c>
+      <c r="P96" t="n">
+        <v>154.01238915414</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>0</v>
+      </c>
+      <c r="R96" t="n">
+        <v>0</v>
+      </c>
+      <c r="S96" t="n">
+        <v>35.63901578696441</v>
+      </c>
+      <c r="T96" t="n">
+        <v>0</v>
+      </c>
+      <c r="U96" t="n">
+        <v>0.8622227269502014</v>
+      </c>
+      <c r="V96" t="n">
+        <v>1.305541988553682</v>
+      </c>
+      <c r="W96" t="n">
+        <v>0</v>
+      </c>
+      <c r="X96" t="n">
+        <v>48.98999414049207</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>52.0383673674104</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2023-05-05 23:57:42</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>0</v>
+      </c>
+      <c r="C97" t="n">
+        <v>2.885546695947474</v>
+      </c>
+      <c r="D97" t="n">
+        <v>3.397260012719225</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>143.7408850482665</v>
+      </c>
+      <c r="G97" t="n">
+        <v>171.8902192259463</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>20.68767519960955</v>
+      </c>
+      <c r="J97" t="n">
+        <v>24.38042032273015</v>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0</v>
+      </c>
+      <c r="M97" t="n">
+        <v>99</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0</v>
+      </c>
+      <c r="O97" t="n">
+        <v>423.8828624619252</v>
+      </c>
+      <c r="P97" t="n">
+        <v>518.3189651975194</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>0</v>
+      </c>
+      <c r="R97" t="n">
+        <v>43.85458919128533</v>
+      </c>
+      <c r="S97" t="n">
+        <v>45.13578793181026</v>
+      </c>
+      <c r="T97" t="n">
+        <v>0</v>
+      </c>
+      <c r="U97" t="n">
+        <v>0.2320588204818079</v>
+      </c>
+      <c r="V97" t="n">
+        <v>1.65300336453796</v>
+      </c>
+      <c r="W97" t="n">
+        <v>0</v>
+      </c>
+      <c r="X97" t="n">
+        <v>58.46338926337796</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>76.52349445443409</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2023-05-05 23:57:42</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>0</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1.08100093913198</v>
+      </c>
+      <c r="D98" t="n">
+        <v>9.677924419939442</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0</v>
+      </c>
+      <c r="F98" t="n">
+        <v>60.12929055111586</v>
+      </c>
+      <c r="G98" t="n">
+        <v>94.24468726513463</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>66.68502673320087</v>
+      </c>
+      <c r="J98" t="n">
+        <v>118.6453243824388</v>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0</v>
+      </c>
+      <c r="M98" t="n">
+        <v>95.42253338212772</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0</v>
+      </c>
+      <c r="O98" t="n">
+        <v>102.4514350386097</v>
+      </c>
+      <c r="P98" t="n">
+        <v>465.6903525243468</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>0</v>
+      </c>
+      <c r="R98" t="n">
+        <v>30.09346635995601</v>
+      </c>
+      <c r="S98" t="n">
+        <v>37.93299318089227</v>
+      </c>
+      <c r="T98" t="n">
+        <v>0</v>
+      </c>
+      <c r="U98" t="n">
+        <v>0.5758429061039739</v>
+      </c>
+      <c r="V98" t="n">
+        <v>1.290140694782723</v>
+      </c>
+      <c r="W98" t="n">
+        <v>0</v>
+      </c>
+      <c r="X98" t="n">
+        <v>35.97397760030616</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>70.71978750387667</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2023-05-05 23:57:42</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>0</v>
+      </c>
+      <c r="C99" t="n">
+        <v>9.810840806402894</v>
+      </c>
+      <c r="D99" t="n">
+        <v>15.20935130469965</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
+      <c r="F99" t="n">
+        <v>9.881138305360016</v>
+      </c>
+      <c r="G99" t="n">
+        <v>25.10298325538439</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>19.58834251958141</v>
+      </c>
+      <c r="J99" t="n">
+        <v>78.18578160190415</v>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0</v>
+      </c>
+      <c r="M99" t="n">
+        <v>97.17502617909237</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0</v>
+      </c>
+      <c r="O99" t="n">
+        <v>404.6172245056884</v>
+      </c>
+      <c r="P99" t="n">
+        <v>531.8774938877929</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>0</v>
+      </c>
+      <c r="R99" t="n">
+        <v>47.39503423272753</v>
+      </c>
+      <c r="S99" t="n">
+        <v>56.96128439272982</v>
+      </c>
+      <c r="T99" t="n">
+        <v>0</v>
+      </c>
+      <c r="U99" t="n">
+        <v>0.7190661283880341</v>
+      </c>
+      <c r="V99" t="n">
+        <v>2.037584150959321</v>
+      </c>
+      <c r="W99" t="n">
+        <v>0</v>
+      </c>
+      <c r="X99" t="n">
+        <v>27.62702818390594</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>38.76514392250651</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2023-05-05 23:57:42</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>0</v>
+      </c>
+      <c r="C100" t="n">
+        <v>7.045488782497188</v>
+      </c>
+      <c r="D100" t="n">
+        <v>8.226469423241811</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="n">
+        <v>191.6819092851041</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>66.34028952112449</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0</v>
+      </c>
+      <c r="M100" t="n">
+        <v>34.32917176383041</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0</v>
+      </c>
+      <c r="O100" t="n">
+        <v>55.490751379448</v>
+      </c>
+      <c r="P100" t="n">
+        <v>572.8806374920623</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>0</v>
+      </c>
+      <c r="R100" t="n">
+        <v>18.78988087013506</v>
+      </c>
+      <c r="S100" t="n">
+        <v>60.59647879236057</v>
+      </c>
+      <c r="T100" t="n">
+        <v>0</v>
+      </c>
+      <c r="U100" t="n">
+        <v>0.6442306667963866</v>
+      </c>
+      <c r="V100" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="W100" t="n">
+        <v>1</v>
+      </c>
+      <c r="X100" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>81</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2023-05-05 23:57:42</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>0</v>
+      </c>
+      <c r="C101" t="n">
+        <v>12.7046322938686</v>
+      </c>
+      <c r="D101" t="n">
+        <v>16.52923202075485</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>44.12366358599478</v>
+      </c>
+      <c r="G101" t="n">
+        <v>179.6451504444568</v>
+      </c>
+      <c r="H101" t="n">
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>14.05003581398997</v>
+      </c>
+      <c r="J101" t="n">
+        <v>119.3820106951247</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" t="n">
+        <v>49.54829828386514</v>
+      </c>
+      <c r="M101" t="n">
+        <v>80.45864891288008</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0</v>
+      </c>
+      <c r="O101" t="n">
+        <v>709.1090555582648</v>
+      </c>
+      <c r="P101" t="n">
+        <v>723.074921072214</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>1</v>
+      </c>
+      <c r="R101" t="n">
+        <v>6.987217479852202</v>
+      </c>
+      <c r="S101" t="n">
+        <v>39.93545310706226</v>
+      </c>
+      <c r="T101" t="n">
+        <v>0</v>
+      </c>
+      <c r="U101" t="n">
+        <v>0.1396263189327437</v>
+      </c>
+      <c r="V101" t="n">
+        <v>1.013756967546784</v>
+      </c>
+      <c r="W101" t="n">
+        <v>0</v>
+      </c>
+      <c r="X101" t="n">
+        <v>56.02882542569844</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>62.72720089360786</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2023-05-06 00:12:46</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>0</v>
+      </c>
+      <c r="C102" t="n">
+        <v>2.474391277461024</v>
+      </c>
+      <c r="D102" t="n">
+        <v>8.616414775954256</v>
+      </c>
+      <c r="E102" t="n">
+        <v>1</v>
+      </c>
+      <c r="F102" t="n">
+        <v>28.20774554502977</v>
+      </c>
+      <c r="G102" t="n">
+        <v>154.477846719445</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>25.22028627450595</v>
+      </c>
+      <c r="J102" t="n">
+        <v>73.45091221710564</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0.6056623034197597</v>
+      </c>
+      <c r="M102" t="n">
+        <v>49.72831616703024</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0</v>
+      </c>
+      <c r="O102" t="n">
+        <v>0</v>
+      </c>
+      <c r="P102" t="n">
+        <v>395.639132706139</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>0</v>
+      </c>
+      <c r="R102" t="n">
+        <v>0.7447907124378803</v>
+      </c>
+      <c r="S102" t="n">
+        <v>17.98176160698273</v>
+      </c>
+      <c r="T102" t="n">
+        <v>0</v>
+      </c>
+      <c r="U102" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="V102" t="n">
+        <v>1.370982169167492</v>
+      </c>
+      <c r="W102" t="n">
+        <v>0</v>
+      </c>
+      <c r="X102" t="n">
+        <v>29.76332941376216</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>43.06136062555564</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2023-05-06 00:12:46</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>1</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.5893081218848815</v>
+      </c>
+      <c r="D103" t="n">
+        <v>12.69911570405513</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" t="n">
+        <v>116.1517302648573</v>
+      </c>
+      <c r="G103" t="n">
+        <v>163.4546598658088</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>57.65993484606157</v>
+      </c>
+      <c r="J103" t="n">
+        <v>77.41463174397569</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" t="n">
+        <v>36.7711587966045</v>
+      </c>
+      <c r="M103" t="n">
+        <v>45.99101228200161</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0</v>
+      </c>
+      <c r="O103" t="n">
+        <v>653.0375048274814</v>
+      </c>
+      <c r="P103" t="n">
+        <v>777.440193397479</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>0</v>
+      </c>
+      <c r="R103" t="n">
+        <v>18.59345278698659</v>
+      </c>
+      <c r="S103" t="n">
+        <v>39.41304678052657</v>
+      </c>
+      <c r="T103" t="n">
+        <v>0</v>
+      </c>
+      <c r="U103" t="n">
+        <v>1.341869105175577</v>
+      </c>
+      <c r="V103" t="n">
+        <v>1.81377058315639</v>
+      </c>
+      <c r="W103" t="n">
+        <v>0</v>
+      </c>
+      <c r="X103" t="n">
+        <v>30.91438213093669</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>44.25669361362363</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2023-05-06 00:12:46</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>0</v>
+      </c>
+      <c r="C104" t="n">
+        <v>11.01591210381006</v>
+      </c>
+      <c r="D104" t="n">
+        <v>14.77959245899588</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
+      <c r="F104" t="n">
+        <v>97.00569696398347</v>
+      </c>
+      <c r="G104" t="n">
+        <v>121.8250183961531</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>37.09049137121117</v>
+      </c>
+      <c r="J104" t="n">
+        <v>48.58204018740016</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0</v>
+      </c>
+      <c r="L104" t="n">
+        <v>64.7734522439834</v>
+      </c>
+      <c r="M104" t="n">
+        <v>74.43165245339377</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0</v>
+      </c>
+      <c r="O104" t="n">
+        <v>184.4208181461929</v>
+      </c>
+      <c r="P104" t="n">
+        <v>795.3034982868554</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>1</v>
+      </c>
+      <c r="R104" t="n">
+        <v>0.8669773804474215</v>
+      </c>
+      <c r="S104" t="n">
+        <v>37.48731001932047</v>
+      </c>
+      <c r="T104" t="n">
+        <v>0</v>
+      </c>
+      <c r="U104" t="n">
+        <v>1.108137314036143</v>
+      </c>
+      <c r="V104" t="n">
+        <v>1.808769636341703</v>
+      </c>
+      <c r="W104" t="n">
+        <v>0</v>
+      </c>
+      <c r="X104" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>62.4340665338482</v>
+      </c>
+      <c r="Z104" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2023-05-06 00:12:46</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>0</v>
+      </c>
+      <c r="C105" t="n">
+        <v>12.35807426125402</v>
+      </c>
+      <c r="D105" t="n">
+        <v>16.4085072235218</v>
+      </c>
+      <c r="E105" t="n">
+        <v>1</v>
+      </c>
+      <c r="F105" t="n">
+        <v>39.06560544034657</v>
+      </c>
+      <c r="G105" t="n">
+        <v>170.0996572842632</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>11.35663289926832</v>
+      </c>
+      <c r="J105" t="n">
+        <v>43.21908363800833</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0</v>
+      </c>
+      <c r="L105" t="n">
+        <v>32.54848074677994</v>
+      </c>
+      <c r="M105" t="n">
+        <v>99</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0</v>
+      </c>
+      <c r="O105" t="n">
+        <v>137.3387193092421</v>
+      </c>
+      <c r="P105" t="n">
+        <v>407.8870108232943</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>0</v>
+      </c>
+      <c r="R105" t="n">
+        <v>46.09660392437367</v>
+      </c>
+      <c r="S105" t="n">
+        <v>47.9769395381625</v>
+      </c>
+      <c r="T105" t="n">
+        <v>0</v>
+      </c>
+      <c r="U105" t="n">
+        <v>0.9778826591778075</v>
+      </c>
+      <c r="V105" t="n">
+        <v>2.215966297549432</v>
+      </c>
+      <c r="W105" t="n">
+        <v>0</v>
+      </c>
+      <c r="X105" t="n">
+        <v>33.81361398133625</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>54.03305749716654</v>
+      </c>
+      <c r="Z105" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2023-05-06 00:12:46</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>0</v>
+      </c>
+      <c r="C106" t="n">
+        <v>13.48075929118692</v>
+      </c>
+      <c r="D106" t="n">
+        <v>13.54621663387549</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0</v>
+      </c>
+      <c r="F106" t="n">
+        <v>34.56043301122315</v>
+      </c>
+      <c r="G106" t="n">
+        <v>117.736391639942</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>48.42151911959314</v>
+      </c>
+      <c r="J106" t="n">
+        <v>80.02981391150895</v>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0</v>
+      </c>
+      <c r="M106" t="n">
+        <v>99</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0</v>
+      </c>
+      <c r="O106" t="n">
+        <v>44.03118127665294</v>
+      </c>
+      <c r="P106" t="n">
+        <v>627.3240748456902</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>0</v>
+      </c>
+      <c r="R106" t="n">
+        <v>34.80444084565279</v>
+      </c>
+      <c r="S106" t="n">
+        <v>47.83891742134846</v>
+      </c>
+      <c r="T106" t="n">
+        <v>0</v>
+      </c>
+      <c r="U106" t="n">
+        <v>1.881955558172852</v>
+      </c>
+      <c r="V106" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="W106" t="n">
+        <v>0</v>
+      </c>
+      <c r="X106" t="n">
+        <v>72.24348579855517</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>81</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2023-05-06 00:33:29</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>0</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0</v>
+      </c>
+      <c r="D107" t="n">
+        <v>8.414700884703835</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0</v>
+      </c>
+      <c r="F107" t="n">
+        <v>46.92782967409585</v>
+      </c>
+      <c r="G107" t="n">
+        <v>71.69517599195873</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>78.57076907339041</v>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0</v>
+      </c>
+      <c r="M107" t="n">
+        <v>99</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0</v>
+      </c>
+      <c r="O107" t="n">
+        <v>521.3778612011313</v>
+      </c>
+      <c r="P107" t="n">
+        <v>524.5226378681739</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>0</v>
+      </c>
+      <c r="R107" t="n">
+        <v>3.153718482670572</v>
+      </c>
+      <c r="S107" t="n">
+        <v>31.52156306029886</v>
+      </c>
+      <c r="T107" t="n">
+        <v>0</v>
+      </c>
+      <c r="U107" t="n">
+        <v>0.1425641148223834</v>
+      </c>
+      <c r="V107" t="n">
+        <v>1.144504375274428</v>
+      </c>
+      <c r="W107" t="n">
+        <v>0</v>
+      </c>
+      <c r="X107" t="n">
+        <v>21.37615156297584</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>29.66456726337021</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2023-05-06 00:33:29</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>0</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0</v>
+      </c>
+      <c r="D108" t="n">
+        <v>11.39244263463791</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0</v>
+      </c>
+      <c r="F108" t="n">
+        <v>69.8813282550916</v>
+      </c>
+      <c r="G108" t="n">
+        <v>148.874358359628</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>104.2677564664412</v>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0</v>
+      </c>
+      <c r="M108" t="n">
+        <v>99</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0</v>
+      </c>
+      <c r="O108" t="n">
+        <v>597.9493059790191</v>
+      </c>
+      <c r="P108" t="n">
+        <v>806.9919363370279</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>0</v>
+      </c>
+      <c r="R108" t="n">
+        <v>36.79059429337894</v>
+      </c>
+      <c r="S108" t="n">
+        <v>44.53426301848113</v>
+      </c>
+      <c r="T108" t="n">
+        <v>0</v>
+      </c>
+      <c r="U108" t="n">
+        <v>0.6068956145907096</v>
+      </c>
+      <c r="V108" t="n">
+        <v>1.081392677144172</v>
+      </c>
+      <c r="W108" t="n">
+        <v>0</v>
+      </c>
+      <c r="X108" t="n">
+        <v>51.30325552808284</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>74.56964867315345</v>
+      </c>
+      <c r="Z108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2023-05-06 00:33:29</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>1</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0</v>
+      </c>
+      <c r="D109" t="n">
+        <v>13.59506079453647</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0</v>
+      </c>
+      <c r="F109" t="n">
+        <v>59.26848883017174</v>
+      </c>
+      <c r="G109" t="n">
+        <v>121.8131370079084</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>27.62462831450294</v>
+      </c>
+      <c r="J109" t="n">
+        <v>80.73092679241019</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0</v>
+      </c>
+      <c r="L109" t="n">
+        <v>44.67574232828097</v>
+      </c>
+      <c r="M109" t="n">
+        <v>59.37497328836021</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0</v>
+      </c>
+      <c r="O109" t="n">
+        <v>56.67769713210525</v>
+      </c>
+      <c r="P109" t="n">
+        <v>112.9765771786766</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>0</v>
+      </c>
+      <c r="R109" t="n">
+        <v>12.90500378235005</v>
+      </c>
+      <c r="S109" t="n">
+        <v>20.84096782064237</v>
+      </c>
+      <c r="T109" t="n">
+        <v>0</v>
+      </c>
+      <c r="U109" t="n">
+        <v>0.2784022719104943</v>
+      </c>
+      <c r="V109" t="n">
+        <v>1.079031238985876</v>
+      </c>
+      <c r="W109" t="n">
+        <v>0</v>
+      </c>
+      <c r="X109" t="n">
+        <v>36.90310616194486</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>53.37741364631088</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2023-05-06 00:33:29</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>0</v>
+      </c>
+      <c r="C110" t="n">
+        <v>1.658544896915354</v>
+      </c>
+      <c r="D110" t="n">
+        <v>10.55523274090238</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0</v>
+      </c>
+      <c r="F110" t="n">
+        <v>85.24993105009084</v>
+      </c>
+      <c r="G110" t="n">
+        <v>199</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>47.1106589393681</v>
+      </c>
+      <c r="J110" t="n">
+        <v>102.8958807808597</v>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0</v>
+      </c>
+      <c r="M110" t="n">
+        <v>90.48206444267937</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0</v>
+      </c>
+      <c r="O110" t="n">
+        <v>222.2129374088322</v>
+      </c>
+      <c r="P110" t="n">
+        <v>526.2411885430126</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>0</v>
+      </c>
+      <c r="R110" t="n">
+        <v>5.821398475334069</v>
+      </c>
+      <c r="S110" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="T110" t="n">
+        <v>0</v>
+      </c>
+      <c r="U110" t="n">
+        <v>0.3207099444017457</v>
+      </c>
+      <c r="V110" t="n">
+        <v>1.508035877458552</v>
+      </c>
+      <c r="W110" t="n">
+        <v>0</v>
+      </c>
+      <c r="X110" t="n">
+        <v>60.566166233154</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>78.20253495703244</v>
+      </c>
+      <c r="Z110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2023-05-06 00:33:29</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>0</v>
+      </c>
+      <c r="C111" t="n">
+        <v>13.86552551213694</v>
+      </c>
+      <c r="D111" t="n">
+        <v>15.53468886279485</v>
+      </c>
+      <c r="E111" t="n">
+        <v>1</v>
+      </c>
+      <c r="F111" t="n">
+        <v>41.7788224662049</v>
+      </c>
+      <c r="G111" t="n">
+        <v>130.8580616697448</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>69.49472927496332</v>
+      </c>
+      <c r="J111" t="n">
+        <v>105.5427373090935</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0</v>
+      </c>
+      <c r="L111" t="n">
+        <v>14.15310672102747</v>
+      </c>
+      <c r="M111" t="n">
+        <v>16.15290714328874</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0</v>
+      </c>
+      <c r="O111" t="n">
+        <v>309.0224493198178</v>
+      </c>
+      <c r="P111" t="n">
+        <v>774.7187352711801</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>0</v>
+      </c>
+      <c r="R111" t="n">
+        <v>56.08977026578857</v>
+      </c>
+      <c r="S111" t="n">
+        <v>65.00460088758284</v>
+      </c>
+      <c r="T111" t="n">
+        <v>0</v>
+      </c>
+      <c r="U111" t="n">
+        <v>0.8215381053114531</v>
+      </c>
+      <c r="V111" t="n">
+        <v>1.24395183698577</v>
+      </c>
+      <c r="W111" t="n">
+        <v>0</v>
+      </c>
+      <c r="X111" t="n">
+        <v>36.82050642857827</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>64.87620690768122</v>
+      </c>
+      <c r="Z111" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2023-05-06 00:53:05</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>1</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.7116616594579493</v>
+      </c>
+      <c r="D112" t="n">
+        <v>14.68363302543878</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.2700522993053561</v>
+      </c>
+      <c r="G112" t="n">
+        <v>149.3699844892633</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>19.89445043532167</v>
+      </c>
+      <c r="J112" t="n">
+        <v>80.35449556947641</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L112" t="n">
+        <v>14.34663253522239</v>
+      </c>
+      <c r="M112" t="n">
+        <v>66.58865256263556</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0</v>
+      </c>
+      <c r="O112" t="n">
+        <v>376.155503444936</v>
+      </c>
+      <c r="P112" t="n">
+        <v>656.3414501237228</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>0</v>
+      </c>
+      <c r="R112" t="n">
+        <v>45.98996112170912</v>
+      </c>
+      <c r="S112" t="n">
+        <v>64.15910823595722</v>
+      </c>
+      <c r="T112" t="n">
+        <v>0</v>
+      </c>
+      <c r="U112" t="n">
+        <v>0.3277422960601491</v>
+      </c>
+      <c r="V112" t="n">
+        <v>1.745700571281846</v>
+      </c>
+      <c r="W112" t="n">
+        <v>0</v>
+      </c>
+      <c r="X112" t="n">
+        <v>31.84642400569179</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>52.42391196730527</v>
+      </c>
+      <c r="Z112" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2023-05-06 00:53:06</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>0</v>
+      </c>
+      <c r="C113" t="n">
+        <v>5.782311386268562</v>
+      </c>
+      <c r="D113" t="n">
+        <v>10.21549734149182</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0</v>
+      </c>
+      <c r="F113" t="n">
+        <v>11.3348160181998</v>
+      </c>
+      <c r="G113" t="n">
+        <v>49.29119306229194</v>
+      </c>
+      <c r="H113" t="n">
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>9.176814288531038</v>
+      </c>
+      <c r="J113" t="n">
+        <v>103.7080484489755</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0</v>
+      </c>
+      <c r="L113" t="n">
+        <v>66.50257419748679</v>
+      </c>
+      <c r="M113" t="n">
+        <v>72.59499695008662</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0</v>
+      </c>
+      <c r="O113" t="n">
+        <v>283.8869506301316</v>
+      </c>
+      <c r="P113" t="n">
+        <v>414.0862082764764</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>0</v>
+      </c>
+      <c r="R113" t="n">
+        <v>51.96113394251827</v>
+      </c>
+      <c r="S113" t="n">
+        <v>54.69959148136733</v>
+      </c>
+      <c r="T113" t="n">
+        <v>0</v>
+      </c>
+      <c r="U113" t="n">
+        <v>0.9057547677372484</v>
+      </c>
+      <c r="V113" t="n">
+        <v>2.090502414293536</v>
+      </c>
+      <c r="W113" t="n">
+        <v>0</v>
+      </c>
+      <c r="X113" t="n">
+        <v>63.05721249377698</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>71.97927883911078</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2023-05-06 00:53:06</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>1</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.0528428130560334</v>
+      </c>
+      <c r="D114" t="n">
+        <v>16.9983218752837</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>3.899615232883122</v>
+      </c>
+      <c r="G114" t="n">
+        <v>185.8497300383326</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>30.71540665183255</v>
+      </c>
+      <c r="J114" t="n">
+        <v>44.51240563856917</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0</v>
+      </c>
+      <c r="L114" t="n">
+        <v>18.88640340967106</v>
+      </c>
+      <c r="M114" t="n">
+        <v>99</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0</v>
+      </c>
+      <c r="O114" t="n">
+        <v>318.6036082845981</v>
+      </c>
+      <c r="P114" t="n">
+        <v>393.7234964931919</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>0</v>
+      </c>
+      <c r="R114" t="n">
+        <v>29.80589189361343</v>
+      </c>
+      <c r="S114" t="n">
+        <v>43.34232897979909</v>
+      </c>
+      <c r="T114" t="n">
+        <v>0</v>
+      </c>
+      <c r="U114" t="n">
+        <v>0.5241057600987722</v>
+      </c>
+      <c r="V114" t="n">
+        <v>1.717350801471787</v>
+      </c>
+      <c r="W114" t="n">
+        <v>0</v>
+      </c>
+      <c r="X114" t="n">
+        <v>62.6182236312631</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>68.56564173856862</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2023-05-06 00:53:06</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>1</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0</v>
+      </c>
+      <c r="D115" t="n">
+        <v>17</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0</v>
+      </c>
+      <c r="F115" t="n">
+        <v>42.84668040896533</v>
+      </c>
+      <c r="G115" t="n">
+        <v>190.1918207241999</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>38.08334554427535</v>
+      </c>
+      <c r="J115" t="n">
+        <v>75.22245366901281</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0</v>
+      </c>
+      <c r="L115" t="n">
+        <v>26.96909141413455</v>
+      </c>
+      <c r="M115" t="n">
+        <v>38.84348763270415</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0</v>
+      </c>
+      <c r="O115" t="n">
+        <v>45.26124373031158</v>
+      </c>
+      <c r="P115" t="n">
+        <v>340.3643516679417</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>0</v>
+      </c>
+      <c r="R115" t="n">
+        <v>38.6716777052112</v>
+      </c>
+      <c r="S115" t="n">
+        <v>51.00479727985925</v>
+      </c>
+      <c r="T115" t="n">
+        <v>0</v>
+      </c>
+      <c r="U115" t="n">
+        <v>0.4231017109118203</v>
+      </c>
+      <c r="V115" t="n">
+        <v>1.660863072440276</v>
+      </c>
+      <c r="W115" t="n">
+        <v>0</v>
+      </c>
+      <c r="X115" t="n">
+        <v>70.74288871042614</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>75.4391076318643</v>
+      </c>
+      <c r="Z115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2023-05-06 00:53:06</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C116" t="n">
+        <v>3.864833502011646</v>
+      </c>
+      <c r="D116" t="n">
+        <v>12.41378218002029</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0</v>
+      </c>
+      <c r="F116" t="n">
+        <v>83.01621492188411</v>
+      </c>
+      <c r="G116" t="n">
+        <v>102.9232495342277</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>63.55282011716796</v>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0</v>
+      </c>
+      <c r="M116" t="n">
+        <v>86.45074213582477</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0</v>
+      </c>
+      <c r="O116" t="n">
+        <v>250.6257009158988</v>
+      </c>
+      <c r="P116" t="n">
+        <v>535.5858692319866</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>0</v>
+      </c>
+      <c r="R116" t="n">
+        <v>39.44068318468317</v>
+      </c>
+      <c r="S116" t="n">
+        <v>47.84138957538337</v>
+      </c>
+      <c r="T116" t="n">
+        <v>0</v>
+      </c>
+      <c r="U116" t="n">
+        <v>1.097831852713755</v>
+      </c>
+      <c r="V116" t="n">
+        <v>1.801067332357102</v>
+      </c>
+      <c r="W116" t="n">
+        <v>0</v>
+      </c>
+      <c r="X116" t="n">
+        <v>46.93693091484209</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>48.74481028642197</v>
+      </c>
+      <c r="Z116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2023-05-06 01:08:43</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>0</v>
+      </c>
+      <c r="C117" t="n">
+        <v>2.090806630070512</v>
+      </c>
+      <c r="D117" t="n">
+        <v>7.425151347155813</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0</v>
+      </c>
+      <c r="F117" t="n">
+        <v>19.70216641182446</v>
+      </c>
+      <c r="G117" t="n">
+        <v>62.35239821263407</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>103.5312185303605</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0</v>
+      </c>
+      <c r="L117" t="n">
+        <v>38.95067020006537</v>
+      </c>
+      <c r="M117" t="n">
+        <v>90.72965033378637</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0</v>
+      </c>
+      <c r="O117" t="n">
+        <v>362.1886089517828</v>
+      </c>
+      <c r="P117" t="n">
+        <v>644.0595797027265</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>1</v>
+      </c>
+      <c r="R117" t="n">
+        <v>3.245081056712582</v>
+      </c>
+      <c r="S117" t="n">
+        <v>45.89635481164512</v>
+      </c>
+      <c r="T117" t="n">
+        <v>0</v>
+      </c>
+      <c r="U117" t="n">
+        <v>1.205250730047375</v>
+      </c>
+      <c r="V117" t="n">
+        <v>1.81305125167675</v>
+      </c>
+      <c r="W117" t="n">
+        <v>0</v>
+      </c>
+      <c r="X117" t="n">
+        <v>34.32654142492397</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>39.21869832586423</v>
+      </c>
+      <c r="Z117" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2023-05-06 01:08:43</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>0</v>
+      </c>
+      <c r="C118" t="n">
+        <v>2.528601052647036</v>
+      </c>
+      <c r="D118" t="n">
+        <v>5.166399007083579</v>
+      </c>
+      <c r="E118" t="n">
+        <v>1</v>
+      </c>
+      <c r="F118" t="n">
+        <v>14.24323189135461</v>
+      </c>
+      <c r="G118" t="n">
+        <v>166.7132402915301</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>15.37895108323993</v>
+      </c>
+      <c r="J118" t="n">
+        <v>81.80380685566544</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0</v>
+      </c>
+      <c r="L118" t="n">
+        <v>33.75306896606998</v>
+      </c>
+      <c r="M118" t="n">
+        <v>82.04492502078624</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0</v>
+      </c>
+      <c r="O118" t="n">
+        <v>0</v>
+      </c>
+      <c r="P118" t="n">
+        <v>519.9774667066581</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>0</v>
+      </c>
+      <c r="R118" t="n">
+        <v>49.641705850422</v>
+      </c>
+      <c r="S118" t="n">
+        <v>54.24214312328849</v>
+      </c>
+      <c r="T118" t="n">
+        <v>0</v>
+      </c>
+      <c r="U118" t="n">
+        <v>0.3029755285586458</v>
+      </c>
+      <c r="V118" t="n">
+        <v>0.8733083662677475</v>
+      </c>
+      <c r="W118" t="n">
+        <v>0</v>
+      </c>
+      <c r="X118" t="n">
+        <v>45.27931372951607</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>55.39405196308434</v>
+      </c>
+      <c r="Z118" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2023-05-06 01:08:43</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>0</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1.693615191171514</v>
+      </c>
+      <c r="D119" t="n">
+        <v>13.9143999317943</v>
+      </c>
+      <c r="E119" t="n">
+        <v>1</v>
+      </c>
+      <c r="F119" t="n">
+        <v>12.50807453313416</v>
+      </c>
+      <c r="G119" t="n">
+        <v>153.0438111003268</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>72.00583939490568</v>
+      </c>
+      <c r="J119" t="n">
+        <v>74.93200812510997</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0</v>
+      </c>
+      <c r="L119" t="n">
+        <v>57.30754391114885</v>
+      </c>
+      <c r="M119" t="n">
+        <v>92.17558935112015</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0</v>
+      </c>
+      <c r="O119" t="n">
+        <v>387.598699985265</v>
+      </c>
+      <c r="P119" t="n">
+        <v>387.6006203722974</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>0</v>
+      </c>
+      <c r="R119" t="n">
+        <v>7.590259305997571</v>
+      </c>
+      <c r="S119" t="n">
+        <v>52.68014189236648</v>
+      </c>
+      <c r="T119" t="n">
+        <v>0</v>
+      </c>
+      <c r="U119" t="n">
+        <v>0.3347100988847328</v>
+      </c>
+      <c r="V119" t="n">
+        <v>1.593615111716483</v>
+      </c>
+      <c r="W119" t="n">
+        <v>0</v>
+      </c>
+      <c r="X119" t="n">
+        <v>32.84838092319536</v>
+      </c>
+      <c r="Y119" t="n">
+        <v>39.91288215718572</v>
+      </c>
+      <c r="Z119" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2023-05-06 01:08:43</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>0</v>
+      </c>
+      <c r="C120" t="n">
+        <v>7.424561053247771</v>
+      </c>
+      <c r="D120" t="n">
+        <v>12.27534143903244</v>
+      </c>
+      <c r="E120" t="n">
+        <v>1</v>
+      </c>
+      <c r="F120" t="n">
+        <v>59.64052156319711</v>
+      </c>
+      <c r="G120" t="n">
+        <v>155.8058759591471</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>35.13212191475379</v>
+      </c>
+      <c r="J120" t="n">
+        <v>117.6306672454033</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0</v>
+      </c>
+      <c r="L120" t="n">
+        <v>38.66210831025146</v>
+      </c>
+      <c r="M120" t="n">
+        <v>50.75508958287015</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" t="n">
+        <v>560.4099922643511</v>
+      </c>
+      <c r="P120" t="n">
+        <v>671.3096295618756</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>0</v>
+      </c>
+      <c r="R120" t="n">
+        <v>57.52957068924281</v>
+      </c>
+      <c r="S120" t="n">
+        <v>65.37668917099059</v>
+      </c>
+      <c r="T120" t="n">
+        <v>0</v>
+      </c>
+      <c r="U120" t="n">
+        <v>1.951691623535096</v>
+      </c>
+      <c r="V120" t="n">
+        <v>2.412793752319672</v>
+      </c>
+      <c r="W120" t="n">
+        <v>0</v>
+      </c>
+      <c r="X120" t="n">
+        <v>38.96619766031651</v>
+      </c>
+      <c r="Y120" t="n">
+        <v>47.05651061308829</v>
+      </c>
+      <c r="Z120" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2023-05-06 01:08:43</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>0</v>
+      </c>
+      <c r="C121" t="n">
+        <v>2.169041363393525</v>
+      </c>
+      <c r="D121" t="n">
+        <v>8.876235499574234</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0</v>
+      </c>
+      <c r="F121" t="n">
+        <v>38.22779045054764</v>
+      </c>
+      <c r="G121" t="n">
+        <v>126.7537818670424</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>30.89731951235475</v>
+      </c>
+      <c r="J121" t="n">
+        <v>122</v>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0</v>
+      </c>
+      <c r="M121" t="n">
+        <v>99</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0</v>
+      </c>
+      <c r="O121" t="n">
+        <v>0</v>
+      </c>
+      <c r="P121" t="n">
+        <v>846</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>0</v>
+      </c>
+      <c r="R121" t="n">
+        <v>23.78569395551321</v>
+      </c>
+      <c r="S121" t="n">
+        <v>28.93330279425699</v>
+      </c>
+      <c r="T121" t="n">
+        <v>0</v>
+      </c>
+      <c r="U121" t="n">
+        <v>1.976932506186907</v>
+      </c>
+      <c r="V121" t="n">
+        <v>2.193381182868241</v>
+      </c>
+      <c r="W121" t="n">
+        <v>0</v>
+      </c>
+      <c r="X121" t="n">
+        <v>52.58980539982005</v>
+      </c>
+      <c r="Y121" t="n">
+        <v>63.10548513758673</v>
+      </c>
+      <c r="Z121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2023-05-06 01:30:44</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>0</v>
+      </c>
+      <c r="C122" t="n">
+        <v>5.890498829785262</v>
+      </c>
+      <c r="D122" t="n">
+        <v>8.698964275384521</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0</v>
+      </c>
+      <c r="F122" t="n">
+        <v>44.64489464853099</v>
+      </c>
+      <c r="G122" t="n">
+        <v>100.4991264340037</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0</v>
+      </c>
+      <c r="L122" t="n">
+        <v>9.220142652601561</v>
+      </c>
+      <c r="M122" t="n">
+        <v>64.98812526258573</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0</v>
+      </c>
+      <c r="O122" t="n">
+        <v>0</v>
+      </c>
+      <c r="P122" t="n">
+        <v>486.9483381979242</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>1</v>
+      </c>
+      <c r="R122" t="n">
+        <v>0</v>
+      </c>
+      <c r="S122" t="n">
+        <v>66.2343814637203</v>
+      </c>
+      <c r="T122" t="n">
+        <v>0</v>
+      </c>
+      <c r="U122" t="n">
+        <v>1.161964406162321</v>
+      </c>
+      <c r="V122" t="n">
+        <v>1.257942086318097</v>
+      </c>
+      <c r="W122" t="n">
+        <v>0</v>
+      </c>
+      <c r="X122" t="n">
+        <v>80.77183378541352</v>
+      </c>
+      <c r="Y122" t="n">
+        <v>81</v>
+      </c>
+      <c r="Z122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2023-05-06 01:30:44</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>0</v>
+      </c>
+      <c r="C123" t="n">
+        <v>4.331533661534582</v>
+      </c>
+      <c r="D123" t="n">
+        <v>9.074714553224322</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0</v>
+      </c>
+      <c r="F123" t="n">
+        <v>157.8761436073572</v>
+      </c>
+      <c r="G123" t="n">
+        <v>199</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>79.60573505304852</v>
+      </c>
+      <c r="J123" t="n">
+        <v>122</v>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0</v>
+      </c>
+      <c r="M123" t="n">
+        <v>99</v>
+      </c>
+      <c r="N123" t="n">
+        <v>0</v>
+      </c>
+      <c r="O123" t="n">
+        <v>204.2900122865033</v>
+      </c>
+      <c r="P123" t="n">
+        <v>212.9531267665018</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>0</v>
+      </c>
+      <c r="R123" t="n">
+        <v>32.54480734462818</v>
+      </c>
+      <c r="S123" t="n">
+        <v>62.2606599112197</v>
+      </c>
+      <c r="T123" t="n">
+        <v>0</v>
+      </c>
+      <c r="U123" t="n">
+        <v>0.6267272619356703</v>
+      </c>
+      <c r="V123" t="n">
+        <v>0.8944394298493344</v>
+      </c>
+      <c r="W123" t="n">
+        <v>0</v>
+      </c>
+      <c r="X123" t="n">
+        <v>38.48297221896808</v>
+      </c>
+      <c r="Y123" t="n">
+        <v>40.32301125039578</v>
+      </c>
+      <c r="Z123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2023-05-06 01:30:44</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>0</v>
+      </c>
+      <c r="C124" t="n">
+        <v>15.19994382588482</v>
+      </c>
+      <c r="D124" t="n">
+        <v>15.66892003902604</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0</v>
+      </c>
+      <c r="F124" t="n">
+        <v>6.254477468792738</v>
+      </c>
+      <c r="G124" t="n">
+        <v>136.1146036971378</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>86.4043211244812</v>
+      </c>
+      <c r="J124" t="n">
+        <v>117.5167093727844</v>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="n">
+        <v>2.699189451222477</v>
+      </c>
+      <c r="M124" t="n">
+        <v>98.17578589815948</v>
+      </c>
+      <c r="N124" t="n">
+        <v>0</v>
+      </c>
+      <c r="O124" t="n">
+        <v>525.6971580688547</v>
+      </c>
+      <c r="P124" t="n">
+        <v>672.2312884270592</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>0</v>
+      </c>
+      <c r="R124" t="n">
+        <v>14.82713664830534</v>
+      </c>
+      <c r="S124" t="n">
+        <v>61.9996199919924</v>
+      </c>
+      <c r="T124" t="n">
+        <v>0</v>
+      </c>
+      <c r="U124" t="n">
+        <v>0.4898909684264121</v>
+      </c>
+      <c r="V124" t="n">
+        <v>1.193668915514776</v>
+      </c>
+      <c r="W124" t="n">
+        <v>0</v>
+      </c>
+      <c r="X124" t="n">
+        <v>24.69153584335034</v>
+      </c>
+      <c r="Y124" t="n">
+        <v>40.60874576979218</v>
+      </c>
+      <c r="Z124" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2023-05-06 01:30:44</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>0</v>
+      </c>
+      <c r="C125" t="n">
+        <v>11.41061168441379</v>
+      </c>
+      <c r="D125" t="n">
+        <v>11.492056502867</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0</v>
+      </c>
+      <c r="F125" t="n">
+        <v>68.13966771732845</v>
+      </c>
+      <c r="G125" t="n">
+        <v>106.0762448579236</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>41.98581750798796</v>
+      </c>
+      <c r="J125" t="n">
+        <v>50.14702130749207</v>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M125" t="n">
+        <v>90.17285745438058</v>
+      </c>
+      <c r="N125" t="n">
+        <v>0</v>
+      </c>
+      <c r="O125" t="n">
+        <v>754.4809155556653</v>
+      </c>
+      <c r="P125" t="n">
+        <v>846</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>0</v>
+      </c>
+      <c r="R125" t="n">
+        <v>1.927667490044894</v>
+      </c>
+      <c r="S125" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="T125" t="n">
+        <v>0</v>
+      </c>
+      <c r="U125" t="n">
+        <v>0.9410770441886862</v>
+      </c>
+      <c r="V125" t="n">
+        <v>1.021754063817189</v>
+      </c>
+      <c r="W125" t="n">
+        <v>1</v>
+      </c>
+      <c r="X125" t="n">
+        <v>22.76553043842339</v>
+      </c>
+      <c r="Y125" t="n">
+        <v>69.0771304814899</v>
+      </c>
+      <c r="Z125" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2023-05-06 01:30:44</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>0</v>
+      </c>
+      <c r="C126" t="n">
+        <v>2.082005877264207</v>
+      </c>
+      <c r="D126" t="n">
+        <v>14.36577748185494</v>
+      </c>
+      <c r="E126" t="n">
+        <v>1</v>
+      </c>
+      <c r="F126" t="n">
+        <v>69.0904111293107</v>
+      </c>
+      <c r="G126" t="n">
+        <v>150.4160190152267</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>1.211717906634727</v>
+      </c>
+      <c r="J126" t="n">
+        <v>122</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M126" t="n">
+        <v>68.97228915596448</v>
+      </c>
+      <c r="N126" t="n">
+        <v>0</v>
+      </c>
+      <c r="O126" t="n">
+        <v>564.7043934235838</v>
+      </c>
+      <c r="P126" t="n">
+        <v>646.8492163087651</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>0</v>
+      </c>
+      <c r="R126" t="n">
+        <v>0</v>
+      </c>
+      <c r="S126" t="n">
+        <v>39.14267398822709</v>
+      </c>
+      <c r="T126" t="n">
+        <v>0</v>
+      </c>
+      <c r="U126" t="n">
+        <v>0.8982412487755451</v>
+      </c>
+      <c r="V126" t="n">
+        <v>0.9712384587884687</v>
+      </c>
+      <c r="W126" t="n">
+        <v>0</v>
+      </c>
+      <c r="X126" t="n">
+        <v>45.37899802455183</v>
+      </c>
+      <c r="Y126" t="n">
+        <v>78.95604036324474</v>
+      </c>
+      <c r="Z126" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2023-05-06 01:48:27</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>0</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.9832035847240812</v>
+      </c>
+      <c r="E127" t="n">
+        <v>1</v>
+      </c>
+      <c r="F127" t="n">
+        <v>13.46541810037344</v>
+      </c>
+      <c r="G127" t="n">
+        <v>148.3388330640688</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>96.0792170877219</v>
+      </c>
+      <c r="J127" t="n">
+        <v>113.4309355514609</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0</v>
+      </c>
+      <c r="L127" t="n">
+        <v>29.86678714877956</v>
+      </c>
+      <c r="M127" t="n">
+        <v>54.77938855745895</v>
+      </c>
+      <c r="N127" t="n">
+        <v>0</v>
+      </c>
+      <c r="O127" t="n">
+        <v>325.4971162312269</v>
+      </c>
+      <c r="P127" t="n">
+        <v>488.0044119977823</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>0</v>
+      </c>
+      <c r="R127" t="n">
+        <v>1.973525886842948</v>
+      </c>
+      <c r="S127" t="n">
+        <v>24.25962473636913</v>
+      </c>
+      <c r="T127" t="n">
+        <v>0</v>
+      </c>
+      <c r="U127" t="n">
+        <v>1.135195649189656</v>
+      </c>
+      <c r="V127" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="W127" t="n">
+        <v>0</v>
+      </c>
+      <c r="X127" t="n">
+        <v>22.61306290642604</v>
+      </c>
+      <c r="Y127" t="n">
+        <v>54.76210216270262</v>
+      </c>
+      <c r="Z127" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2023-05-06 01:48:27</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>0</v>
+      </c>
+      <c r="C128" t="n">
+        <v>7.13484064912608</v>
+      </c>
+      <c r="D128" t="n">
+        <v>8.772551847014579</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0</v>
+      </c>
+      <c r="F128" t="n">
+        <v>74.00741201241141</v>
+      </c>
+      <c r="G128" t="n">
+        <v>193.9138831146705</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>12.52499047236479</v>
+      </c>
+      <c r="J128" t="n">
+        <v>119.6020901073376</v>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0</v>
+      </c>
+      <c r="M128" t="n">
+        <v>99</v>
+      </c>
+      <c r="N128" t="n">
+        <v>0</v>
+      </c>
+      <c r="O128" t="n">
+        <v>30.71055585749012</v>
+      </c>
+      <c r="P128" t="n">
+        <v>814.2225881616363</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>0</v>
+      </c>
+      <c r="R128" t="n">
+        <v>0</v>
+      </c>
+      <c r="S128" t="n">
+        <v>65.96817804704639</v>
+      </c>
+      <c r="T128" t="n">
+        <v>0</v>
+      </c>
+      <c r="U128" t="n">
+        <v>1.79137726364075</v>
+      </c>
+      <c r="V128" t="n">
+        <v>2.040730133031523</v>
+      </c>
+      <c r="W128" t="n">
+        <v>0</v>
+      </c>
+      <c r="X128" t="n">
+        <v>31.36459035616818</v>
+      </c>
+      <c r="Y128" t="n">
+        <v>40.03614016465623</v>
+      </c>
+      <c r="Z128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2023-05-06 01:48:27</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>0</v>
+      </c>
+      <c r="C129" t="n">
+        <v>14.02341141966904</v>
+      </c>
+      <c r="D129" t="n">
+        <v>17</v>
+      </c>
+      <c r="E129" t="n">
+        <v>1</v>
+      </c>
+      <c r="F129" t="n">
+        <v>54.84754864846567</v>
+      </c>
+      <c r="G129" t="n">
+        <v>158.3098223422822</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>19.75255384723189</v>
+      </c>
+      <c r="J129" t="n">
+        <v>74.88324257937344</v>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0</v>
+      </c>
+      <c r="M129" t="n">
+        <v>99</v>
+      </c>
+      <c r="N129" t="n">
+        <v>0</v>
+      </c>
+      <c r="O129" t="n">
+        <v>509.0643400968308</v>
+      </c>
+      <c r="P129" t="n">
+        <v>627.8134143093916</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>1</v>
+      </c>
+      <c r="R129" t="n">
+        <v>13.61965579063008</v>
+      </c>
+      <c r="S129" t="n">
+        <v>56.4998185521202</v>
+      </c>
+      <c r="T129" t="n">
+        <v>0</v>
+      </c>
+      <c r="U129" t="n">
+        <v>0.5533044743580174</v>
+      </c>
+      <c r="V129" t="n">
+        <v>1.875700802900019</v>
+      </c>
+      <c r="W129" t="n">
+        <v>0</v>
+      </c>
+      <c r="X129" t="n">
+        <v>58.8133863275733</v>
+      </c>
+      <c r="Y129" t="n">
+        <v>73.97494795853552</v>
+      </c>
+      <c r="Z129" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2023-05-06 01:48:27</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>0</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0</v>
+      </c>
+      <c r="D130" t="n">
+        <v>3.054370106197083</v>
+      </c>
+      <c r="E130" t="n">
+        <v>1</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0</v>
+      </c>
+      <c r="G130" t="n">
+        <v>138.2629747965902</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>52.99393482286894</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0</v>
+      </c>
+      <c r="L130" t="n">
+        <v>7.815974983470331</v>
+      </c>
+      <c r="M130" t="n">
+        <v>10.00181149277897</v>
+      </c>
+      <c r="N130" t="n">
+        <v>0</v>
+      </c>
+      <c r="O130" t="n">
+        <v>163.5311834888537</v>
+      </c>
+      <c r="P130" t="n">
+        <v>429.6701965030432</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>0</v>
+      </c>
+      <c r="R130" t="n">
+        <v>26.04278144516931</v>
+      </c>
+      <c r="S130" t="n">
+        <v>44.68274074439749</v>
+      </c>
+      <c r="T130" t="n">
+        <v>0</v>
+      </c>
+      <c r="U130" t="n">
+        <v>2.07147081875842</v>
+      </c>
+      <c r="V130" t="n">
+        <v>2.100124137597266</v>
+      </c>
+      <c r="W130" t="n">
+        <v>0</v>
+      </c>
+      <c r="X130" t="n">
+        <v>30.89321490472119</v>
+      </c>
+      <c r="Y130" t="n">
+        <v>43.78003955934373</v>
+      </c>
+      <c r="Z130" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2023-05-06 01:48:27</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>1</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0</v>
+      </c>
+      <c r="D131" t="n">
+        <v>17</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0</v>
+      </c>
+      <c r="G131" t="n">
+        <v>39.09937522614156</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>59.96589220037362</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0</v>
+      </c>
+      <c r="L131" t="n">
+        <v>22.36579284247773</v>
+      </c>
+      <c r="M131" t="n">
+        <v>55.58787140133347</v>
+      </c>
+      <c r="N131" t="n">
+        <v>0</v>
+      </c>
+      <c r="O131" t="n">
+        <v>524.1768011974151</v>
+      </c>
+      <c r="P131" t="n">
+        <v>824.5736230391293</v>
+      </c>
+      <c r="Q131" t="n">
+        <v>0</v>
+      </c>
+      <c r="R131" t="n">
+        <v>12.22247566002603</v>
+      </c>
+      <c r="S131" t="n">
+        <v>29.78314910283706</v>
+      </c>
+      <c r="T131" t="n">
+        <v>0</v>
+      </c>
+      <c r="U131" t="n">
+        <v>0.6430799572614656</v>
+      </c>
+      <c r="V131" t="n">
+        <v>1.908929605695533</v>
+      </c>
+      <c r="W131" t="n">
+        <v>0</v>
+      </c>
+      <c r="X131" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y131" t="n">
+        <v>81</v>
+      </c>
+      <c r="Z131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2023-05-06 15:17:46</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>0</v>
+      </c>
+      <c r="C132" t="n">
+        <v>9.574109183492876</v>
+      </c>
+      <c r="D132" t="n">
+        <v>12.37969743297534</v>
+      </c>
+      <c r="E132" t="n">
+        <v>1</v>
+      </c>
+      <c r="F132" t="n">
+        <v>12.14540444050873</v>
+      </c>
+      <c r="G132" t="n">
+        <v>136.4831787340015</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>98.28806419950328</v>
+      </c>
+      <c r="J132" t="n">
+        <v>122</v>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0</v>
+      </c>
+      <c r="M132" t="n">
+        <v>99</v>
+      </c>
+      <c r="N132" t="n">
+        <v>0</v>
+      </c>
+      <c r="O132" t="n">
+        <v>148.6269070538112</v>
+      </c>
+      <c r="P132" t="n">
+        <v>286.469998287132</v>
+      </c>
+      <c r="Q132" t="n">
+        <v>0</v>
+      </c>
+      <c r="R132" t="n">
+        <v>16.25413531622382</v>
+      </c>
+      <c r="S132" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="T132" t="n">
+        <v>0</v>
+      </c>
+      <c r="U132" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="V132" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="W132" t="n">
+        <v>0</v>
+      </c>
+      <c r="X132" t="n">
+        <v>44.28750388561338</v>
+      </c>
+      <c r="Y132" t="n">
+        <v>54.77508745311424</v>
+      </c>
+      <c r="Z132" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>2023-05-06 15:17:47</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>1</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.0406261508771889</v>
+      </c>
+      <c r="D133" t="n">
+        <v>11.66804286297533</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0</v>
+      </c>
+      <c r="F133" t="n">
+        <v>26.67980745771184</v>
+      </c>
+      <c r="G133" t="n">
+        <v>135.7320982286911</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>58.01941370276468</v>
+      </c>
+      <c r="J133" t="n">
+        <v>82.97962499227813</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0</v>
+      </c>
+      <c r="L133" t="n">
+        <v>11.70846181284101</v>
+      </c>
+      <c r="M133" t="n">
+        <v>55.23701569315927</v>
+      </c>
+      <c r="N133" t="n">
+        <v>0</v>
+      </c>
+      <c r="O133" t="n">
+        <v>789.6602713823781</v>
+      </c>
+      <c r="P133" t="n">
+        <v>841.3164759431739</v>
+      </c>
+      <c r="Q133" t="n">
+        <v>0</v>
+      </c>
+      <c r="R133" t="n">
+        <v>0.1520519717492867</v>
+      </c>
+      <c r="S133" t="n">
+        <v>35.16126716562949</v>
+      </c>
+      <c r="T133" t="n">
+        <v>0</v>
+      </c>
+      <c r="U133" t="n">
+        <v>1.91336452586102</v>
+      </c>
+      <c r="V133" t="n">
+        <v>2.133861450160861</v>
+      </c>
+      <c r="W133" t="n">
+        <v>0</v>
+      </c>
+      <c r="X133" t="n">
+        <v>60.16294806684889</v>
+      </c>
+      <c r="Y133" t="n">
+        <v>77.61649833550024</v>
+      </c>
+      <c r="Z133" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>2023-05-06 15:17:47</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>0</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0.1392036409261476</v>
+      </c>
+      <c r="D134" t="n">
+        <v>5.074034260995264</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0</v>
+      </c>
+      <c r="F134" t="n">
+        <v>6.645912443173272</v>
+      </c>
+      <c r="G134" t="n">
+        <v>83.0589226423216</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>45.73035444535562</v>
+      </c>
+      <c r="J134" t="n">
+        <v>67.76790622982035</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0</v>
+      </c>
+      <c r="L134" t="n">
+        <v>17.54822827081922</v>
+      </c>
+      <c r="M134" t="n">
+        <v>56.15572230004008</v>
+      </c>
+      <c r="N134" t="n">
+        <v>0</v>
+      </c>
+      <c r="O134" t="n">
+        <v>452.208684437958</v>
+      </c>
+      <c r="P134" t="n">
+        <v>834.17093421411</v>
+      </c>
+      <c r="Q134" t="n">
+        <v>1</v>
+      </c>
+      <c r="R134" t="n">
+        <v>13.56598231414576</v>
+      </c>
+      <c r="S134" t="n">
+        <v>64.2461487515058</v>
+      </c>
+      <c r="T134" t="n">
+        <v>0</v>
+      </c>
+      <c r="U134" t="n">
+        <v>0.9455257556968547</v>
+      </c>
+      <c r="V134" t="n">
+        <v>1.498089160171244</v>
+      </c>
+      <c r="W134" t="n">
+        <v>0</v>
+      </c>
+      <c r="X134" t="n">
+        <v>40.46532284334663</v>
+      </c>
+      <c r="Y134" t="n">
+        <v>51.67124601249836</v>
+      </c>
+      <c r="Z134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>2023-05-06 15:17:48</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>0</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.8873178927550651</v>
+      </c>
+      <c r="E135" t="n">
+        <v>1</v>
+      </c>
+      <c r="F135" t="n">
+        <v>25.76274594124283</v>
+      </c>
+      <c r="G135" t="n">
+        <v>157.451626204253</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>11.69277855288783</v>
+      </c>
+      <c r="J135" t="n">
+        <v>17.00682214516577</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0</v>
+      </c>
+      <c r="L135" t="n">
+        <v>27.18425689312814</v>
+      </c>
+      <c r="M135" t="n">
+        <v>46.57266162738475</v>
+      </c>
+      <c r="N135" t="n">
+        <v>0</v>
+      </c>
+      <c r="O135" t="n">
+        <v>0</v>
+      </c>
+      <c r="P135" t="n">
+        <v>218.2974855100851</v>
+      </c>
+      <c r="Q135" t="n">
+        <v>1</v>
+      </c>
+      <c r="R135" t="n">
+        <v>3.653822270732225</v>
+      </c>
+      <c r="S135" t="n">
+        <v>54.7626741975628</v>
+      </c>
+      <c r="T135" t="n">
+        <v>0</v>
+      </c>
+      <c r="U135" t="n">
+        <v>0.9963409558195843</v>
+      </c>
+      <c r="V135" t="n">
+        <v>2.318269890569668</v>
+      </c>
+      <c r="W135" t="n">
+        <v>0</v>
+      </c>
+      <c r="X135" t="n">
+        <v>31.76250363494027</v>
+      </c>
+      <c r="Y135" t="n">
+        <v>54.67985521351331</v>
+      </c>
+      <c r="Z135" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2023-05-06 15:17:48</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>1</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.5667243266019169</v>
+      </c>
+      <c r="D136" t="n">
+        <v>17</v>
+      </c>
+      <c r="E136" t="n">
+        <v>1</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0</v>
+      </c>
+      <c r="G136" t="n">
+        <v>142.9125654429639</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>41.39049916833504</v>
+      </c>
+      <c r="J136" t="n">
+        <v>122</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0</v>
+      </c>
+      <c r="L136" t="n">
+        <v>83.03926832195313</v>
+      </c>
+      <c r="M136" t="n">
+        <v>99</v>
+      </c>
+      <c r="N136" t="n">
+        <v>0</v>
+      </c>
+      <c r="O136" t="n">
+        <v>650.5164980324555</v>
+      </c>
+      <c r="P136" t="n">
+        <v>790.1429711128615</v>
+      </c>
+      <c r="Q136" t="n">
+        <v>0</v>
+      </c>
+      <c r="R136" t="n">
+        <v>0</v>
+      </c>
+      <c r="S136" t="n">
+        <v>18.07783555713049</v>
+      </c>
+      <c r="T136" t="n">
+        <v>0</v>
+      </c>
+      <c r="U136" t="n">
+        <v>1.044481979743335</v>
+      </c>
+      <c r="V136" t="n">
+        <v>1.835733416839647</v>
+      </c>
+      <c r="W136" t="n">
+        <v>0</v>
+      </c>
+      <c r="X136" t="n">
+        <v>22.54252459381669</v>
+      </c>
+      <c r="Y136" t="n">
+        <v>48.14154593505862</v>
+      </c>
+      <c r="Z136" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>2023-05-06 15:45:17</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>0</v>
+      </c>
+      <c r="C137" t="n">
+        <v>12.24768065776615</v>
+      </c>
+      <c r="D137" t="n">
+        <v>16.86525795840293</v>
+      </c>
+      <c r="E137" t="n">
+        <v>1</v>
+      </c>
+      <c r="F137" t="n">
+        <v>28.56465564025758</v>
+      </c>
+      <c r="G137" t="n">
+        <v>138.6707264823613</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>110.8024757846523</v>
+      </c>
+      <c r="J137" t="n">
+        <v>111.6861112195749</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0</v>
+      </c>
+      <c r="L137" t="n">
+        <v>8.735776549077789</v>
+      </c>
+      <c r="M137" t="n">
+        <v>18.53199425551504</v>
+      </c>
+      <c r="N137" t="n">
+        <v>0</v>
+      </c>
+      <c r="O137" t="n">
+        <v>368.356501968128</v>
+      </c>
+      <c r="P137" t="n">
+        <v>822.4019246979847</v>
+      </c>
+      <c r="Q137" t="n">
+        <v>0</v>
+      </c>
+      <c r="R137" t="n">
+        <v>16.6697439409306</v>
+      </c>
+      <c r="S137" t="n">
+        <v>25.92745464698477</v>
+      </c>
+      <c r="T137" t="n">
+        <v>0</v>
+      </c>
+      <c r="U137" t="n">
+        <v>0.309375424693652</v>
+      </c>
+      <c r="V137" t="n">
+        <v>1.968157312201095</v>
+      </c>
+      <c r="W137" t="n">
+        <v>0</v>
+      </c>
+      <c r="X137" t="n">
+        <v>51.02168146751241</v>
+      </c>
+      <c r="Y137" t="n">
+        <v>68.60672024682248</v>
+      </c>
+      <c r="Z137" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>2023-05-06 15:45:17</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>0</v>
+      </c>
+      <c r="C138" t="n">
+        <v>7.00394988549435</v>
+      </c>
+      <c r="D138" t="n">
+        <v>12.3406317094539</v>
+      </c>
+      <c r="E138" t="n">
+        <v>1</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0</v>
+      </c>
+      <c r="G138" t="n">
+        <v>150.7149651611633</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>102.6444469867372</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0</v>
+      </c>
+      <c r="L138" t="n">
+        <v>2.999997974926647</v>
+      </c>
+      <c r="M138" t="n">
+        <v>84.5157780289727</v>
+      </c>
+      <c r="N138" t="n">
+        <v>0</v>
+      </c>
+      <c r="O138" t="n">
+        <v>53.16131551179566</v>
+      </c>
+      <c r="P138" t="n">
+        <v>370.4649274663576</v>
+      </c>
+      <c r="Q138" t="n">
+        <v>0</v>
+      </c>
+      <c r="R138" t="n">
+        <v>40.50425208766235</v>
+      </c>
+      <c r="S138" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="T138" t="n">
+        <v>0</v>
+      </c>
+      <c r="U138" t="n">
+        <v>0.6940606672926125</v>
+      </c>
+      <c r="V138" t="n">
+        <v>1.057664996842555</v>
+      </c>
+      <c r="W138" t="n">
+        <v>0</v>
+      </c>
+      <c r="X138" t="n">
+        <v>31.16381216888109</v>
+      </c>
+      <c r="Y138" t="n">
+        <v>79.01807957574712</v>
+      </c>
+      <c r="Z138" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>2023-05-06 15:45:17</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>1</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0</v>
+      </c>
+      <c r="D139" t="n">
+        <v>17</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0</v>
+      </c>
+      <c r="F139" t="n">
+        <v>87.19585815347816</v>
+      </c>
+      <c r="G139" t="n">
+        <v>170.0898516884889</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>91.3572730449999</v>
+      </c>
+      <c r="J139" t="n">
+        <v>101.5106008514594</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0</v>
+      </c>
+      <c r="L139" t="n">
+        <v>58.60342109470347</v>
+      </c>
+      <c r="M139" t="n">
+        <v>75.87197839781314</v>
+      </c>
+      <c r="N139" t="n">
+        <v>0</v>
+      </c>
+      <c r="O139" t="n">
+        <v>204.223812326696</v>
+      </c>
+      <c r="P139" t="n">
+        <v>741.0391760774322</v>
+      </c>
+      <c r="Q139" t="n">
+        <v>0</v>
+      </c>
+      <c r="R139" t="n">
+        <v>0</v>
+      </c>
+      <c r="S139" t="n">
+        <v>32.59136678201665</v>
+      </c>
+      <c r="T139" t="n">
+        <v>0</v>
+      </c>
+      <c r="U139" t="n">
+        <v>0.75102332919286</v>
+      </c>
+      <c r="V139" t="n">
+        <v>1.301349750616797</v>
+      </c>
+      <c r="W139" t="n">
+        <v>0</v>
+      </c>
+      <c r="X139" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y139" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>2023-05-06 15:45:17</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>0</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.8039753270039853</v>
+      </c>
+      <c r="D140" t="n">
+        <v>4.112804731277435</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0</v>
+      </c>
+      <c r="F140" t="n">
+        <v>56.25058844954967</v>
+      </c>
+      <c r="G140" t="n">
+        <v>65.65487806597972</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>21.87561382684964</v>
+      </c>
+      <c r="J140" t="n">
+        <v>86.21511995358578</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0</v>
+      </c>
+      <c r="L140" t="n">
+        <v>61.92713656350921</v>
+      </c>
+      <c r="M140" t="n">
+        <v>64.99985335580394</v>
+      </c>
+      <c r="N140" t="n">
+        <v>0</v>
+      </c>
+      <c r="O140" t="n">
+        <v>799.891065728224</v>
+      </c>
+      <c r="P140" t="n">
+        <v>846</v>
+      </c>
+      <c r="Q140" t="n">
+        <v>1</v>
+      </c>
+      <c r="R140" t="n">
+        <v>0</v>
+      </c>
+      <c r="S140" t="n">
+        <v>48.93667141892828</v>
+      </c>
+      <c r="T140" t="n">
+        <v>0</v>
+      </c>
+      <c r="U140" t="n">
+        <v>1.038892826619085</v>
+      </c>
+      <c r="V140" t="n">
+        <v>1.897673393340869</v>
+      </c>
+      <c r="W140" t="n">
+        <v>0</v>
+      </c>
+      <c r="X140" t="n">
+        <v>38.22806923250593</v>
+      </c>
+      <c r="Y140" t="n">
+        <v>81</v>
+      </c>
+      <c r="Z140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>2023-05-06 15:45:18</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>0</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.1944334362099031</v>
+      </c>
+      <c r="D141" t="n">
+        <v>1.571169618224354</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0</v>
+      </c>
+      <c r="F141" t="n">
+        <v>50.49659418098084</v>
+      </c>
+      <c r="G141" t="n">
+        <v>123.8733990896837</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>5.465877270497695</v>
+      </c>
+      <c r="J141" t="n">
+        <v>41.83585122361874</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0</v>
+      </c>
+      <c r="L141" t="n">
+        <v>25.07885351869621</v>
+      </c>
+      <c r="M141" t="n">
+        <v>40.50105015047607</v>
+      </c>
+      <c r="N141" t="n">
+        <v>0</v>
+      </c>
+      <c r="O141" t="n">
+        <v>36.20325458856703</v>
+      </c>
+      <c r="P141" t="n">
+        <v>395.5976696035477</v>
+      </c>
+      <c r="Q141" t="n">
+        <v>1</v>
+      </c>
+      <c r="R141" t="n">
+        <v>6.202626199202226</v>
+      </c>
+      <c r="S141" t="n">
+        <v>61.23387898349937</v>
+      </c>
+      <c r="T141" t="n">
+        <v>0</v>
+      </c>
+      <c r="U141" t="n">
+        <v>0.4865903546945574</v>
+      </c>
+      <c r="V141" t="n">
+        <v>0.8482013825849932</v>
+      </c>
+      <c r="W141" t="n">
+        <v>0</v>
+      </c>
+      <c r="X141" t="n">
+        <v>60.32884434317848</v>
+      </c>
+      <c r="Y141" t="n">
+        <v>65.05547761935742</v>
+      </c>
+      <c r="Z141" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Working code/Logs/neg_picked.xlsx
+++ b/Working code/Logs/neg_picked.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z141"/>
+  <dimension ref="A1:Z156"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <selection activeCell="AA1" sqref="AA1"/>
@@ -12032,6 +12032,1236 @@
       </c>
       <c r="Z141" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>2023-05-06 16:21:25</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>0</v>
+      </c>
+      <c r="C142" t="n">
+        <v>5.314724304760384</v>
+      </c>
+      <c r="D142" t="n">
+        <v>10.27099164574681</v>
+      </c>
+      <c r="E142" t="n">
+        <v>1</v>
+      </c>
+      <c r="F142" t="n">
+        <v>7.46183150046819</v>
+      </c>
+      <c r="G142" t="n">
+        <v>154.7363422069597</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>79.02479938173116</v>
+      </c>
+      <c r="K142" t="n">
+        <v>0</v>
+      </c>
+      <c r="L142" t="n">
+        <v>34.06022314368356</v>
+      </c>
+      <c r="M142" t="n">
+        <v>42.16740382465721</v>
+      </c>
+      <c r="N142" t="n">
+        <v>0</v>
+      </c>
+      <c r="O142" t="n">
+        <v>602.5085916196857</v>
+      </c>
+      <c r="P142" t="n">
+        <v>730.4778566671857</v>
+      </c>
+      <c r="Q142" t="n">
+        <v>0</v>
+      </c>
+      <c r="R142" t="n">
+        <v>22.95364591343207</v>
+      </c>
+      <c r="S142" t="n">
+        <v>23.30033200268806</v>
+      </c>
+      <c r="T142" t="n">
+        <v>0</v>
+      </c>
+      <c r="U142" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="V142" t="n">
+        <v>1.889505539753262</v>
+      </c>
+      <c r="W142" t="n">
+        <v>0</v>
+      </c>
+      <c r="X142" t="n">
+        <v>60.3082902126568</v>
+      </c>
+      <c r="Y142" t="n">
+        <v>63.6882652211507</v>
+      </c>
+      <c r="Z142" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>2023-05-06 16:21:25</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>0</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.6945977496664034</v>
+      </c>
+      <c r="D143" t="n">
+        <v>9.458173839138341</v>
+      </c>
+      <c r="E143" t="n">
+        <v>1</v>
+      </c>
+      <c r="F143" t="n">
+        <v>10.11695254714011</v>
+      </c>
+      <c r="G143" t="n">
+        <v>149.7195191213139</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>25.85745838677744</v>
+      </c>
+      <c r="J143" t="n">
+        <v>68.74768316028796</v>
+      </c>
+      <c r="K143" t="n">
+        <v>0</v>
+      </c>
+      <c r="L143" t="n">
+        <v>19.50151534161993</v>
+      </c>
+      <c r="M143" t="n">
+        <v>28.95799012507827</v>
+      </c>
+      <c r="N143" t="n">
+        <v>0</v>
+      </c>
+      <c r="O143" t="n">
+        <v>433.4665382475621</v>
+      </c>
+      <c r="P143" t="n">
+        <v>518.0799822971692</v>
+      </c>
+      <c r="Q143" t="n">
+        <v>0</v>
+      </c>
+      <c r="R143" t="n">
+        <v>9.401350794092197</v>
+      </c>
+      <c r="S143" t="n">
+        <v>32.42209869053614</v>
+      </c>
+      <c r="T143" t="n">
+        <v>0</v>
+      </c>
+      <c r="U143" t="n">
+        <v>1.702608825925866</v>
+      </c>
+      <c r="V143" t="n">
+        <v>2.309942877696054</v>
+      </c>
+      <c r="W143" t="n">
+        <v>0</v>
+      </c>
+      <c r="X143" t="n">
+        <v>23.22226890636563</v>
+      </c>
+      <c r="Y143" t="n">
+        <v>33.59755285494139</v>
+      </c>
+      <c r="Z143" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>2023-05-06 16:21:26</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>0</v>
+      </c>
+      <c r="C144" t="n">
+        <v>4.548627898422014</v>
+      </c>
+      <c r="D144" t="n">
+        <v>15.49694568386849</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0</v>
+      </c>
+      <c r="F144" t="n">
+        <v>20.48991077325486</v>
+      </c>
+      <c r="G144" t="n">
+        <v>179.6280576952887</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>50.32531314620186</v>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0</v>
+      </c>
+      <c r="M144" t="n">
+        <v>52.07802646713905</v>
+      </c>
+      <c r="N144" t="n">
+        <v>0</v>
+      </c>
+      <c r="O144" t="n">
+        <v>0.1959767603446749</v>
+      </c>
+      <c r="P144" t="n">
+        <v>536.8799418352955</v>
+      </c>
+      <c r="Q144" t="n">
+        <v>0</v>
+      </c>
+      <c r="R144" t="n">
+        <v>45.8974462535822</v>
+      </c>
+      <c r="S144" t="n">
+        <v>46.67136695449386</v>
+      </c>
+      <c r="T144" t="n">
+        <v>0</v>
+      </c>
+      <c r="U144" t="n">
+        <v>0.7754156459123102</v>
+      </c>
+      <c r="V144" t="n">
+        <v>2.359110539223241</v>
+      </c>
+      <c r="W144" t="n">
+        <v>0</v>
+      </c>
+      <c r="X144" t="n">
+        <v>23.67154572017634</v>
+      </c>
+      <c r="Y144" t="n">
+        <v>40.53792793572332</v>
+      </c>
+      <c r="Z144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>2023-05-06 16:21:26</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>0</v>
+      </c>
+      <c r="C145" t="n">
+        <v>3.415229206420357</v>
+      </c>
+      <c r="D145" t="n">
+        <v>9.428590705774644</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0</v>
+      </c>
+      <c r="F145" t="n">
+        <v>64.19911525189465</v>
+      </c>
+      <c r="G145" t="n">
+        <v>147.8033868188932</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>53.18678161105881</v>
+      </c>
+      <c r="J145" t="n">
+        <v>75.09734839310808</v>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="n">
+        <v>0</v>
+      </c>
+      <c r="M145" t="n">
+        <v>93.69934520032864</v>
+      </c>
+      <c r="N145" t="n">
+        <v>0</v>
+      </c>
+      <c r="O145" t="n">
+        <v>229.7328539775114</v>
+      </c>
+      <c r="P145" t="n">
+        <v>483.9233191313749</v>
+      </c>
+      <c r="Q145" t="n">
+        <v>0</v>
+      </c>
+      <c r="R145" t="n">
+        <v>38.15181835826554</v>
+      </c>
+      <c r="S145" t="n">
+        <v>46.73889734971902</v>
+      </c>
+      <c r="T145" t="n">
+        <v>0</v>
+      </c>
+      <c r="U145" t="n">
+        <v>1.700107140085285</v>
+      </c>
+      <c r="V145" t="n">
+        <v>2.291963523149111</v>
+      </c>
+      <c r="W145" t="n">
+        <v>0</v>
+      </c>
+      <c r="X145" t="n">
+        <v>57.03022389414809</v>
+      </c>
+      <c r="Y145" t="n">
+        <v>70.39441757300615</v>
+      </c>
+      <c r="Z145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>2023-05-06 16:21:26</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>0</v>
+      </c>
+      <c r="C146" t="n">
+        <v>13.22121002995187</v>
+      </c>
+      <c r="D146" t="n">
+        <v>15.90064338185952</v>
+      </c>
+      <c r="E146" t="n">
+        <v>1</v>
+      </c>
+      <c r="F146" t="n">
+        <v>31.34678128856243</v>
+      </c>
+      <c r="G146" t="n">
+        <v>171.4389631838788</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>44.40947232592504</v>
+      </c>
+      <c r="J146" t="n">
+        <v>117.6478203233626</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0</v>
+      </c>
+      <c r="L146" t="n">
+        <v>38.32179037233815</v>
+      </c>
+      <c r="M146" t="n">
+        <v>46.59776900854507</v>
+      </c>
+      <c r="N146" t="n">
+        <v>0</v>
+      </c>
+      <c r="O146" t="n">
+        <v>56.36661279169618</v>
+      </c>
+      <c r="P146" t="n">
+        <v>699.9760475436133</v>
+      </c>
+      <c r="Q146" t="n">
+        <v>0</v>
+      </c>
+      <c r="R146" t="n">
+        <v>3.42309319007959</v>
+      </c>
+      <c r="S146" t="n">
+        <v>6.796223810209456</v>
+      </c>
+      <c r="T146" t="n">
+        <v>0</v>
+      </c>
+      <c r="U146" t="n">
+        <v>0.1197831722242474</v>
+      </c>
+      <c r="V146" t="n">
+        <v>1.463079264463423</v>
+      </c>
+      <c r="W146" t="n">
+        <v>0</v>
+      </c>
+      <c r="X146" t="n">
+        <v>72.14311212107853</v>
+      </c>
+      <c r="Y146" t="n">
+        <v>80.83474738291234</v>
+      </c>
+      <c r="Z146" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>2023-05-06 19:26:41</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>0</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1.887567719387388</v>
+      </c>
+      <c r="D147" t="n">
+        <v>2.947878542415256</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0</v>
+      </c>
+      <c r="F147" t="n">
+        <v>56.45314250169701</v>
+      </c>
+      <c r="G147" t="n">
+        <v>114.3214424405777</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>22.94880252189383</v>
+      </c>
+      <c r="J147" t="n">
+        <v>35.70353291250628</v>
+      </c>
+      <c r="K147" t="n">
+        <v>0</v>
+      </c>
+      <c r="L147" t="n">
+        <v>44.52299413336416</v>
+      </c>
+      <c r="M147" t="n">
+        <v>84.33619504456223</v>
+      </c>
+      <c r="N147" t="n">
+        <v>0</v>
+      </c>
+      <c r="O147" t="n">
+        <v>296.5318604979554</v>
+      </c>
+      <c r="P147" t="n">
+        <v>346.6667869508154</v>
+      </c>
+      <c r="Q147" t="n">
+        <v>1</v>
+      </c>
+      <c r="R147" t="n">
+        <v>4.374829769629535</v>
+      </c>
+      <c r="S147" t="n">
+        <v>41.68457962828172</v>
+      </c>
+      <c r="T147" t="n">
+        <v>0</v>
+      </c>
+      <c r="U147" t="n">
+        <v>0.1979772220502348</v>
+      </c>
+      <c r="V147" t="n">
+        <v>0.3963112868143421</v>
+      </c>
+      <c r="W147" t="n">
+        <v>0</v>
+      </c>
+      <c r="X147" t="n">
+        <v>31.26991688105075</v>
+      </c>
+      <c r="Y147" t="n">
+        <v>54.34815475938023</v>
+      </c>
+      <c r="Z147" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>2023-05-06 19:26:41</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>0</v>
+      </c>
+      <c r="C148" t="n">
+        <v>6.356061452700602</v>
+      </c>
+      <c r="D148" t="n">
+        <v>17</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0</v>
+      </c>
+      <c r="F148" t="n">
+        <v>67.62840199334197</v>
+      </c>
+      <c r="G148" t="n">
+        <v>173.3476612174561</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>63.68044336746445</v>
+      </c>
+      <c r="J148" t="n">
+        <v>122</v>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M148" t="n">
+        <v>99</v>
+      </c>
+      <c r="N148" t="n">
+        <v>0</v>
+      </c>
+      <c r="O148" t="n">
+        <v>276.4431615170262</v>
+      </c>
+      <c r="P148" t="n">
+        <v>325.4810647632152</v>
+      </c>
+      <c r="Q148" t="n">
+        <v>0</v>
+      </c>
+      <c r="R148" t="n">
+        <v>29.26919395607587</v>
+      </c>
+      <c r="S148" t="n">
+        <v>43.71074765607221</v>
+      </c>
+      <c r="T148" t="n">
+        <v>0</v>
+      </c>
+      <c r="U148" t="n">
+        <v>0.7942595968916828</v>
+      </c>
+      <c r="V148" t="n">
+        <v>1.067240269740617</v>
+      </c>
+      <c r="W148" t="n">
+        <v>0</v>
+      </c>
+      <c r="X148" t="n">
+        <v>55.45129595189701</v>
+      </c>
+      <c r="Y148" t="n">
+        <v>63.34549061993981</v>
+      </c>
+      <c r="Z148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>2023-05-06 19:26:41</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>0</v>
+      </c>
+      <c r="C149" t="n">
+        <v>8.816407155013154</v>
+      </c>
+      <c r="D149" t="n">
+        <v>9.453142514149734</v>
+      </c>
+      <c r="E149" t="n">
+        <v>1</v>
+      </c>
+      <c r="F149" t="n">
+        <v>25.86782698010185</v>
+      </c>
+      <c r="G149" t="n">
+        <v>166.7693818726014</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>87.47325425840249</v>
+      </c>
+      <c r="J149" t="n">
+        <v>121.1894372439273</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L149" t="n">
+        <v>47.62461725141933</v>
+      </c>
+      <c r="M149" t="n">
+        <v>60.94306330964016</v>
+      </c>
+      <c r="N149" t="n">
+        <v>0</v>
+      </c>
+      <c r="O149" t="n">
+        <v>385.0480644957535</v>
+      </c>
+      <c r="P149" t="n">
+        <v>821.7427020886621</v>
+      </c>
+      <c r="Q149" t="n">
+        <v>0</v>
+      </c>
+      <c r="R149" t="n">
+        <v>16.76193643342998</v>
+      </c>
+      <c r="S149" t="n">
+        <v>18.52199695977206</v>
+      </c>
+      <c r="T149" t="n">
+        <v>0</v>
+      </c>
+      <c r="U149" t="n">
+        <v>0.5968138559925318</v>
+      </c>
+      <c r="V149" t="n">
+        <v>1.678009642305991</v>
+      </c>
+      <c r="W149" t="n">
+        <v>0</v>
+      </c>
+      <c r="X149" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y149" t="n">
+        <v>67.44989609432176</v>
+      </c>
+      <c r="Z149" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>2023-05-06 19:26:41</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>0</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0</v>
+      </c>
+      <c r="D150" t="n">
+        <v>3.793201680282878</v>
+      </c>
+      <c r="E150" t="n">
+        <v>1</v>
+      </c>
+      <c r="F150" t="n">
+        <v>47.79664089410299</v>
+      </c>
+      <c r="G150" t="n">
+        <v>158.4865640045332</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>56.90004781896839</v>
+      </c>
+      <c r="J150" t="n">
+        <v>77.90263545682078</v>
+      </c>
+      <c r="K150" t="n">
+        <v>0</v>
+      </c>
+      <c r="L150" t="n">
+        <v>33.59774949059576</v>
+      </c>
+      <c r="M150" t="n">
+        <v>84.56914933951931</v>
+      </c>
+      <c r="N150" t="n">
+        <v>1</v>
+      </c>
+      <c r="O150" t="n">
+        <v>0</v>
+      </c>
+      <c r="P150" t="n">
+        <v>778.5130616484513</v>
+      </c>
+      <c r="Q150" t="n">
+        <v>0</v>
+      </c>
+      <c r="R150" t="n">
+        <v>28.5600726986091</v>
+      </c>
+      <c r="S150" t="n">
+        <v>59.94373338702116</v>
+      </c>
+      <c r="T150" t="n">
+        <v>0</v>
+      </c>
+      <c r="U150" t="n">
+        <v>1.258469033250196</v>
+      </c>
+      <c r="V150" t="n">
+        <v>1.674510661884096</v>
+      </c>
+      <c r="W150" t="n">
+        <v>0</v>
+      </c>
+      <c r="X150" t="n">
+        <v>46.46862902174709</v>
+      </c>
+      <c r="Y150" t="n">
+        <v>79.43982502092604</v>
+      </c>
+      <c r="Z150" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>2023-05-06 19:26:41</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>0</v>
+      </c>
+      <c r="C151" t="n">
+        <v>3.438308355535242</v>
+      </c>
+      <c r="D151" t="n">
+        <v>12.27483149470965</v>
+      </c>
+      <c r="E151" t="n">
+        <v>1</v>
+      </c>
+      <c r="F151" t="n">
+        <v>46.45885857605758</v>
+      </c>
+      <c r="G151" t="n">
+        <v>161.6281206140428</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>95.02243992586023</v>
+      </c>
+      <c r="J151" t="n">
+        <v>97.89946112223623</v>
+      </c>
+      <c r="K151" t="n">
+        <v>0</v>
+      </c>
+      <c r="L151" t="n">
+        <v>0.5008659295427442</v>
+      </c>
+      <c r="M151" t="n">
+        <v>84.74837446290924</v>
+      </c>
+      <c r="N151" t="n">
+        <v>0</v>
+      </c>
+      <c r="O151" t="n">
+        <v>197.6841997624565</v>
+      </c>
+      <c r="P151" t="n">
+        <v>476.6714390107579</v>
+      </c>
+      <c r="Q151" t="n">
+        <v>0</v>
+      </c>
+      <c r="R151" t="n">
+        <v>30.76545437826171</v>
+      </c>
+      <c r="S151" t="n">
+        <v>61.92302063608354</v>
+      </c>
+      <c r="T151" t="n">
+        <v>0</v>
+      </c>
+      <c r="U151" t="n">
+        <v>0.4637014558433604</v>
+      </c>
+      <c r="V151" t="n">
+        <v>1.679818028662652</v>
+      </c>
+      <c r="W151" t="n">
+        <v>0</v>
+      </c>
+      <c r="X151" t="n">
+        <v>54.71809141171741</v>
+      </c>
+      <c r="Y151" t="n">
+        <v>61.28129067753732</v>
+      </c>
+      <c r="Z151" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>2023-05-06 19:43:11</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>0</v>
+      </c>
+      <c r="C152" t="n">
+        <v>10.02528736496187</v>
+      </c>
+      <c r="D152" t="n">
+        <v>16.99809595115238</v>
+      </c>
+      <c r="E152" t="n">
+        <v>1</v>
+      </c>
+      <c r="F152" t="n">
+        <v>12.50877913269255</v>
+      </c>
+      <c r="G152" t="n">
+        <v>148.5075460746128</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>5.739007141072502</v>
+      </c>
+      <c r="J152" t="n">
+        <v>90.42802084013135</v>
+      </c>
+      <c r="K152" t="n">
+        <v>0</v>
+      </c>
+      <c r="L152" t="n">
+        <v>65.00180688080337</v>
+      </c>
+      <c r="M152" t="n">
+        <v>76.76562160998357</v>
+      </c>
+      <c r="N152" t="n">
+        <v>0</v>
+      </c>
+      <c r="O152" t="n">
+        <v>359.686468573484</v>
+      </c>
+      <c r="P152" t="n">
+        <v>464.0823163346717</v>
+      </c>
+      <c r="Q152" t="n">
+        <v>0</v>
+      </c>
+      <c r="R152" t="n">
+        <v>25.26995727175351</v>
+      </c>
+      <c r="S152" t="n">
+        <v>51.28881724581589</v>
+      </c>
+      <c r="T152" t="n">
+        <v>0</v>
+      </c>
+      <c r="U152" t="n">
+        <v>1.317274310576915</v>
+      </c>
+      <c r="V152" t="n">
+        <v>1.832287670375122</v>
+      </c>
+      <c r="W152" t="n">
+        <v>0</v>
+      </c>
+      <c r="X152" t="n">
+        <v>54.31497966175041</v>
+      </c>
+      <c r="Y152" t="n">
+        <v>59.38139757287418</v>
+      </c>
+      <c r="Z152" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>2023-05-06 19:43:11</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>0</v>
+      </c>
+      <c r="C153" t="n">
+        <v>6.189089435792767</v>
+      </c>
+      <c r="D153" t="n">
+        <v>7.599333906609458</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0</v>
+      </c>
+      <c r="F153" t="n">
+        <v>58.47685744229896</v>
+      </c>
+      <c r="G153" t="n">
+        <v>83.8049278913183</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>49.87516889597555</v>
+      </c>
+      <c r="J153" t="n">
+        <v>80.45804005997424</v>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="n">
+        <v>0</v>
+      </c>
+      <c r="M153" t="n">
+        <v>99</v>
+      </c>
+      <c r="N153" t="n">
+        <v>0</v>
+      </c>
+      <c r="O153" t="n">
+        <v>323.5074677848693</v>
+      </c>
+      <c r="P153" t="n">
+        <v>351.2781279747322</v>
+      </c>
+      <c r="Q153" t="n">
+        <v>0</v>
+      </c>
+      <c r="R153" t="n">
+        <v>15.76492744810629</v>
+      </c>
+      <c r="S153" t="n">
+        <v>33.88659813952219</v>
+      </c>
+      <c r="T153" t="n">
+        <v>0</v>
+      </c>
+      <c r="U153" t="n">
+        <v>1.517844577126665</v>
+      </c>
+      <c r="V153" t="n">
+        <v>2.193986903590738</v>
+      </c>
+      <c r="W153" t="n">
+        <v>0</v>
+      </c>
+      <c r="X153" t="n">
+        <v>50.08265070049769</v>
+      </c>
+      <c r="Y153" t="n">
+        <v>72.12944036376642</v>
+      </c>
+      <c r="Z153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>2023-05-06 19:43:11</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>0</v>
+      </c>
+      <c r="C154" t="n">
+        <v>13.36391489022018</v>
+      </c>
+      <c r="D154" t="n">
+        <v>16.82403236335928</v>
+      </c>
+      <c r="E154" t="n">
+        <v>1</v>
+      </c>
+      <c r="F154" t="n">
+        <v>9.743365378809035</v>
+      </c>
+      <c r="G154" t="n">
+        <v>144.5703579653346</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>43.39847789706087</v>
+      </c>
+      <c r="J154" t="n">
+        <v>100.1537822479049</v>
+      </c>
+      <c r="K154" t="n">
+        <v>0</v>
+      </c>
+      <c r="L154" t="n">
+        <v>36.38581783533054</v>
+      </c>
+      <c r="M154" t="n">
+        <v>79.78767806619086</v>
+      </c>
+      <c r="N154" t="n">
+        <v>0</v>
+      </c>
+      <c r="O154" t="n">
+        <v>773.1414052923967</v>
+      </c>
+      <c r="P154" t="n">
+        <v>776.3113175285453</v>
+      </c>
+      <c r="Q154" t="n">
+        <v>0</v>
+      </c>
+      <c r="R154" t="n">
+        <v>18.99974961285237</v>
+      </c>
+      <c r="S154" t="n">
+        <v>59.50929484187837</v>
+      </c>
+      <c r="T154" t="n">
+        <v>0</v>
+      </c>
+      <c r="U154" t="n">
+        <v>0.1083537087404329</v>
+      </c>
+      <c r="V154" t="n">
+        <v>1.260648109134097</v>
+      </c>
+      <c r="W154" t="n">
+        <v>0</v>
+      </c>
+      <c r="X154" t="n">
+        <v>53.35237464474849</v>
+      </c>
+      <c r="Y154" t="n">
+        <v>71.58079047660986</v>
+      </c>
+      <c r="Z154" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>2023-05-06 19:43:11</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>0</v>
+      </c>
+      <c r="C155" t="n">
+        <v>2.451100895434331</v>
+      </c>
+      <c r="D155" t="n">
+        <v>5.260283803854998</v>
+      </c>
+      <c r="E155" t="n">
+        <v>1</v>
+      </c>
+      <c r="F155" t="n">
+        <v>1.474142518459321</v>
+      </c>
+      <c r="G155" t="n">
+        <v>178.8181915729919</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>20.01048181048387</v>
+      </c>
+      <c r="J155" t="n">
+        <v>122</v>
+      </c>
+      <c r="K155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L155" t="n">
+        <v>32.6555560578669</v>
+      </c>
+      <c r="M155" t="n">
+        <v>33.60829191585927</v>
+      </c>
+      <c r="N155" t="n">
+        <v>0</v>
+      </c>
+      <c r="O155" t="n">
+        <v>0</v>
+      </c>
+      <c r="P155" t="n">
+        <v>47.63746089806211</v>
+      </c>
+      <c r="Q155" t="n">
+        <v>0</v>
+      </c>
+      <c r="R155" t="n">
+        <v>17.68358920904644</v>
+      </c>
+      <c r="S155" t="n">
+        <v>48.8544750462891</v>
+      </c>
+      <c r="T155" t="n">
+        <v>0</v>
+      </c>
+      <c r="U155" t="n">
+        <v>0.7854630533351891</v>
+      </c>
+      <c r="V155" t="n">
+        <v>1.469647358525257</v>
+      </c>
+      <c r="W155" t="n">
+        <v>0</v>
+      </c>
+      <c r="X155" t="n">
+        <v>30.18987616651988</v>
+      </c>
+      <c r="Y155" t="n">
+        <v>59.99013452890911</v>
+      </c>
+      <c r="Z155" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>2023-05-06 19:43:11</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>0</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0.2899881983705317</v>
+      </c>
+      <c r="D156" t="n">
+        <v>4.869653277232568</v>
+      </c>
+      <c r="E156" t="n">
+        <v>1</v>
+      </c>
+      <c r="F156" t="n">
+        <v>13.40257536830284</v>
+      </c>
+      <c r="G156" t="n">
+        <v>154.2401404355188</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>3.157597926977692</v>
+      </c>
+      <c r="J156" t="n">
+        <v>110.6838740793932</v>
+      </c>
+      <c r="K156" t="n">
+        <v>0</v>
+      </c>
+      <c r="L156" t="n">
+        <v>0</v>
+      </c>
+      <c r="M156" t="n">
+        <v>56.82900400107899</v>
+      </c>
+      <c r="N156" t="n">
+        <v>0</v>
+      </c>
+      <c r="O156" t="n">
+        <v>381.71118780692</v>
+      </c>
+      <c r="P156" t="n">
+        <v>696.0810191485045</v>
+      </c>
+      <c r="Q156" t="n">
+        <v>0</v>
+      </c>
+      <c r="R156" t="n">
+        <v>46.68321230071244</v>
+      </c>
+      <c r="S156" t="n">
+        <v>48.54888864317231</v>
+      </c>
+      <c r="T156" t="n">
+        <v>0</v>
+      </c>
+      <c r="U156" t="n">
+        <v>0.9354526433865631</v>
+      </c>
+      <c r="V156" t="n">
+        <v>1.288256660114794</v>
+      </c>
+      <c r="W156" t="n">
+        <v>0</v>
+      </c>
+      <c r="X156" t="n">
+        <v>25.78768579931597</v>
+      </c>
+      <c r="Y156" t="n">
+        <v>46.27600368543875</v>
+      </c>
+      <c r="Z156" t="n">
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>

--- a/Working code/Logs/neg_picked.xlsx
+++ b/Working code/Logs/neg_picked.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z156"/>
+  <dimension ref="A1:Z181"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <selection activeCell="AA1" sqref="AA1"/>
@@ -13261,6 +13261,2056 @@
         <v>46.27600368543875</v>
       </c>
       <c r="Z156" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>2023-05-06 20:47:41</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>0</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0.01044937026223813</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.6810528378077663</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0</v>
+      </c>
+      <c r="F157" t="n">
+        <v>25.32791720605503</v>
+      </c>
+      <c r="G157" t="n">
+        <v>171.4138487250253</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>59.32445458002216</v>
+      </c>
+      <c r="J157" t="n">
+        <v>122</v>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="n">
+        <v>6.27435234656057</v>
+      </c>
+      <c r="M157" t="n">
+        <v>99</v>
+      </c>
+      <c r="N157" t="n">
+        <v>0</v>
+      </c>
+      <c r="O157" t="n">
+        <v>324.4765332038776</v>
+      </c>
+      <c r="P157" t="n">
+        <v>548.9779715748568</v>
+      </c>
+      <c r="Q157" t="n">
+        <v>0</v>
+      </c>
+      <c r="R157" t="n">
+        <v>40.09485417913151</v>
+      </c>
+      <c r="S157" t="n">
+        <v>48.09343130878064</v>
+      </c>
+      <c r="T157" t="n">
+        <v>0</v>
+      </c>
+      <c r="U157" t="n">
+        <v>1.50982426522905</v>
+      </c>
+      <c r="V157" t="n">
+        <v>1.519610783918837</v>
+      </c>
+      <c r="W157" t="n">
+        <v>0</v>
+      </c>
+      <c r="X157" t="n">
+        <v>28.34364257326916</v>
+      </c>
+      <c r="Y157" t="n">
+        <v>33.62625884069136</v>
+      </c>
+      <c r="Z157" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>2023-05-06 20:47:41</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>1</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0</v>
+      </c>
+      <c r="D158" t="n">
+        <v>17</v>
+      </c>
+      <c r="E158" t="n">
+        <v>1</v>
+      </c>
+      <c r="F158" t="n">
+        <v>41.83963031666645</v>
+      </c>
+      <c r="G158" t="n">
+        <v>120.2357845385129</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>68.72474283309565</v>
+      </c>
+      <c r="J158" t="n">
+        <v>120.9026190660345</v>
+      </c>
+      <c r="K158" t="n">
+        <v>0</v>
+      </c>
+      <c r="L158" t="n">
+        <v>43.65513557395803</v>
+      </c>
+      <c r="M158" t="n">
+        <v>99</v>
+      </c>
+      <c r="N158" t="n">
+        <v>0</v>
+      </c>
+      <c r="O158" t="n">
+        <v>348.4622686807216</v>
+      </c>
+      <c r="P158" t="n">
+        <v>397.231954023336</v>
+      </c>
+      <c r="Q158" t="n">
+        <v>0</v>
+      </c>
+      <c r="R158" t="n">
+        <v>47.91788672475856</v>
+      </c>
+      <c r="S158" t="n">
+        <v>61.78775250241897</v>
+      </c>
+      <c r="T158" t="n">
+        <v>0</v>
+      </c>
+      <c r="U158" t="n">
+        <v>0.8726648174934456</v>
+      </c>
+      <c r="V158" t="n">
+        <v>1.310167948669337</v>
+      </c>
+      <c r="W158" t="n">
+        <v>0</v>
+      </c>
+      <c r="X158" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y158" t="n">
+        <v>23.16515337957453</v>
+      </c>
+      <c r="Z158" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>2023-05-06 20:47:41</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>0</v>
+      </c>
+      <c r="C159" t="n">
+        <v>3.298506483670284</v>
+      </c>
+      <c r="D159" t="n">
+        <v>13.42024087991858</v>
+      </c>
+      <c r="E159" t="n">
+        <v>1</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1.221609015420889</v>
+      </c>
+      <c r="G159" t="n">
+        <v>154.7144623751055</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>100.2745823111131</v>
+      </c>
+      <c r="J159" t="n">
+        <v>103.9918780064968</v>
+      </c>
+      <c r="K159" t="n">
+        <v>0</v>
+      </c>
+      <c r="L159" t="n">
+        <v>10.58868339040588</v>
+      </c>
+      <c r="M159" t="n">
+        <v>59.74329408767326</v>
+      </c>
+      <c r="N159" t="n">
+        <v>0</v>
+      </c>
+      <c r="O159" t="n">
+        <v>427.3270010447258</v>
+      </c>
+      <c r="P159" t="n">
+        <v>613.7072407754071</v>
+      </c>
+      <c r="Q159" t="n">
+        <v>0</v>
+      </c>
+      <c r="R159" t="n">
+        <v>24.36925879906063</v>
+      </c>
+      <c r="S159" t="n">
+        <v>59.68641619767226</v>
+      </c>
+      <c r="T159" t="n">
+        <v>0</v>
+      </c>
+      <c r="U159" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="V159" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="W159" t="n">
+        <v>0</v>
+      </c>
+      <c r="X159" t="n">
+        <v>25.74700496646999</v>
+      </c>
+      <c r="Y159" t="n">
+        <v>41.32413550265633</v>
+      </c>
+      <c r="Z159" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>2023-05-06 20:47:41</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>0</v>
+      </c>
+      <c r="C160" t="n">
+        <v>8.654560806482966</v>
+      </c>
+      <c r="D160" t="n">
+        <v>11.31616690526601</v>
+      </c>
+      <c r="E160" t="n">
+        <v>1</v>
+      </c>
+      <c r="F160" t="n">
+        <v>26.60197951918641</v>
+      </c>
+      <c r="G160" t="n">
+        <v>189.6311971059135</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>30.13859883352816</v>
+      </c>
+      <c r="J160" t="n">
+        <v>86.64885234607351</v>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="n">
+        <v>5.351444692007522</v>
+      </c>
+      <c r="M160" t="n">
+        <v>73.62339677111429</v>
+      </c>
+      <c r="N160" t="n">
+        <v>0</v>
+      </c>
+      <c r="O160" t="n">
+        <v>63.65319218753359</v>
+      </c>
+      <c r="P160" t="n">
+        <v>561.6109884995855</v>
+      </c>
+      <c r="Q160" t="n">
+        <v>0</v>
+      </c>
+      <c r="R160" t="n">
+        <v>7.894268836629179</v>
+      </c>
+      <c r="S160" t="n">
+        <v>48.66274636803551</v>
+      </c>
+      <c r="T160" t="n">
+        <v>0</v>
+      </c>
+      <c r="U160" t="n">
+        <v>1.159543963014688</v>
+      </c>
+      <c r="V160" t="n">
+        <v>2.381911212878961</v>
+      </c>
+      <c r="W160" t="n">
+        <v>0</v>
+      </c>
+      <c r="X160" t="n">
+        <v>24.08644837207467</v>
+      </c>
+      <c r="Y160" t="n">
+        <v>26.6531823360173</v>
+      </c>
+      <c r="Z160" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>2023-05-06 20:47:41</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>1</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0</v>
+      </c>
+      <c r="D161" t="n">
+        <v>17</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0</v>
+      </c>
+      <c r="F161" t="n">
+        <v>54.50942424678798</v>
+      </c>
+      <c r="G161" t="n">
+        <v>199</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>17.10090383739426</v>
+      </c>
+      <c r="J161" t="n">
+        <v>25.67970876717601</v>
+      </c>
+      <c r="K161" t="n">
+        <v>0</v>
+      </c>
+      <c r="L161" t="n">
+        <v>0</v>
+      </c>
+      <c r="M161" t="n">
+        <v>18.28997444801574</v>
+      </c>
+      <c r="N161" t="n">
+        <v>0</v>
+      </c>
+      <c r="O161" t="n">
+        <v>659.1969728630582</v>
+      </c>
+      <c r="P161" t="n">
+        <v>695.8947224595106</v>
+      </c>
+      <c r="Q161" t="n">
+        <v>0</v>
+      </c>
+      <c r="R161" t="n">
+        <v>39.64980701443181</v>
+      </c>
+      <c r="S161" t="n">
+        <v>53.35485186996718</v>
+      </c>
+      <c r="T161" t="n">
+        <v>0</v>
+      </c>
+      <c r="U161" t="n">
+        <v>1.715207620407303</v>
+      </c>
+      <c r="V161" t="n">
+        <v>2.126550398351613</v>
+      </c>
+      <c r="W161" t="n">
+        <v>0</v>
+      </c>
+      <c r="X161" t="n">
+        <v>59.87585728020562</v>
+      </c>
+      <c r="Y161" t="n">
+        <v>76.3346710479529</v>
+      </c>
+      <c r="Z161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>2023-05-06 20:59:54</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>0</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0</v>
+      </c>
+      <c r="D162" t="n">
+        <v>1.60314355904777</v>
+      </c>
+      <c r="E162" t="n">
+        <v>1</v>
+      </c>
+      <c r="F162" t="n">
+        <v>6.014212594512859</v>
+      </c>
+      <c r="G162" t="n">
+        <v>152.3290866773345</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>31.21091321254903</v>
+      </c>
+      <c r="J162" t="n">
+        <v>50.13797224942866</v>
+      </c>
+      <c r="K162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L162" t="n">
+        <v>0.4213215824706391</v>
+      </c>
+      <c r="M162" t="n">
+        <v>22.18280411750866</v>
+      </c>
+      <c r="N162" t="n">
+        <v>0</v>
+      </c>
+      <c r="O162" t="n">
+        <v>576.3857630490318</v>
+      </c>
+      <c r="P162" t="n">
+        <v>846</v>
+      </c>
+      <c r="Q162" t="n">
+        <v>0</v>
+      </c>
+      <c r="R162" t="n">
+        <v>14.55217152564494</v>
+      </c>
+      <c r="S162" t="n">
+        <v>15.19109336481982</v>
+      </c>
+      <c r="T162" t="n">
+        <v>0</v>
+      </c>
+      <c r="U162" t="n">
+        <v>0.1806745157136643</v>
+      </c>
+      <c r="V162" t="n">
+        <v>1.265313677498246</v>
+      </c>
+      <c r="W162" t="n">
+        <v>0</v>
+      </c>
+      <c r="X162" t="n">
+        <v>34.08331921442656</v>
+      </c>
+      <c r="Y162" t="n">
+        <v>53.68161525729334</v>
+      </c>
+      <c r="Z162" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>2023-05-06 20:59:54</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>0</v>
+      </c>
+      <c r="C163" t="n">
+        <v>2.450326104317183</v>
+      </c>
+      <c r="D163" t="n">
+        <v>17</v>
+      </c>
+      <c r="E163" t="n">
+        <v>1</v>
+      </c>
+      <c r="F163" t="n">
+        <v>23.64620590935488</v>
+      </c>
+      <c r="G163" t="n">
+        <v>122.3905159753231</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>7.829222777887169</v>
+      </c>
+      <c r="J163" t="n">
+        <v>73.48656934724778</v>
+      </c>
+      <c r="K163" t="n">
+        <v>0</v>
+      </c>
+      <c r="L163" t="n">
+        <v>59.38196841823385</v>
+      </c>
+      <c r="M163" t="n">
+        <v>80.49100882090571</v>
+      </c>
+      <c r="N163" t="n">
+        <v>0</v>
+      </c>
+      <c r="O163" t="n">
+        <v>641.1575862679507</v>
+      </c>
+      <c r="P163" t="n">
+        <v>846</v>
+      </c>
+      <c r="Q163" t="n">
+        <v>0</v>
+      </c>
+      <c r="R163" t="n">
+        <v>0</v>
+      </c>
+      <c r="S163" t="n">
+        <v>6.553271174698509</v>
+      </c>
+      <c r="T163" t="n">
+        <v>0</v>
+      </c>
+      <c r="U163" t="n">
+        <v>0.7686585965547758</v>
+      </c>
+      <c r="V163" t="n">
+        <v>1.132811376377487</v>
+      </c>
+      <c r="W163" t="n">
+        <v>0</v>
+      </c>
+      <c r="X163" t="n">
+        <v>56.52868001232091</v>
+      </c>
+      <c r="Y163" t="n">
+        <v>80.1800400330492</v>
+      </c>
+      <c r="Z163" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>2023-05-06 20:59:54</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>0</v>
+      </c>
+      <c r="C164" t="n">
+        <v>11.69583955318173</v>
+      </c>
+      <c r="D164" t="n">
+        <v>16.25379810109313</v>
+      </c>
+      <c r="E164" t="n">
+        <v>1</v>
+      </c>
+      <c r="F164" t="n">
+        <v>18.29031252832891</v>
+      </c>
+      <c r="G164" t="n">
+        <v>160.0574857724245</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>59.71059475070172</v>
+      </c>
+      <c r="J164" t="n">
+        <v>74.26543799958591</v>
+      </c>
+      <c r="K164" t="n">
+        <v>0</v>
+      </c>
+      <c r="L164" t="n">
+        <v>57.71078750135888</v>
+      </c>
+      <c r="M164" t="n">
+        <v>75.05261318669152</v>
+      </c>
+      <c r="N164" t="n">
+        <v>0</v>
+      </c>
+      <c r="O164" t="n">
+        <v>368.6778797641138</v>
+      </c>
+      <c r="P164" t="n">
+        <v>772.818807434688</v>
+      </c>
+      <c r="Q164" t="n">
+        <v>0</v>
+      </c>
+      <c r="R164" t="n">
+        <v>4.263837751289987</v>
+      </c>
+      <c r="S164" t="n">
+        <v>26.83069561103573</v>
+      </c>
+      <c r="T164" t="n">
+        <v>0</v>
+      </c>
+      <c r="U164" t="n">
+        <v>0.8856756941410621</v>
+      </c>
+      <c r="V164" t="n">
+        <v>1.506953315790521</v>
+      </c>
+      <c r="W164" t="n">
+        <v>0</v>
+      </c>
+      <c r="X164" t="n">
+        <v>36.94241249570329</v>
+      </c>
+      <c r="Y164" t="n">
+        <v>76.57584356716197</v>
+      </c>
+      <c r="Z164" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>2023-05-06 20:59:55</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>1</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0.4148551851176142</v>
+      </c>
+      <c r="D165" t="n">
+        <v>17</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0</v>
+      </c>
+      <c r="F165" t="n">
+        <v>136.2820263219213</v>
+      </c>
+      <c r="G165" t="n">
+        <v>164.812442747626</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>90.93945440782173</v>
+      </c>
+      <c r="J165" t="n">
+        <v>110.5588341452066</v>
+      </c>
+      <c r="K165" t="n">
+        <v>0</v>
+      </c>
+      <c r="L165" t="n">
+        <v>9.812345006013507</v>
+      </c>
+      <c r="M165" t="n">
+        <v>15.40573281180543</v>
+      </c>
+      <c r="N165" t="n">
+        <v>0</v>
+      </c>
+      <c r="O165" t="n">
+        <v>90.78753914657871</v>
+      </c>
+      <c r="P165" t="n">
+        <v>253.4864750724197</v>
+      </c>
+      <c r="Q165" t="n">
+        <v>0</v>
+      </c>
+      <c r="R165" t="n">
+        <v>18.76762699295925</v>
+      </c>
+      <c r="S165" t="n">
+        <v>45.75186791134978</v>
+      </c>
+      <c r="T165" t="n">
+        <v>0</v>
+      </c>
+      <c r="U165" t="n">
+        <v>0.7722453125513835</v>
+      </c>
+      <c r="V165" t="n">
+        <v>1.925275832177792</v>
+      </c>
+      <c r="W165" t="n">
+        <v>0</v>
+      </c>
+      <c r="X165" t="n">
+        <v>35.66190589979117</v>
+      </c>
+      <c r="Y165" t="n">
+        <v>65.07285856687739</v>
+      </c>
+      <c r="Z165" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>2023-05-06 20:59:55</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>0</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0</v>
+      </c>
+      <c r="D166" t="n">
+        <v>10.6143876986458</v>
+      </c>
+      <c r="E166" t="n">
+        <v>1</v>
+      </c>
+      <c r="F166" t="n">
+        <v>12.19291519378434</v>
+      </c>
+      <c r="G166" t="n">
+        <v>133.7234924830611</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>106.8358177574104</v>
+      </c>
+      <c r="J166" t="n">
+        <v>122</v>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="n">
+        <v>0</v>
+      </c>
+      <c r="M166" t="n">
+        <v>78.65187918567671</v>
+      </c>
+      <c r="N166" t="n">
+        <v>0</v>
+      </c>
+      <c r="O166" t="n">
+        <v>288.5938364858254</v>
+      </c>
+      <c r="P166" t="n">
+        <v>674.0901530706072</v>
+      </c>
+      <c r="Q166" t="n">
+        <v>0</v>
+      </c>
+      <c r="R166" t="n">
+        <v>19.34854278870715</v>
+      </c>
+      <c r="S166" t="n">
+        <v>39.36226987161859</v>
+      </c>
+      <c r="T166" t="n">
+        <v>0</v>
+      </c>
+      <c r="U166" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="V166" t="n">
+        <v>0.851655979145415</v>
+      </c>
+      <c r="W166" t="n">
+        <v>0</v>
+      </c>
+      <c r="X166" t="n">
+        <v>30.60418826677452</v>
+      </c>
+      <c r="Y166" t="n">
+        <v>40.56720467897756</v>
+      </c>
+      <c r="Z166" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>2023-05-06 21:26:36</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>0</v>
+      </c>
+      <c r="C167" t="n">
+        <v>10.17583464138519</v>
+      </c>
+      <c r="D167" t="n">
+        <v>11.92107244521238</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0</v>
+      </c>
+      <c r="F167" t="n">
+        <v>77.22386132154364</v>
+      </c>
+      <c r="G167" t="n">
+        <v>174.2399902032816</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>23.26140917208724</v>
+      </c>
+      <c r="J167" t="n">
+        <v>104.2900384683319</v>
+      </c>
+      <c r="K167" t="n">
+        <v>0</v>
+      </c>
+      <c r="L167" t="n">
+        <v>63.45819373628377</v>
+      </c>
+      <c r="M167" t="n">
+        <v>71.53500380941841</v>
+      </c>
+      <c r="N167" t="n">
+        <v>0</v>
+      </c>
+      <c r="O167" t="n">
+        <v>95.93586783061077</v>
+      </c>
+      <c r="P167" t="n">
+        <v>317.0286245529468</v>
+      </c>
+      <c r="Q167" t="n">
+        <v>1</v>
+      </c>
+      <c r="R167" t="n">
+        <v>2.354929533318432</v>
+      </c>
+      <c r="S167" t="n">
+        <v>58.54311617339661</v>
+      </c>
+      <c r="T167" t="n">
+        <v>0</v>
+      </c>
+      <c r="U167" t="n">
+        <v>0.2960335654884962</v>
+      </c>
+      <c r="V167" t="n">
+        <v>1.32853734268576</v>
+      </c>
+      <c r="W167" t="n">
+        <v>0</v>
+      </c>
+      <c r="X167" t="n">
+        <v>37.68168844124702</v>
+      </c>
+      <c r="Y167" t="n">
+        <v>38.55312438924688</v>
+      </c>
+      <c r="Z167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>2023-05-06 21:26:36</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>0</v>
+      </c>
+      <c r="C168" t="n">
+        <v>1.501334532713214</v>
+      </c>
+      <c r="D168" t="n">
+        <v>12.70540128368095</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0</v>
+      </c>
+      <c r="F168" t="n">
+        <v>28.62660413461449</v>
+      </c>
+      <c r="G168" t="n">
+        <v>163.2372976944847</v>
+      </c>
+      <c r="H168" t="n">
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>8.535588999108445</v>
+      </c>
+      <c r="J168" t="n">
+        <v>122</v>
+      </c>
+      <c r="K168" t="n">
+        <v>0</v>
+      </c>
+      <c r="L168" t="n">
+        <v>63.18134962561437</v>
+      </c>
+      <c r="M168" t="n">
+        <v>84.05745311628279</v>
+      </c>
+      <c r="N168" t="n">
+        <v>0</v>
+      </c>
+      <c r="O168" t="n">
+        <v>446.4712441831648</v>
+      </c>
+      <c r="P168" t="n">
+        <v>682.1022712561461</v>
+      </c>
+      <c r="Q168" t="n">
+        <v>0</v>
+      </c>
+      <c r="R168" t="n">
+        <v>47.31053304016294</v>
+      </c>
+      <c r="S168" t="n">
+        <v>50.87746721189573</v>
+      </c>
+      <c r="T168" t="n">
+        <v>0</v>
+      </c>
+      <c r="U168" t="n">
+        <v>0.4708534572658852</v>
+      </c>
+      <c r="V168" t="n">
+        <v>1.967180001529633</v>
+      </c>
+      <c r="W168" t="n">
+        <v>0</v>
+      </c>
+      <c r="X168" t="n">
+        <v>36.82020135774381</v>
+      </c>
+      <c r="Y168" t="n">
+        <v>52.21455995411172</v>
+      </c>
+      <c r="Z168" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>2023-05-06 21:26:37</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>0</v>
+      </c>
+      <c r="C169" t="n">
+        <v>10.4650553439608</v>
+      </c>
+      <c r="D169" t="n">
+        <v>14.55341216115469</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0</v>
+      </c>
+      <c r="F169" t="n">
+        <v>80.02932326393119</v>
+      </c>
+      <c r="G169" t="n">
+        <v>103.2422405486505</v>
+      </c>
+      <c r="H169" t="n">
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>3.671280618373515</v>
+      </c>
+      <c r="J169" t="n">
+        <v>122</v>
+      </c>
+      <c r="K169" t="n">
+        <v>0</v>
+      </c>
+      <c r="L169" t="n">
+        <v>10.0616851665324</v>
+      </c>
+      <c r="M169" t="n">
+        <v>64.13120688356747</v>
+      </c>
+      <c r="N169" t="n">
+        <v>0</v>
+      </c>
+      <c r="O169" t="n">
+        <v>100.2655737639485</v>
+      </c>
+      <c r="P169" t="n">
+        <v>444.6069556582736</v>
+      </c>
+      <c r="Q169" t="n">
+        <v>0</v>
+      </c>
+      <c r="R169" t="n">
+        <v>0</v>
+      </c>
+      <c r="S169" t="n">
+        <v>31.34879602067629</v>
+      </c>
+      <c r="T169" t="n">
+        <v>0</v>
+      </c>
+      <c r="U169" t="n">
+        <v>0.7595837983861941</v>
+      </c>
+      <c r="V169" t="n">
+        <v>1.167886639163056</v>
+      </c>
+      <c r="W169" t="n">
+        <v>0</v>
+      </c>
+      <c r="X169" t="n">
+        <v>69.63490491030143</v>
+      </c>
+      <c r="Y169" t="n">
+        <v>76.16609833060605</v>
+      </c>
+      <c r="Z169" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>2023-05-06 21:26:37</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>0</v>
+      </c>
+      <c r="C170" t="n">
+        <v>3.046042284438974</v>
+      </c>
+      <c r="D170" t="n">
+        <v>10.38108256149862</v>
+      </c>
+      <c r="E170" t="n">
+        <v>1</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0</v>
+      </c>
+      <c r="G170" t="n">
+        <v>165.8025302138544</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>42.52737159706467</v>
+      </c>
+      <c r="J170" t="n">
+        <v>119.2394882489188</v>
+      </c>
+      <c r="K170" t="n">
+        <v>0</v>
+      </c>
+      <c r="L170" t="n">
+        <v>18.52479639667331</v>
+      </c>
+      <c r="M170" t="n">
+        <v>82.72745526807597</v>
+      </c>
+      <c r="N170" t="n">
+        <v>0</v>
+      </c>
+      <c r="O170" t="n">
+        <v>352.6890266901976</v>
+      </c>
+      <c r="P170" t="n">
+        <v>789.4114847153911</v>
+      </c>
+      <c r="Q170" t="n">
+        <v>0</v>
+      </c>
+      <c r="R170" t="n">
+        <v>15.49030070992767</v>
+      </c>
+      <c r="S170" t="n">
+        <v>19.29127085950014</v>
+      </c>
+      <c r="T170" t="n">
+        <v>0</v>
+      </c>
+      <c r="U170" t="n">
+        <v>0.2716536911786454</v>
+      </c>
+      <c r="V170" t="n">
+        <v>1.018498780480327</v>
+      </c>
+      <c r="W170" t="n">
+        <v>0</v>
+      </c>
+      <c r="X170" t="n">
+        <v>41.87145742397769</v>
+      </c>
+      <c r="Y170" t="n">
+        <v>78.29733374938681</v>
+      </c>
+      <c r="Z170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>2023-05-06 21:26:37</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>0</v>
+      </c>
+      <c r="C171" t="n">
+        <v>5.862445839839012</v>
+      </c>
+      <c r="D171" t="n">
+        <v>7.518670377133969</v>
+      </c>
+      <c r="E171" t="n">
+        <v>1</v>
+      </c>
+      <c r="F171" t="n">
+        <v>1.430093053218122</v>
+      </c>
+      <c r="G171" t="n">
+        <v>164.1002937070781</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>53.4430920084897</v>
+      </c>
+      <c r="J171" t="n">
+        <v>60.60651920543847</v>
+      </c>
+      <c r="K171" t="n">
+        <v>0</v>
+      </c>
+      <c r="L171" t="n">
+        <v>51.47331715353754</v>
+      </c>
+      <c r="M171" t="n">
+        <v>69.99818785197174</v>
+      </c>
+      <c r="N171" t="n">
+        <v>0</v>
+      </c>
+      <c r="O171" t="n">
+        <v>28.79244412306239</v>
+      </c>
+      <c r="P171" t="n">
+        <v>580.5883854674867</v>
+      </c>
+      <c r="Q171" t="n">
+        <v>0</v>
+      </c>
+      <c r="R171" t="n">
+        <v>3.802360228301618</v>
+      </c>
+      <c r="S171" t="n">
+        <v>9.499795865628634</v>
+      </c>
+      <c r="T171" t="n">
+        <v>0</v>
+      </c>
+      <c r="U171" t="n">
+        <v>1.173675737233562</v>
+      </c>
+      <c r="V171" t="n">
+        <v>1.929405451197358</v>
+      </c>
+      <c r="W171" t="n">
+        <v>0</v>
+      </c>
+      <c r="X171" t="n">
+        <v>30.87352751855512</v>
+      </c>
+      <c r="Y171" t="n">
+        <v>46.30281501332466</v>
+      </c>
+      <c r="Z171" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>2023-05-06 21:39:27</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>0</v>
+      </c>
+      <c r="C172" t="n">
+        <v>2.715525237646216</v>
+      </c>
+      <c r="D172" t="n">
+        <v>15.31002650837337</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0</v>
+      </c>
+      <c r="F172" t="n">
+        <v>52.51593565396025</v>
+      </c>
+      <c r="G172" t="n">
+        <v>77.53983258641357</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>107.8745176300019</v>
+      </c>
+      <c r="J172" t="n">
+        <v>121.4040246895696</v>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="n">
+        <v>0</v>
+      </c>
+      <c r="M172" t="n">
+        <v>87.05948246666406</v>
+      </c>
+      <c r="N172" t="n">
+        <v>0</v>
+      </c>
+      <c r="O172" t="n">
+        <v>39.92043040261873</v>
+      </c>
+      <c r="P172" t="n">
+        <v>821.6283237445433</v>
+      </c>
+      <c r="Q172" t="n">
+        <v>0</v>
+      </c>
+      <c r="R172" t="n">
+        <v>0</v>
+      </c>
+      <c r="S172" t="n">
+        <v>38.52692437957416</v>
+      </c>
+      <c r="T172" t="n">
+        <v>0</v>
+      </c>
+      <c r="U172" t="n">
+        <v>1.012646189929247</v>
+      </c>
+      <c r="V172" t="n">
+        <v>1.325813016971574</v>
+      </c>
+      <c r="W172" t="n">
+        <v>0</v>
+      </c>
+      <c r="X172" t="n">
+        <v>30.67562804038129</v>
+      </c>
+      <c r="Y172" t="n">
+        <v>54.94373837804273</v>
+      </c>
+      <c r="Z172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>2023-05-06 21:39:27</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>0</v>
+      </c>
+      <c r="C173" t="n">
+        <v>10.06110275635274</v>
+      </c>
+      <c r="D173" t="n">
+        <v>13.74611989169135</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0</v>
+      </c>
+      <c r="F173" t="n">
+        <v>9.58968920609435</v>
+      </c>
+      <c r="G173" t="n">
+        <v>23.74875200707225</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>84.28101711683018</v>
+      </c>
+      <c r="J173" t="n">
+        <v>85.45241951421377</v>
+      </c>
+      <c r="K173" t="n">
+        <v>0</v>
+      </c>
+      <c r="L173" t="n">
+        <v>28.45249621335409</v>
+      </c>
+      <c r="M173" t="n">
+        <v>37.38888162558378</v>
+      </c>
+      <c r="N173" t="n">
+        <v>0</v>
+      </c>
+      <c r="O173" t="n">
+        <v>405.6882484998489</v>
+      </c>
+      <c r="P173" t="n">
+        <v>846</v>
+      </c>
+      <c r="Q173" t="n">
+        <v>0</v>
+      </c>
+      <c r="R173" t="n">
+        <v>0</v>
+      </c>
+      <c r="S173" t="n">
+        <v>22.19655681094535</v>
+      </c>
+      <c r="T173" t="n">
+        <v>0</v>
+      </c>
+      <c r="U173" t="n">
+        <v>0.1391621524444862</v>
+      </c>
+      <c r="V173" t="n">
+        <v>0.7827422430053897</v>
+      </c>
+      <c r="W173" t="n">
+        <v>1</v>
+      </c>
+      <c r="X173" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y173" t="n">
+        <v>69.42813461080496</v>
+      </c>
+      <c r="Z173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>2023-05-06 21:39:27</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>0</v>
+      </c>
+      <c r="C174" t="n">
+        <v>3.697896153201571</v>
+      </c>
+      <c r="D174" t="n">
+        <v>5.49669359322942</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0</v>
+      </c>
+      <c r="F174" t="n">
+        <v>15.20268523207153</v>
+      </c>
+      <c r="G174" t="n">
+        <v>129.5362789069566</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>42.35208471408704</v>
+      </c>
+      <c r="J174" t="n">
+        <v>46.21185087303008</v>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="n">
+        <v>0</v>
+      </c>
+      <c r="M174" t="n">
+        <v>81.26871728749889</v>
+      </c>
+      <c r="N174" t="n">
+        <v>0</v>
+      </c>
+      <c r="O174" t="n">
+        <v>341.115116356009</v>
+      </c>
+      <c r="P174" t="n">
+        <v>412.9794493955862</v>
+      </c>
+      <c r="Q174" t="n">
+        <v>0</v>
+      </c>
+      <c r="R174" t="n">
+        <v>15.8010856519366</v>
+      </c>
+      <c r="S174" t="n">
+        <v>36.89520319866465</v>
+      </c>
+      <c r="T174" t="n">
+        <v>0</v>
+      </c>
+      <c r="U174" t="n">
+        <v>0.336297961853284</v>
+      </c>
+      <c r="V174" t="n">
+        <v>2.3939549447027</v>
+      </c>
+      <c r="W174" t="n">
+        <v>0</v>
+      </c>
+      <c r="X174" t="n">
+        <v>49.90864481261561</v>
+      </c>
+      <c r="Y174" t="n">
+        <v>72.54984516552113</v>
+      </c>
+      <c r="Z174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>2023-05-06 21:39:27</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>0</v>
+      </c>
+      <c r="C175" t="n">
+        <v>6.547337059698068</v>
+      </c>
+      <c r="D175" t="n">
+        <v>11.34289940342154</v>
+      </c>
+      <c r="E175" t="n">
+        <v>1</v>
+      </c>
+      <c r="F175" t="n">
+        <v>7.825606578405612</v>
+      </c>
+      <c r="G175" t="n">
+        <v>154.5038303881771</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>72.05245929358342</v>
+      </c>
+      <c r="J175" t="n">
+        <v>122</v>
+      </c>
+      <c r="K175" t="n">
+        <v>0</v>
+      </c>
+      <c r="L175" t="n">
+        <v>62.32219026607942</v>
+      </c>
+      <c r="M175" t="n">
+        <v>88.79100456089297</v>
+      </c>
+      <c r="N175" t="n">
+        <v>0</v>
+      </c>
+      <c r="O175" t="n">
+        <v>5.560783658986878</v>
+      </c>
+      <c r="P175" t="n">
+        <v>455.9443011681966</v>
+      </c>
+      <c r="Q175" t="n">
+        <v>0</v>
+      </c>
+      <c r="R175" t="n">
+        <v>43.05487841255244</v>
+      </c>
+      <c r="S175" t="n">
+        <v>54.09056821486843</v>
+      </c>
+      <c r="T175" t="n">
+        <v>1</v>
+      </c>
+      <c r="U175" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="V175" t="n">
+        <v>2.297239868562458</v>
+      </c>
+      <c r="W175" t="n">
+        <v>0</v>
+      </c>
+      <c r="X175" t="n">
+        <v>59.45507919674613</v>
+      </c>
+      <c r="Y175" t="n">
+        <v>64.80696645564886</v>
+      </c>
+      <c r="Z175" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>2023-05-06 21:39:28</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>0</v>
+      </c>
+      <c r="C176" t="n">
+        <v>6.857880108990345</v>
+      </c>
+      <c r="D176" t="n">
+        <v>6.993658387496735</v>
+      </c>
+      <c r="E176" t="n">
+        <v>1</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0</v>
+      </c>
+      <c r="G176" t="n">
+        <v>168.1886734760301</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>73.62651459017565</v>
+      </c>
+      <c r="K176" t="n">
+        <v>0</v>
+      </c>
+      <c r="L176" t="n">
+        <v>25.86968257580757</v>
+      </c>
+      <c r="M176" t="n">
+        <v>77.74170994838967</v>
+      </c>
+      <c r="N176" t="n">
+        <v>0</v>
+      </c>
+      <c r="O176" t="n">
+        <v>356.9788617326982</v>
+      </c>
+      <c r="P176" t="n">
+        <v>737.8288698539978</v>
+      </c>
+      <c r="Q176" t="n">
+        <v>0</v>
+      </c>
+      <c r="R176" t="n">
+        <v>21.59376485185418</v>
+      </c>
+      <c r="S176" t="n">
+        <v>29.57167037630394</v>
+      </c>
+      <c r="T176" t="n">
+        <v>0</v>
+      </c>
+      <c r="U176" t="n">
+        <v>0.9200627578669243</v>
+      </c>
+      <c r="V176" t="n">
+        <v>2.056982765775437</v>
+      </c>
+      <c r="W176" t="n">
+        <v>0</v>
+      </c>
+      <c r="X176" t="n">
+        <v>52.41307437946791</v>
+      </c>
+      <c r="Y176" t="n">
+        <v>62.92151960606804</v>
+      </c>
+      <c r="Z176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>2023-05-06 21:51:44</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>1</v>
+      </c>
+      <c r="C177" t="n">
+        <v>0</v>
+      </c>
+      <c r="D177" t="n">
+        <v>13.71648554597692</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0</v>
+      </c>
+      <c r="F177" t="n">
+        <v>102.8162201699849</v>
+      </c>
+      <c r="G177" t="n">
+        <v>125.9575400410186</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>10.45212540249302</v>
+      </c>
+      <c r="J177" t="n">
+        <v>63.86532270533979</v>
+      </c>
+      <c r="K177" t="n">
+        <v>0</v>
+      </c>
+      <c r="L177" t="n">
+        <v>41.36260640725165</v>
+      </c>
+      <c r="M177" t="n">
+        <v>75.16115343291145</v>
+      </c>
+      <c r="N177" t="n">
+        <v>0</v>
+      </c>
+      <c r="O177" t="n">
+        <v>136.6696429321856</v>
+      </c>
+      <c r="P177" t="n">
+        <v>825.8574947420893</v>
+      </c>
+      <c r="Q177" t="n">
+        <v>0</v>
+      </c>
+      <c r="R177" t="n">
+        <v>9.598180286398163</v>
+      </c>
+      <c r="S177" t="n">
+        <v>42.47053512938572</v>
+      </c>
+      <c r="T177" t="n">
+        <v>0</v>
+      </c>
+      <c r="U177" t="n">
+        <v>1.381293258365452</v>
+      </c>
+      <c r="V177" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="W177" t="n">
+        <v>0</v>
+      </c>
+      <c r="X177" t="n">
+        <v>36.73807467765766</v>
+      </c>
+      <c r="Y177" t="n">
+        <v>65.37431530733315</v>
+      </c>
+      <c r="Z177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>2023-05-06 21:51:44</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>0</v>
+      </c>
+      <c r="C178" t="n">
+        <v>5.142065781308553</v>
+      </c>
+      <c r="D178" t="n">
+        <v>14.80009317103357</v>
+      </c>
+      <c r="E178" t="n">
+        <v>1</v>
+      </c>
+      <c r="F178" t="n">
+        <v>23.5594100289395</v>
+      </c>
+      <c r="G178" t="n">
+        <v>136.3554070087616</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>21.18558456467554</v>
+      </c>
+      <c r="J178" t="n">
+        <v>30.45482254941744</v>
+      </c>
+      <c r="K178" t="n">
+        <v>0</v>
+      </c>
+      <c r="L178" t="n">
+        <v>0.8968414978787518</v>
+      </c>
+      <c r="M178" t="n">
+        <v>70.53558249879893</v>
+      </c>
+      <c r="N178" t="n">
+        <v>0</v>
+      </c>
+      <c r="O178" t="n">
+        <v>196.2531265643993</v>
+      </c>
+      <c r="P178" t="n">
+        <v>387.4222547256492</v>
+      </c>
+      <c r="Q178" t="n">
+        <v>0</v>
+      </c>
+      <c r="R178" t="n">
+        <v>31.6473926729112</v>
+      </c>
+      <c r="S178" t="n">
+        <v>50.17823460090978</v>
+      </c>
+      <c r="T178" t="n">
+        <v>0</v>
+      </c>
+      <c r="U178" t="n">
+        <v>0.5063275082792152</v>
+      </c>
+      <c r="V178" t="n">
+        <v>2.011152619299839</v>
+      </c>
+      <c r="W178" t="n">
+        <v>0</v>
+      </c>
+      <c r="X178" t="n">
+        <v>42.79895632757339</v>
+      </c>
+      <c r="Y178" t="n">
+        <v>46.08183795784925</v>
+      </c>
+      <c r="Z178" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>2023-05-06 21:51:45</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>1</v>
+      </c>
+      <c r="C179" t="n">
+        <v>0</v>
+      </c>
+      <c r="D179" t="n">
+        <v>15.28664472652159</v>
+      </c>
+      <c r="E179" t="n">
+        <v>1</v>
+      </c>
+      <c r="F179" t="n">
+        <v>24.86272374796253</v>
+      </c>
+      <c r="G179" t="n">
+        <v>162.9952382013321</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>11.73679659468472</v>
+      </c>
+      <c r="J179" t="n">
+        <v>38.78491237957884</v>
+      </c>
+      <c r="K179" t="n">
+        <v>0</v>
+      </c>
+      <c r="L179" t="n">
+        <v>61.32593850637623</v>
+      </c>
+      <c r="M179" t="n">
+        <v>96.10009816954768</v>
+      </c>
+      <c r="N179" t="n">
+        <v>0</v>
+      </c>
+      <c r="O179" t="n">
+        <v>710.5500446953647</v>
+      </c>
+      <c r="P179" t="n">
+        <v>761.4121584591873</v>
+      </c>
+      <c r="Q179" t="n">
+        <v>0</v>
+      </c>
+      <c r="R179" t="n">
+        <v>3.908923139295529</v>
+      </c>
+      <c r="S179" t="n">
+        <v>20.85314884894609</v>
+      </c>
+      <c r="T179" t="n">
+        <v>0</v>
+      </c>
+      <c r="U179" t="n">
+        <v>1.302396169677341</v>
+      </c>
+      <c r="V179" t="n">
+        <v>2.277940846993287</v>
+      </c>
+      <c r="W179" t="n">
+        <v>0</v>
+      </c>
+      <c r="X179" t="n">
+        <v>24.79905916393535</v>
+      </c>
+      <c r="Y179" t="n">
+        <v>44.56103004734008</v>
+      </c>
+      <c r="Z179" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>2023-05-06 21:51:45</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>1</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0</v>
+      </c>
+      <c r="D180" t="n">
+        <v>15.98195801106172</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0</v>
+      </c>
+      <c r="F180" t="n">
+        <v>30.59445040165647</v>
+      </c>
+      <c r="G180" t="n">
+        <v>97.91191002196059</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>62.82118920786035</v>
+      </c>
+      <c r="J180" t="n">
+        <v>88.29694864606668</v>
+      </c>
+      <c r="K180" t="n">
+        <v>0</v>
+      </c>
+      <c r="L180" t="n">
+        <v>19.47999178856117</v>
+      </c>
+      <c r="M180" t="n">
+        <v>74.4625434701036</v>
+      </c>
+      <c r="N180" t="n">
+        <v>0</v>
+      </c>
+      <c r="O180" t="n">
+        <v>155.2091737476528</v>
+      </c>
+      <c r="P180" t="n">
+        <v>706.4428758136584</v>
+      </c>
+      <c r="Q180" t="n">
+        <v>0</v>
+      </c>
+      <c r="R180" t="n">
+        <v>23.06032396679242</v>
+      </c>
+      <c r="S180" t="n">
+        <v>63.43070036951755</v>
+      </c>
+      <c r="T180" t="n">
+        <v>0</v>
+      </c>
+      <c r="U180" t="n">
+        <v>0.1650753216605933</v>
+      </c>
+      <c r="V180" t="n">
+        <v>1.681715940876075</v>
+      </c>
+      <c r="W180" t="n">
+        <v>0</v>
+      </c>
+      <c r="X180" t="n">
+        <v>56.93089135304285</v>
+      </c>
+      <c r="Y180" t="n">
+        <v>81</v>
+      </c>
+      <c r="Z180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>2023-05-06 21:51:45</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>0</v>
+      </c>
+      <c r="C181" t="n">
+        <v>13.62798010165523</v>
+      </c>
+      <c r="D181" t="n">
+        <v>16.03178296139976</v>
+      </c>
+      <c r="E181" t="n">
+        <v>1</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0</v>
+      </c>
+      <c r="G181" t="n">
+        <v>150.1893488754999</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>18.97090310301424</v>
+      </c>
+      <c r="J181" t="n">
+        <v>56.71362578898504</v>
+      </c>
+      <c r="K181" t="n">
+        <v>0</v>
+      </c>
+      <c r="L181" t="n">
+        <v>19.29163481886964</v>
+      </c>
+      <c r="M181" t="n">
+        <v>47.84797589617634</v>
+      </c>
+      <c r="N181" t="n">
+        <v>0</v>
+      </c>
+      <c r="O181" t="n">
+        <v>132.5478541555191</v>
+      </c>
+      <c r="P181" t="n">
+        <v>282.8085316104742</v>
+      </c>
+      <c r="Q181" t="n">
+        <v>0</v>
+      </c>
+      <c r="R181" t="n">
+        <v>27.21741744483732</v>
+      </c>
+      <c r="S181" t="n">
+        <v>40.9641807221513</v>
+      </c>
+      <c r="T181" t="n">
+        <v>0</v>
+      </c>
+      <c r="U181" t="n">
+        <v>0.3381112684786632</v>
+      </c>
+      <c r="V181" t="n">
+        <v>2.121540664845981</v>
+      </c>
+      <c r="W181" t="n">
+        <v>0</v>
+      </c>
+      <c r="X181" t="n">
+        <v>37.49254927131222</v>
+      </c>
+      <c r="Y181" t="n">
+        <v>48.73567351185761</v>
+      </c>
+      <c r="Z181" t="n">
         <v>0.95</v>
       </c>
     </row>
